--- a/CR - Cost Report/2_CBOM/Cost_v1.0.xlsx
+++ b/CR - Cost Report/2_CBOM/Cost_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95079018-245B-44E2-B011-C50C5D461468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE5800-B919-4812-95D1-6AADC5D2B0D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{FCC80F8F-209D-4EE0-B38E-B50CD23ACA60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{FCC80F8F-209D-4EE0-B38E-B50CD23ACA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -312,9 +312,6 @@
     <t>Baileigh</t>
   </si>
   <si>
-    <t>https://www.baileigh.com/cnc-laser-table-fl-510hd-500</t>
-  </si>
-  <si>
     <t>Laser cutter</t>
   </si>
   <si>
@@ -1771,6 +1768,9 @@
   </si>
   <si>
     <t>SKYTE0101YT</t>
+  </si>
+  <si>
+    <t>https://www.baileigh.com/cnc-laser-table-fl-510hd-1000</t>
   </si>
 </sst>
 </file>
@@ -3089,288 +3089,288 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -6581,8 +6581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="128" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6598,7 +6598,7 @@
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="87.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="29.85546875" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
@@ -6612,29 +6612,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
       <c r="D1" s="48"/>
-      <c r="F1" s="254" t="s">
+      <c r="F1" s="234" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="256"/>
-      <c r="L1" s="257" t="s">
-        <v>190</v>
-      </c>
-      <c r="M1" s="258"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="258"/>
-      <c r="P1" s="258"/>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="259"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="236"/>
+      <c r="L1" s="237" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="239"/>
     </row>
     <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
@@ -6647,7 +6647,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="92" t="s">
         <v>28</v>
@@ -6659,10 +6659,10 @@
         <v>17</v>
       </c>
       <c r="I2" s="94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J2" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L2" s="118" t="s">
         <v>15</v>
@@ -6672,19 +6672,19 @@
         <v>16</v>
       </c>
       <c r="O2" s="119" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P2" s="119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q2" s="119" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="120" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S2" s="121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -6698,14 +6698,14 @@
         <f>'Manpower &amp; time'!D8</f>
         <v>21161</v>
       </c>
-      <c r="D3" s="271" t="s">
-        <v>482</v>
+      <c r="D3" s="256" t="s">
+        <v>481</v>
       </c>
       <c r="F3" s="106" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H3" s="96">
         <f>SUM(Metrology!E13:E16)</f>
@@ -6718,15 +6718,15 @@
         <f>H3/I3</f>
         <v>242.80000000000004</v>
       </c>
-      <c r="L3" s="235" t="s">
-        <v>449</v>
-      </c>
-      <c r="M3" s="236"/>
+      <c r="L3" s="242" t="s">
+        <v>448</v>
+      </c>
+      <c r="M3" s="272"/>
       <c r="N3" s="100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P3" s="58"/>
       <c r="Q3" s="59">
@@ -6750,10 +6750,10 @@
         <f>'Manpower &amp; time'!D9</f>
         <v>40641</v>
       </c>
-      <c r="D4" s="272"/>
+      <c r="D4" s="257"/>
       <c r="F4" s="107"/>
       <c r="G4" s="101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H4" s="83">
         <f>SUM(Metrology!E17:E18)</f>
@@ -6767,16 +6767,16 @@
         <v>190.72</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M4" s="124">
         <v>22.4</v>
       </c>
       <c r="N4" s="101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="29">
@@ -6800,10 +6800,10 @@
         <f>'Manpower &amp; time'!D11</f>
         <v>71259</v>
       </c>
-      <c r="D5" s="272"/>
+      <c r="D5" s="257"/>
       <c r="F5" s="107"/>
       <c r="G5" s="101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H5" s="83">
         <f>2*SUM(Metrology!E2:E7)</f>
@@ -6817,17 +6817,17 @@
         <v>104.31999999999998</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M5" s="125">
         <f>C9</f>
         <v>0.8</v>
       </c>
       <c r="N5" s="101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="29">
@@ -6851,7 +6851,7 @@
         <f>'Manpower &amp; time'!D9</f>
         <v>40641</v>
       </c>
-      <c r="D6" s="273"/>
+      <c r="D6" s="258"/>
       <c r="F6" s="107"/>
       <c r="G6" s="101" t="s">
         <v>32</v>
@@ -6868,7 +6868,7 @@
         <v>2373.36</v>
       </c>
       <c r="L6" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M6" s="124">
         <v>5</v>
@@ -6877,10 +6877,10 @@
         <v>22</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="29">
         <f>0.05*Q3</f>
@@ -6907,7 +6907,7 @@
       <c r="D7" s="64"/>
       <c r="F7" s="107"/>
       <c r="G7" s="101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" s="83">
         <f>SUM(Metrology!E9:E11)</f>
@@ -6921,7 +6921,7 @@
         <v>350.64</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M7" s="126">
         <f>1/10000</f>
@@ -6931,10 +6931,10 @@
         <v>19</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="55">
         <f>M4*0.8*C12</f>
@@ -6955,7 +6955,7 @@
       <c r="D8" s="65"/>
       <c r="F8" s="107"/>
       <c r="G8" s="101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H8" s="83">
         <f>2*Metrology!E20</f>
@@ -6969,20 +6969,20 @@
         <v>44.673285539487409</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M8" s="126">
         <f>M7*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="N8" s="101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="27">
         <v>20</v>
@@ -6999,11 +6999,11 @@
         <v>0.8</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" s="108"/>
       <c r="G9" s="102" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H9" s="63">
         <f>Metrology!E24</f>
@@ -7017,20 +7017,20 @@
         <v>462.5</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M9" s="126">
         <f>M7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N9" s="101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="29">
         <f>1*'CNC mill'!F31</f>
@@ -7047,19 +7047,19 @@
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51"/>
       <c r="B10" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="67">
         <v>0.95</v>
       </c>
       <c r="D10" s="156" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10" s="109" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H10" s="59">
         <f>Energies!B7</f>
@@ -7073,7 +7073,7 @@
         <v>2874.8160000000003</v>
       </c>
       <c r="L10" s="142" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M10" s="143">
         <v>20</v>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="59">
         <f>Energies!B7</f>
@@ -7099,7 +7099,7 @@
       <c r="D11" s="60"/>
       <c r="F11" s="110"/>
       <c r="G11" s="157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H11" s="27">
         <f>16*C7*C8*C12</f>
@@ -7112,15 +7112,15 @@
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="L11" s="230" t="s">
+      <c r="L11" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="269"/>
+      <c r="M11" s="252"/>
       <c r="N11" s="100" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O11" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P11" s="58"/>
       <c r="Q11" s="144">
@@ -7138,7 +7138,7 @@
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="70"/>
       <c r="B12" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="55">
         <f>Energies!B8</f>
@@ -7147,7 +7147,7 @@
       <c r="D12" s="71"/>
       <c r="F12" s="110"/>
       <c r="G12" s="104" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H12" s="27">
         <f>Energies!C12*60</f>
@@ -7161,16 +7161,16 @@
         <v>147.35999999999999</v>
       </c>
       <c r="L12" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M12" s="129">
         <v>29.8</v>
       </c>
       <c r="N12" s="101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="29">
@@ -7188,7 +7188,7 @@
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="72"/>
       <c r="B13" s="62" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C13" s="63">
         <f>Energies!C12</f>
@@ -7196,10 +7196,10 @@
       </c>
       <c r="D13" s="73"/>
       <c r="F13" s="112" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="59">
         <f>C6</f>
@@ -7213,17 +7213,17 @@
         <v>40641</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M13" s="130">
         <f>C9</f>
         <v>0.8</v>
       </c>
       <c r="N13" s="101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="29">
@@ -7240,10 +7240,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C14" s="75">
         <v>1.21773</v>
@@ -7251,7 +7251,7 @@
       <c r="D14" s="64"/>
       <c r="F14" s="113"/>
       <c r="G14" s="101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H14" s="29">
         <f>C5*0.4</f>
@@ -7265,7 +7265,7 @@
         <v>28503.600000000002</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M14" s="129">
         <v>5</v>
@@ -7274,10 +7274,10 @@
         <v>22</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="27">
         <f>0.05*Q11</f>
@@ -7294,7 +7294,7 @@
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76"/>
       <c r="B15" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="67">
         <v>0.2</v>
@@ -7302,7 +7302,7 @@
       <c r="D15" s="68"/>
       <c r="F15" s="113"/>
       <c r="G15" s="101" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H15" s="29">
         <f>'Manpower &amp; time'!G12</f>
@@ -7316,7 +7316,7 @@
         <v>11490.34500000001</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M15" s="131">
         <f>1/10000</f>
@@ -7326,10 +7326,10 @@
         <v>19</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q15" s="55">
         <f>M12*0.8*C12</f>
@@ -7341,7 +7341,7 @@
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="114"/>
       <c r="G16" s="102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H16" s="63">
         <f>'Manpower &amp; time'!C36</f>
@@ -7355,20 +7355,20 @@
         <v>14044.629000000001</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M16" s="131">
         <f>M15*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="N16" s="101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="27">
         <v>10</v>
@@ -7395,20 +7395,20 @@
         <v>2177.0666666666666</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M17" s="131">
         <f>M15*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N17" s="101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="29">
         <f>'CNC lathe'!F14</f>
@@ -7425,7 +7425,7 @@
     <row r="18" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="116"/>
       <c r="G18" s="101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="29">
         <f>IT!E6</f>
@@ -7439,7 +7439,7 @@
         <v>71.733333333333334</v>
       </c>
       <c r="L18" s="225" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M18" s="140">
         <v>15</v>
@@ -7455,7 +7455,7 @@
       <c r="D19" s="6"/>
       <c r="F19" s="116"/>
       <c r="G19" s="159" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H19" s="29">
         <f>2*IT!E7+IT!E8+2*IT!E9+IT!E10</f>
@@ -7468,33 +7468,33 @@
         <f t="shared" si="0"/>
         <v>261.39000000000004</v>
       </c>
-      <c r="L19" s="237" t="s">
+      <c r="L19" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="238"/>
+      <c r="M19" s="274"/>
       <c r="N19" s="100" t="s">
         <v>21</v>
       </c>
       <c r="O19" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P19" s="58"/>
       <c r="Q19" s="59">
         <f>'Laser cutter'!G4</f>
-        <v>171626.71528171271</v>
+        <v>108770.41708753172</v>
       </c>
       <c r="R19" s="58">
         <v>10</v>
       </c>
       <c r="S19" s="60">
         <f>Q19/R19</f>
-        <v>17162.671528171271</v>
+        <v>10877.041708753171</v>
       </c>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F20" s="116"/>
       <c r="G20" s="101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H20" s="29">
         <f>IT!E4*12*3</f>
@@ -7508,7 +7508,7 @@
         <v>378</v>
       </c>
       <c r="L20" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M20" s="132">
         <v>7.5</v>
@@ -7517,27 +7517,27 @@
         <v>22</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="29">
         <f>0.05*Q19</f>
-        <v>8581.3357640856357</v>
+        <v>5438.5208543765866</v>
       </c>
       <c r="R20" s="26">
         <v>1</v>
       </c>
       <c r="S20" s="61">
         <f>Q20/R20</f>
-        <v>8581.3357640856357</v>
+        <v>5438.5208543765866</v>
       </c>
     </row>
     <row r="21" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F21" s="116"/>
       <c r="G21" s="101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H21" s="29">
         <f>IT!E3*2</f>
@@ -7551,7 +7551,7 @@
         <v>796.80000000000007</v>
       </c>
       <c r="L21" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M21" s="133">
         <v>0.7</v>
@@ -7560,10 +7560,10 @@
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P21" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="55">
         <f>M20*0.8*C12</f>
@@ -7589,19 +7589,19 @@
         <v>756</v>
       </c>
       <c r="L22" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M22" s="132">
         <v>5</v>
       </c>
       <c r="N22" s="101" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="29">
         <f>'Laser cutter'!G5/20</f>
@@ -7613,7 +7613,7 @@
     <row r="23" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F23" s="117"/>
       <c r="G23" s="102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H23" s="63">
         <f>IT!E24+IT!E23</f>
@@ -7627,7 +7627,7 @@
         <v>128.05666666666667</v>
       </c>
       <c r="L23" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M23" s="134">
         <v>4.6000000000000001E-4</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F24" s="106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G24" s="100" t="s">
         <v>37</v>
@@ -7657,7 +7657,7 @@
         <v>200</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M24" s="135">
         <v>1.5</v>
@@ -7672,7 +7672,7 @@
     <row r="25" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="108"/>
       <c r="G25" s="102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H25" s="63">
         <f>Office!D2*3+Office!D3*3+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10+Office!D9</f>
@@ -7686,7 +7686,7 @@
         <v>1073.9000000000001</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M25" s="135">
         <v>1</v>
@@ -7703,7 +7703,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="158" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H26" s="59">
         <f>SUM(Manufacturing!G3:G8)+Manufacturing!G9*4</f>
@@ -7717,7 +7717,7 @@
         <v>1819.4977983625272</v>
       </c>
       <c r="L26" s="148" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M26" s="149">
         <v>8</v>
@@ -7732,7 +7732,7 @@
     <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F27" s="110"/>
       <c r="G27" s="101" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H27" s="29">
         <f>Manufacturing!G26</f>
@@ -7750,10 +7750,10 @@
       </c>
       <c r="M27" s="150"/>
       <c r="N27" s="100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O27" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P27" s="58"/>
       <c r="Q27" s="59">
@@ -7771,7 +7771,7 @@
     <row r="28" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F28" s="110"/>
       <c r="G28" s="101" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H28" s="29">
         <f>Manufacturing!G27</f>
@@ -7790,7 +7790,7 @@
         <v>38</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P28" s="26"/>
       <c r="Q28" s="29">
@@ -7808,7 +7808,7 @@
     <row r="29" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F29" s="110"/>
       <c r="G29" s="101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H29" s="29">
         <f>Manufacturing!G11*3+Manufacturing!G12*3</f>
@@ -7822,17 +7822,17 @@
         <v>813.74519999999995</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M29" s="125">
         <f>C9</f>
         <v>0.8</v>
       </c>
       <c r="N29" s="101" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P29" s="26"/>
       <c r="Q29" s="29">
@@ -7850,7 +7850,7 @@
     <row r="30" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F30" s="110"/>
       <c r="G30" s="159" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H30" s="29">
         <f>0.5*H29</f>
@@ -7864,7 +7864,7 @@
         <v>406.87259999999998</v>
       </c>
       <c r="L30" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M30" s="136">
         <f>Welding!B32</f>
@@ -7874,7 +7874,7 @@
         <v>27</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P30" s="26"/>
       <c r="Q30" s="29">
@@ -7892,7 +7892,7 @@
     <row r="31" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F31" s="110"/>
       <c r="G31" s="101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H31" s="29">
         <v>4000</v>
@@ -7907,10 +7907,10 @@
       <c r="L31" s="44"/>
       <c r="M31" s="124"/>
       <c r="N31" s="101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P31" s="26"/>
       <c r="Q31" s="29">
@@ -7928,7 +7928,7 @@
     <row r="32" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F32" s="110"/>
       <c r="G32" s="101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H32" s="29">
         <v>3000</v>
@@ -7946,10 +7946,10 @@
         <v>22</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="29">
         <f>0.03*(Q27+Q28)</f>
@@ -7966,7 +7966,7 @@
     <row r="33" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F33" s="110"/>
       <c r="G33" s="101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H33" s="29">
         <f>Manufacturing!G24</f>
@@ -7985,10 +7985,10 @@
         <v>19</v>
       </c>
       <c r="O33" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q33" s="55">
         <f>(0.75+0.5)*C12</f>
@@ -8016,13 +8016,13 @@
       <c r="L34" s="127"/>
       <c r="M34" s="128"/>
       <c r="N34" s="101" t="s">
-        <v>423</v>
-      </c>
-      <c r="O34" s="274" t="s">
-        <v>195</v>
-      </c>
-      <c r="P34" s="275" t="s">
         <v>422</v>
+      </c>
+      <c r="O34" s="259" t="s">
+        <v>194</v>
+      </c>
+      <c r="P34" s="260" t="s">
+        <v>421</v>
       </c>
       <c r="Q34" s="29">
         <f>Welding!B29</f>
@@ -8034,7 +8034,7 @@
     <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="110"/>
       <c r="G35" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H35" s="29">
         <f>Manufacturing!G16*5+Manufacturing!G17+Manufacturing!G18+Manufacturing!G19+Manufacturing!G20*3+Manufacturing!G21*30</f>
@@ -8050,10 +8050,10 @@
       <c r="L35" s="137"/>
       <c r="M35" s="138"/>
       <c r="N35" s="101" t="s">
-        <v>424</v>
-      </c>
-      <c r="O35" s="274"/>
-      <c r="P35" s="275"/>
+        <v>423</v>
+      </c>
+      <c r="O35" s="259"/>
+      <c r="P35" s="260"/>
       <c r="Q35" s="29">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
@@ -8064,7 +8064,7 @@
     <row r="36" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="110"/>
       <c r="G36" s="104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H36" s="29">
         <f>Manufacturing!G14</f>
@@ -8080,13 +8080,13 @@
       <c r="L36" s="23"/>
       <c r="M36" s="151"/>
       <c r="N36" s="102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O36" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P36" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q36" s="63">
         <f>Welding!B17</f>
@@ -8098,7 +8098,7 @@
     <row r="37" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F37" s="110"/>
       <c r="G37" s="104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H37" s="29">
         <f>15*C12*C7*C8</f>
@@ -8111,15 +8111,15 @@
         <f>H37/I37</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L37" s="230" t="s">
-        <v>364</v>
-      </c>
-      <c r="M37" s="269"/>
+      <c r="L37" s="251" t="s">
+        <v>363</v>
+      </c>
+      <c r="M37" s="252"/>
       <c r="N37" s="100" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O37" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P37" s="58"/>
       <c r="Q37" s="144">
@@ -8137,7 +8137,7 @@
     <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="111"/>
       <c r="G38" s="105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H38" s="63">
         <f>2*Manufacturing!G29</f>
@@ -8151,16 +8151,16 @@
         <v>215</v>
       </c>
       <c r="L38" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M38" s="129">
         <v>6</v>
       </c>
       <c r="N38" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O38" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P38" s="26"/>
       <c r="Q38" s="29">
@@ -8180,16 +8180,16 @@
       <c r="G39" s="11"/>
       <c r="J39" s="6"/>
       <c r="L39" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M39" s="130">
         <v>0.44</v>
       </c>
       <c r="N39" s="101" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O39" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P39" s="26"/>
       <c r="Q39" s="29">
@@ -8205,15 +8205,15 @@
       </c>
     </row>
     <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="263" t="s">
-        <v>486</v>
-      </c>
-      <c r="G40" s="264"/>
-      <c r="H40" s="264"/>
-      <c r="I40" s="264"/>
-      <c r="J40" s="265"/>
+      <c r="F40" s="244" t="s">
+        <v>485</v>
+      </c>
+      <c r="G40" s="245"/>
+      <c r="H40" s="245"/>
+      <c r="I40" s="245"/>
+      <c r="J40" s="246"/>
       <c r="L40" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M40" s="129">
         <v>5</v>
@@ -8222,10 +8222,10 @@
         <v>22</v>
       </c>
       <c r="O40" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P40" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q40" s="27">
         <f>0.03*(Q38+Q37)</f>
@@ -8240,20 +8240,20 @@
       </c>
     </row>
     <row r="41" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F41" s="244" t="s">
-        <v>284</v>
-      </c>
-      <c r="G41" s="267" t="s">
-        <v>445</v>
-      </c>
-      <c r="H41" s="267"/>
-      <c r="I41" s="268"/>
+      <c r="F41" s="261" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" s="249" t="s">
+        <v>444</v>
+      </c>
+      <c r="H41" s="249"/>
+      <c r="I41" s="250"/>
       <c r="J41" s="87">
         <f>SUM(J3:J38)*1.05</f>
         <v>127700.70111809715</v>
       </c>
       <c r="L41" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M41" s="131">
         <f>3*1/10000</f>
@@ -8263,10 +8263,10 @@
         <v>19</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P41" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q41" s="55">
         <f>M38*0.8*C12</f>
@@ -8276,30 +8276,30 @@
       <c r="S41" s="141"/>
     </row>
     <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="245"/>
-      <c r="G42" s="266" t="s">
-        <v>250</v>
-      </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="252"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="247" t="s">
+        <v>249</v>
+      </c>
+      <c r="H42" s="247"/>
+      <c r="I42" s="248"/>
       <c r="J42" s="88">
         <f>J41/SUM('Manpower &amp; time'!C32:J32)</f>
         <v>11.714929813378353</v>
       </c>
       <c r="L42" s="139" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M42" s="140">
         <v>10</v>
       </c>
       <c r="N42" s="102" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O42" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P42" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q42" s="152">
         <v>10</v>
@@ -8308,87 +8308,87 @@
       <c r="S42" s="73"/>
     </row>
     <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="246" t="s">
+      <c r="F43" s="263" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" s="250" t="s">
         <v>285</v>
       </c>
-      <c r="G43" s="268" t="s">
-        <v>286</v>
-      </c>
-      <c r="H43" s="270"/>
-      <c r="I43" s="270"/>
+      <c r="H43" s="253"/>
+      <c r="I43" s="253"/>
       <c r="J43" s="89">
         <f>'Manpower &amp; time'!H8</f>
         <v>12.595833333333333</v>
       </c>
     </row>
     <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="247"/>
-      <c r="G44" s="242" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44" s="243"/>
-      <c r="I44" s="243"/>
+      <c r="F44" s="264"/>
+      <c r="G44" s="254" t="s">
+        <v>296</v>
+      </c>
+      <c r="H44" s="255"/>
+      <c r="I44" s="255"/>
       <c r="J44" s="90">
         <f>'Manpower &amp; time'!H9</f>
         <v>24.191071428571426</v>
       </c>
-      <c r="L44" s="249" t="s">
-        <v>487</v>
-      </c>
-      <c r="M44" s="250"/>
-      <c r="N44" s="250"/>
-      <c r="O44" s="250"/>
-      <c r="P44" s="250"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="251"/>
+      <c r="L44" s="266" t="s">
+        <v>486</v>
+      </c>
+      <c r="M44" s="267"/>
+      <c r="N44" s="267"/>
+      <c r="O44" s="267"/>
+      <c r="P44" s="267"/>
+      <c r="Q44" s="267"/>
+      <c r="R44" s="268"/>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="247"/>
-      <c r="G45" s="242" t="s">
-        <v>439</v>
-      </c>
-      <c r="H45" s="243"/>
-      <c r="I45" s="243"/>
+      <c r="F45" s="264"/>
+      <c r="G45" s="254" t="s">
+        <v>438</v>
+      </c>
+      <c r="H45" s="255"/>
+      <c r="I45" s="255"/>
       <c r="J45" s="90">
         <f>'Manpower &amp; time'!H10</f>
         <v>30.467857142857142</v>
       </c>
-      <c r="L45" s="235" t="s">
-        <v>449</v>
-      </c>
-      <c r="M45" s="262"/>
-      <c r="N45" s="232" t="s">
-        <v>259</v>
-      </c>
-      <c r="O45" s="232"/>
-      <c r="P45" s="232"/>
-      <c r="Q45" s="232"/>
+      <c r="L45" s="242" t="s">
+        <v>448</v>
+      </c>
+      <c r="M45" s="243"/>
+      <c r="N45" s="229" t="s">
+        <v>258</v>
+      </c>
+      <c r="O45" s="229"/>
+      <c r="P45" s="229"/>
+      <c r="Q45" s="229"/>
       <c r="R45" s="77">
         <f>SUM(S3:S6)+S9</f>
         <v>17591.025600000001</v>
       </c>
     </row>
     <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="248"/>
-      <c r="G46" s="252" t="s">
-        <v>287</v>
-      </c>
-      <c r="H46" s="253"/>
-      <c r="I46" s="253"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="248" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="269"/>
+      <c r="I46" s="269"/>
       <c r="J46" s="91">
         <f>'Manpower &amp; time'!H11</f>
         <v>42.416071428571428</v>
       </c>
-      <c r="L46" s="227" t="s">
-        <v>453</v>
-      </c>
-      <c r="M46" s="228"/>
-      <c r="N46" s="226" t="s">
-        <v>260</v>
-      </c>
-      <c r="O46" s="226"/>
-      <c r="P46" s="226"/>
-      <c r="Q46" s="226"/>
+      <c r="L46" s="278" t="s">
+        <v>452</v>
+      </c>
+      <c r="M46" s="279"/>
+      <c r="N46" s="230" t="s">
+        <v>259</v>
+      </c>
+      <c r="O46" s="230"/>
+      <c r="P46" s="230"/>
+      <c r="Q46" s="230"/>
       <c r="R46" s="78">
         <f>R45/(M5*C7*C8)+J42</f>
         <v>25.492362144205423</v>
@@ -8397,17 +8397,17 @@
     <row r="47" spans="6:19" x14ac:dyDescent="0.25">
       <c r="J47" s="14"/>
       <c r="L47" s="37" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M47" s="38">
         <v>2.5</v>
       </c>
-      <c r="N47" s="226" t="s">
-        <v>261</v>
-      </c>
-      <c r="O47" s="226"/>
-      <c r="P47" s="226"/>
-      <c r="Q47" s="226"/>
+      <c r="N47" s="230" t="s">
+        <v>260</v>
+      </c>
+      <c r="O47" s="230"/>
+      <c r="P47" s="230"/>
+      <c r="Q47" s="230"/>
       <c r="R47" s="78">
         <f>R46+Q8+Q7</f>
         <v>46.895498144205419</v>
@@ -8416,15 +8416,15 @@
     <row r="48" spans="6:19" x14ac:dyDescent="0.25">
       <c r="J48" s="14"/>
       <c r="L48" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M48" s="38">
         <v>0.5</v>
       </c>
-      <c r="N48" s="226"/>
-      <c r="O48" s="226"/>
-      <c r="P48" s="226"/>
-      <c r="Q48" s="226"/>
+      <c r="N48" s="230"/>
+      <c r="O48" s="230"/>
+      <c r="P48" s="230"/>
+      <c r="Q48" s="230"/>
       <c r="R48" s="79"/>
     </row>
     <row r="49" spans="6:18" x14ac:dyDescent="0.25">
@@ -8432,12 +8432,12 @@
       <c r="J49" s="14"/>
       <c r="L49" s="21"/>
       <c r="M49" s="22"/>
-      <c r="N49" s="226" t="s">
-        <v>246</v>
-      </c>
-      <c r="O49" s="226"/>
-      <c r="P49" s="226"/>
-      <c r="Q49" s="226"/>
+      <c r="N49" s="230" t="s">
+        <v>245</v>
+      </c>
+      <c r="O49" s="230"/>
+      <c r="P49" s="230"/>
+      <c r="Q49" s="230"/>
       <c r="R49" s="80">
         <f>('Manpower &amp; time'!H8+R47)*M7/60</f>
         <v>9.9152219129231255E-5</v>
@@ -8448,12 +8448,12 @@
       <c r="J50" s="14"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="226" t="s">
-        <v>444</v>
-      </c>
-      <c r="O50" s="226"/>
-      <c r="P50" s="226"/>
-      <c r="Q50" s="226"/>
+      <c r="N50" s="230" t="s">
+        <v>443</v>
+      </c>
+      <c r="O50" s="230"/>
+      <c r="P50" s="230"/>
+      <c r="Q50" s="230"/>
       <c r="R50" s="81">
         <f>('Manpower &amp; time'!H8)*M7/60/R49</f>
         <v>0.2117255240469606</v>
@@ -8464,21 +8464,21 @@
       <c r="J51" s="14"/>
       <c r="L51" s="21"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="226"/>
-      <c r="O51" s="226"/>
-      <c r="P51" s="226"/>
-      <c r="Q51" s="226"/>
+      <c r="N51" s="230"/>
+      <c r="O51" s="230"/>
+      <c r="P51" s="230"/>
+      <c r="Q51" s="230"/>
       <c r="R51" s="80"/>
     </row>
     <row r="52" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L52" s="21"/>
       <c r="M52" s="22"/>
-      <c r="N52" s="226" t="s">
-        <v>249</v>
-      </c>
-      <c r="O52" s="226"/>
-      <c r="P52" s="226"/>
-      <c r="Q52" s="226"/>
+      <c r="N52" s="230" t="s">
+        <v>248</v>
+      </c>
+      <c r="O52" s="230"/>
+      <c r="P52" s="230"/>
+      <c r="Q52" s="230"/>
       <c r="R52" s="80">
         <f>('Manpower &amp; time'!H8+J42)*M8/60</f>
         <v>2.0258969288926407E-5</v>
@@ -8488,12 +8488,12 @@
       <c r="J53" s="8"/>
       <c r="L53" s="21"/>
       <c r="M53" s="22"/>
-      <c r="N53" s="226" t="s">
-        <v>247</v>
-      </c>
-      <c r="O53" s="226"/>
-      <c r="P53" s="226"/>
-      <c r="Q53" s="226"/>
+      <c r="N53" s="230" t="s">
+        <v>246</v>
+      </c>
+      <c r="O53" s="230"/>
+      <c r="P53" s="230"/>
+      <c r="Q53" s="230"/>
       <c r="R53" s="80">
         <f>('Manpower &amp; time'!H9+J42)*M8/60</f>
         <v>2.9921667701624819E-5</v>
@@ -8503,12 +8503,12 @@
       <c r="J54" s="7"/>
       <c r="L54" s="21"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="226" t="s">
-        <v>248</v>
-      </c>
-      <c r="O54" s="226"/>
-      <c r="P54" s="226"/>
-      <c r="Q54" s="226"/>
+      <c r="N54" s="230" t="s">
+        <v>247</v>
+      </c>
+      <c r="O54" s="230"/>
+      <c r="P54" s="230"/>
+      <c r="Q54" s="230"/>
       <c r="R54" s="80">
         <f>('Manpower &amp; time'!H11+J42)*M8/60</f>
         <v>4.5109167701624822E-5</v>
@@ -8518,12 +8518,12 @@
       <c r="J55" s="7"/>
       <c r="L55" s="21"/>
       <c r="M55" s="22"/>
-      <c r="N55" s="226" t="s">
-        <v>288</v>
-      </c>
-      <c r="O55" s="226"/>
-      <c r="P55" s="226"/>
-      <c r="Q55" s="226"/>
+      <c r="N55" s="230" t="s">
+        <v>287</v>
+      </c>
+      <c r="O55" s="230"/>
+      <c r="P55" s="230"/>
+      <c r="Q55" s="230"/>
       <c r="R55" s="80">
         <f>('Manpower &amp; time'!H8+J42)*M$9/60</f>
         <v>1.6207175431141127E-5</v>
@@ -8533,12 +8533,12 @@
       <c r="J56" s="7"/>
       <c r="L56" s="21"/>
       <c r="M56" s="22"/>
-      <c r="N56" s="226" t="s">
-        <v>289</v>
-      </c>
-      <c r="O56" s="226"/>
-      <c r="P56" s="226"/>
-      <c r="Q56" s="226"/>
+      <c r="N56" s="230" t="s">
+        <v>288</v>
+      </c>
+      <c r="O56" s="230"/>
+      <c r="P56" s="230"/>
+      <c r="Q56" s="230"/>
       <c r="R56" s="80">
         <f>('Manpower &amp; time'!H9+J42)*M$9/60</f>
         <v>2.3937334161299856E-5</v>
@@ -8548,12 +8548,12 @@
       <c r="J57" s="5"/>
       <c r="L57" s="21"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="226" t="s">
-        <v>290</v>
-      </c>
-      <c r="O57" s="226"/>
-      <c r="P57" s="226"/>
-      <c r="Q57" s="226"/>
+      <c r="N57" s="230" t="s">
+        <v>289</v>
+      </c>
+      <c r="O57" s="230"/>
+      <c r="P57" s="230"/>
+      <c r="Q57" s="230"/>
       <c r="R57" s="80">
         <f>('Manpower &amp; time'!H11+J42)*M$9/60</f>
         <v>3.6087334161299856E-5</v>
@@ -8562,44 +8562,44 @@
     <row r="58" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L58" s="23"/>
       <c r="M58" s="24"/>
-      <c r="N58" s="229" t="s">
-        <v>258</v>
-      </c>
-      <c r="O58" s="229"/>
-      <c r="P58" s="229"/>
-      <c r="Q58" s="229"/>
+      <c r="N58" s="231" t="s">
+        <v>257</v>
+      </c>
+      <c r="O58" s="231"/>
+      <c r="P58" s="231"/>
+      <c r="Q58" s="231"/>
       <c r="R58" s="82">
         <f>('Manpower &amp; time'!H8+R46)*(M10+M6)/60</f>
         <v>15.87008144897448</v>
       </c>
     </row>
     <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L59" s="230" t="s">
+      <c r="L59" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="231"/>
-      <c r="N59" s="232" t="s">
-        <v>259</v>
-      </c>
-      <c r="O59" s="232"/>
-      <c r="P59" s="232"/>
-      <c r="Q59" s="232"/>
+      <c r="M59" s="280"/>
+      <c r="N59" s="229" t="s">
+        <v>258</v>
+      </c>
+      <c r="O59" s="229"/>
+      <c r="P59" s="229"/>
+      <c r="Q59" s="229"/>
       <c r="R59" s="77">
         <f>SUM(S11:S14)+S17</f>
         <v>23026.025600000001</v>
       </c>
     </row>
     <row r="60" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L60" s="240" t="s">
-        <v>453</v>
-      </c>
-      <c r="M60" s="241"/>
-      <c r="N60" s="226" t="s">
-        <v>260</v>
-      </c>
-      <c r="O60" s="226"/>
-      <c r="P60" s="226"/>
-      <c r="Q60" s="226"/>
+      <c r="L60" s="276" t="s">
+        <v>452</v>
+      </c>
+      <c r="M60" s="277"/>
+      <c r="N60" s="230" t="s">
+        <v>259</v>
+      </c>
+      <c r="O60" s="230"/>
+      <c r="P60" s="230"/>
+      <c r="Q60" s="230"/>
       <c r="R60" s="78">
         <f>R59/(M13*C7*C8)+J42</f>
         <v>29.749097733177855</v>
@@ -8608,17 +8608,17 @@
     <row r="61" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J61" s="7"/>
       <c r="L61" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M61" s="40">
         <v>2.5</v>
       </c>
-      <c r="N61" s="226" t="s">
-        <v>261</v>
-      </c>
-      <c r="O61" s="226"/>
-      <c r="P61" s="226"/>
-      <c r="Q61" s="226"/>
+      <c r="N61" s="230" t="s">
+        <v>260</v>
+      </c>
+      <c r="O61" s="230"/>
+      <c r="P61" s="230"/>
+      <c r="Q61" s="230"/>
       <c r="R61" s="78">
         <f>R60+Q16+Q15</f>
         <v>41.615769733177856</v>
@@ -8626,27 +8626,27 @@
     </row>
     <row r="62" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L62" s="39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M62" s="40">
         <v>0.5</v>
       </c>
-      <c r="N62" s="226"/>
-      <c r="O62" s="226"/>
-      <c r="P62" s="226"/>
-      <c r="Q62" s="226"/>
+      <c r="N62" s="230"/>
+      <c r="O62" s="230"/>
+      <c r="P62" s="230"/>
+      <c r="Q62" s="230"/>
       <c r="R62" s="79"/>
     </row>
     <row r="63" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F63" s="11"/>
       <c r="L63" s="17"/>
       <c r="M63" s="18"/>
-      <c r="N63" s="226" t="s">
-        <v>246</v>
-      </c>
-      <c r="O63" s="226"/>
-      <c r="P63" s="226"/>
-      <c r="Q63" s="226"/>
+      <c r="N63" s="230" t="s">
+        <v>245</v>
+      </c>
+      <c r="O63" s="230"/>
+      <c r="P63" s="230"/>
+      <c r="Q63" s="230"/>
       <c r="R63" s="80">
         <f>(J43+R61)*M15/60</f>
         <v>9.0352671777518655E-5</v>
@@ -8655,12 +8655,12 @@
     <row r="64" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L64" s="17"/>
       <c r="M64" s="18"/>
-      <c r="N64" s="226" t="s">
-        <v>444</v>
-      </c>
-      <c r="O64" s="226"/>
-      <c r="P64" s="226"/>
-      <c r="Q64" s="226"/>
+      <c r="N64" s="230" t="s">
+        <v>443</v>
+      </c>
+      <c r="O64" s="230"/>
+      <c r="P64" s="230"/>
+      <c r="Q64" s="230"/>
       <c r="R64" s="81">
         <f>(J43)*M15/60/R63</f>
         <v>0.23234570868306079</v>
@@ -8669,21 +8669,21 @@
     <row r="65" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L65" s="17"/>
       <c r="M65" s="18"/>
-      <c r="N65" s="226"/>
-      <c r="O65" s="226"/>
-      <c r="P65" s="226"/>
-      <c r="Q65" s="226"/>
+      <c r="N65" s="230"/>
+      <c r="O65" s="230"/>
+      <c r="P65" s="230"/>
+      <c r="Q65" s="230"/>
       <c r="R65" s="80"/>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L66" s="17"/>
       <c r="M66" s="18"/>
-      <c r="N66" s="226" t="s">
-        <v>249</v>
-      </c>
-      <c r="O66" s="226"/>
-      <c r="P66" s="226"/>
-      <c r="Q66" s="226"/>
+      <c r="N66" s="230" t="s">
+        <v>248</v>
+      </c>
+      <c r="O66" s="230"/>
+      <c r="P66" s="230"/>
+      <c r="Q66" s="230"/>
       <c r="R66" s="80">
         <f>(J43+J42)*M$16/60</f>
         <v>2.0258969288926407E-5</v>
@@ -8692,12 +8692,12 @@
     <row r="67" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L67" s="17"/>
       <c r="M67" s="18"/>
-      <c r="N67" s="226" t="s">
-        <v>247</v>
-      </c>
-      <c r="O67" s="226"/>
-      <c r="P67" s="226"/>
-      <c r="Q67" s="226"/>
+      <c r="N67" s="230" t="s">
+        <v>246</v>
+      </c>
+      <c r="O67" s="230"/>
+      <c r="P67" s="230"/>
+      <c r="Q67" s="230"/>
       <c r="R67" s="80">
         <f>(J44+J42)*M$16/60</f>
         <v>2.9921667701624819E-5</v>
@@ -8706,12 +8706,12 @@
     <row r="68" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L68" s="17"/>
       <c r="M68" s="18"/>
-      <c r="N68" s="226" t="s">
-        <v>248</v>
-      </c>
-      <c r="O68" s="226"/>
-      <c r="P68" s="226"/>
-      <c r="Q68" s="226"/>
+      <c r="N68" s="230" t="s">
+        <v>247</v>
+      </c>
+      <c r="O68" s="230"/>
+      <c r="P68" s="230"/>
+      <c r="Q68" s="230"/>
       <c r="R68" s="80">
         <f>(J46+J42)*M$16/60</f>
         <v>4.5109167701624822E-5</v>
@@ -8720,12 +8720,12 @@
     <row r="69" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L69" s="17"/>
       <c r="M69" s="18"/>
-      <c r="N69" s="226" t="s">
-        <v>288</v>
-      </c>
-      <c r="O69" s="226"/>
-      <c r="P69" s="226"/>
-      <c r="Q69" s="226"/>
+      <c r="N69" s="230" t="s">
+        <v>287</v>
+      </c>
+      <c r="O69" s="230"/>
+      <c r="P69" s="230"/>
+      <c r="Q69" s="230"/>
       <c r="R69" s="80">
         <f>(J43+J42)*M$17/60</f>
         <v>1.6207175431141127E-5</v>
@@ -8734,12 +8734,12 @@
     <row r="70" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L70" s="17"/>
       <c r="M70" s="18"/>
-      <c r="N70" s="226" t="s">
-        <v>289</v>
-      </c>
-      <c r="O70" s="226"/>
-      <c r="P70" s="226"/>
-      <c r="Q70" s="226"/>
+      <c r="N70" s="230" t="s">
+        <v>288</v>
+      </c>
+      <c r="O70" s="230"/>
+      <c r="P70" s="230"/>
+      <c r="Q70" s="230"/>
       <c r="R70" s="80">
         <f>(J44+J42)*M$17/60</f>
         <v>2.3937334161299856E-5</v>
@@ -8748,12 +8748,12 @@
     <row r="71" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L71" s="17"/>
       <c r="M71" s="18"/>
-      <c r="N71" s="226" t="s">
-        <v>290</v>
-      </c>
-      <c r="O71" s="226"/>
-      <c r="P71" s="226"/>
-      <c r="Q71" s="226"/>
+      <c r="N71" s="230" t="s">
+        <v>289</v>
+      </c>
+      <c r="O71" s="230"/>
+      <c r="P71" s="230"/>
+      <c r="Q71" s="230"/>
       <c r="R71" s="80">
         <f>(J46+J42)*M$17/60</f>
         <v>3.6087334161299856E-5</v>
@@ -8762,165 +8762,165 @@
     <row r="72" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L72" s="17"/>
       <c r="M72" s="18"/>
-      <c r="N72" s="276" t="s">
-        <v>258</v>
-      </c>
-      <c r="O72" s="276"/>
-      <c r="P72" s="276"/>
-      <c r="Q72" s="276"/>
+      <c r="N72" s="232" t="s">
+        <v>257</v>
+      </c>
+      <c r="O72" s="232"/>
+      <c r="P72" s="232"/>
+      <c r="Q72" s="232"/>
       <c r="R72" s="154">
         <f>(J43+R60)*(M14+M18)/60</f>
         <v>14.114977022170395</v>
       </c>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L73" s="237" t="s">
-        <v>378</v>
-      </c>
-      <c r="M73" s="239"/>
-      <c r="N73" s="232" t="s">
-        <v>259</v>
-      </c>
-      <c r="O73" s="232"/>
-      <c r="P73" s="232"/>
-      <c r="Q73" s="232"/>
+      <c r="L73" s="273" t="s">
+        <v>377</v>
+      </c>
+      <c r="M73" s="275"/>
+      <c r="N73" s="229" t="s">
+        <v>258</v>
+      </c>
+      <c r="O73" s="229"/>
+      <c r="P73" s="229"/>
+      <c r="Q73" s="229"/>
       <c r="R73" s="77">
         <f>S19+S20</f>
-        <v>25744.007292256909</v>
+        <v>16315.562563129759</v>
       </c>
     </row>
     <row r="74" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L74" s="233" t="s">
-        <v>454</v>
-      </c>
-      <c r="M74" s="234"/>
-      <c r="N74" s="226" t="s">
-        <v>260</v>
-      </c>
-      <c r="O74" s="226"/>
-      <c r="P74" s="226"/>
-      <c r="Q74" s="226"/>
+      <c r="L74" s="270" t="s">
+        <v>453</v>
+      </c>
+      <c r="M74" s="271"/>
+      <c r="N74" s="230" t="s">
+        <v>259</v>
+      </c>
+      <c r="O74" s="230"/>
+      <c r="P74" s="230"/>
+      <c r="Q74" s="230"/>
       <c r="R74" s="78">
         <f>R73/(M21*C7*C8)+J42</f>
-        <v>34.758258932834948</v>
+        <v>26.318906328890129</v>
       </c>
     </row>
     <row r="75" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L75" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M75" s="36">
         <f>'Laser cutter'!J14</f>
         <v>0.71739130434782605</v>
       </c>
-      <c r="N75" s="226" t="s">
-        <v>261</v>
-      </c>
-      <c r="O75" s="226"/>
-      <c r="P75" s="226"/>
-      <c r="Q75" s="226"/>
+      <c r="N75" s="230" t="s">
+        <v>260</v>
+      </c>
+      <c r="O75" s="230"/>
+      <c r="P75" s="230"/>
+      <c r="Q75" s="230"/>
       <c r="R75" s="78">
         <f>R74+Q21+Q22</f>
-        <v>40.300858932834949</v>
+        <v>31.86150632889013</v>
       </c>
     </row>
     <row r="76" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L76" s="233"/>
-      <c r="M76" s="234"/>
-      <c r="N76" s="226"/>
-      <c r="O76" s="226"/>
-      <c r="P76" s="226"/>
-      <c r="Q76" s="226"/>
+      <c r="L76" s="270"/>
+      <c r="M76" s="271"/>
+      <c r="N76" s="230"/>
+      <c r="O76" s="230"/>
+      <c r="P76" s="230"/>
+      <c r="Q76" s="230"/>
       <c r="R76" s="79"/>
     </row>
     <row r="77" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L77" s="233"/>
-      <c r="M77" s="234"/>
-      <c r="N77" s="226" t="s">
-        <v>379</v>
-      </c>
-      <c r="O77" s="226"/>
-      <c r="P77" s="226"/>
-      <c r="Q77" s="226"/>
+      <c r="L77" s="270"/>
+      <c r="M77" s="271"/>
+      <c r="N77" s="230" t="s">
+        <v>378</v>
+      </c>
+      <c r="O77" s="230"/>
+      <c r="P77" s="230"/>
+      <c r="Q77" s="230"/>
       <c r="R77" s="80">
         <f>(J43*0.4+R75)*M23/60</f>
-        <v>3.4760047404062353E-4</v>
+        <v>2.8289877074371322E-4</v>
       </c>
     </row>
     <row r="78" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L78" s="233"/>
-      <c r="M78" s="234"/>
-      <c r="N78" s="226" t="s">
-        <v>444</v>
-      </c>
-      <c r="O78" s="226"/>
-      <c r="P78" s="226"/>
-      <c r="Q78" s="226"/>
+      <c r="L78" s="270"/>
+      <c r="M78" s="271"/>
+      <c r="N78" s="230" t="s">
+        <v>443</v>
+      </c>
+      <c r="O78" s="230"/>
+      <c r="P78" s="230"/>
+      <c r="Q78" s="230"/>
       <c r="R78" s="81">
         <f>(J43)*M23/60/R77</f>
-        <v>0.27781335978347887</v>
+        <v>0.34135198007996848</v>
       </c>
     </row>
     <row r="79" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L79" s="233"/>
-      <c r="M79" s="234"/>
-      <c r="N79" s="226"/>
-      <c r="O79" s="226"/>
-      <c r="P79" s="226"/>
-      <c r="Q79" s="226"/>
+      <c r="L79" s="270"/>
+      <c r="M79" s="271"/>
+      <c r="N79" s="230"/>
+      <c r="O79" s="230"/>
+      <c r="P79" s="230"/>
+      <c r="Q79" s="230"/>
       <c r="R79" s="141"/>
     </row>
     <row r="80" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L80" s="233"/>
-      <c r="M80" s="234"/>
-      <c r="N80" s="226" t="s">
-        <v>476</v>
-      </c>
-      <c r="O80" s="226"/>
-      <c r="P80" s="226"/>
-      <c r="Q80" s="226"/>
+      <c r="L80" s="270"/>
+      <c r="M80" s="271"/>
+      <c r="N80" s="230" t="s">
+        <v>475</v>
+      </c>
+      <c r="O80" s="230"/>
+      <c r="P80" s="230"/>
+      <c r="Q80" s="230"/>
       <c r="R80" s="153">
         <f>(J43+J42)*M24/60</f>
         <v>0.60776907866779217</v>
       </c>
     </row>
     <row r="81" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L81" s="233"/>
-      <c r="M81" s="234"/>
-      <c r="N81" s="226" t="s">
-        <v>477</v>
-      </c>
-      <c r="O81" s="226"/>
-      <c r="P81" s="226"/>
-      <c r="Q81" s="226"/>
+      <c r="L81" s="270"/>
+      <c r="M81" s="271"/>
+      <c r="N81" s="230" t="s">
+        <v>476</v>
+      </c>
+      <c r="O81" s="230"/>
+      <c r="P81" s="230"/>
+      <c r="Q81" s="230"/>
       <c r="R81" s="153">
         <f>(J44+J42)*M24/60</f>
         <v>0.89765003104874452</v>
       </c>
     </row>
     <row r="82" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L82" s="233"/>
-      <c r="M82" s="234"/>
-      <c r="N82" s="226" t="s">
-        <v>478</v>
-      </c>
-      <c r="O82" s="226"/>
-      <c r="P82" s="226"/>
-      <c r="Q82" s="226"/>
+      <c r="L82" s="270"/>
+      <c r="M82" s="271"/>
+      <c r="N82" s="230" t="s">
+        <v>477</v>
+      </c>
+      <c r="O82" s="230"/>
+      <c r="P82" s="230"/>
+      <c r="Q82" s="230"/>
       <c r="R82" s="153">
         <f>(J43+J42)*M25/60</f>
         <v>0.40517938577852808</v>
       </c>
     </row>
     <row r="83" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L83" s="233"/>
-      <c r="M83" s="234"/>
-      <c r="N83" s="226" t="s">
-        <v>479</v>
-      </c>
-      <c r="O83" s="226"/>
-      <c r="P83" s="226"/>
-      <c r="Q83" s="226"/>
+      <c r="L83" s="270"/>
+      <c r="M83" s="271"/>
+      <c r="N83" s="230" t="s">
+        <v>478</v>
+      </c>
+      <c r="O83" s="230"/>
+      <c r="P83" s="230"/>
+      <c r="Q83" s="230"/>
       <c r="R83" s="153">
         <f>(J44+J42)*M$25/60</f>
         <v>0.59843335403249631</v>
@@ -8929,28 +8929,28 @@
     <row r="84" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L84" s="32"/>
       <c r="M84" s="33"/>
-      <c r="N84" s="229" t="s">
-        <v>258</v>
-      </c>
-      <c r="O84" s="229"/>
-      <c r="P84" s="229"/>
-      <c r="Q84" s="229"/>
+      <c r="N84" s="231" t="s">
+        <v>257</v>
+      </c>
+      <c r="O84" s="231"/>
+      <c r="P84" s="231"/>
+      <c r="Q84" s="231"/>
       <c r="R84" s="82">
         <f>(J43+R74)*(M26+M22)/60</f>
-        <v>10.260053324336461</v>
+        <v>8.4315269268150832</v>
       </c>
     </row>
     <row r="85" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L85" s="227" t="s">
+      <c r="L85" s="278" t="s">
         <v>24</v>
       </c>
-      <c r="M85" s="228"/>
-      <c r="N85" s="277" t="s">
-        <v>259</v>
-      </c>
-      <c r="O85" s="277"/>
-      <c r="P85" s="277"/>
-      <c r="Q85" s="277"/>
+      <c r="M85" s="279"/>
+      <c r="N85" s="233" t="s">
+        <v>258</v>
+      </c>
+      <c r="O85" s="233"/>
+      <c r="P85" s="233"/>
+      <c r="Q85" s="233"/>
       <c r="R85" s="155">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
@@ -8959,12 +8959,12 @@
     <row r="86" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L86" s="44"/>
       <c r="M86" s="45"/>
-      <c r="N86" s="226" t="s">
-        <v>260</v>
-      </c>
-      <c r="O86" s="226"/>
-      <c r="P86" s="226"/>
-      <c r="Q86" s="226"/>
+      <c r="N86" s="230" t="s">
+        <v>259</v>
+      </c>
+      <c r="O86" s="230"/>
+      <c r="P86" s="230"/>
+      <c r="Q86" s="230"/>
       <c r="R86" s="97">
         <f>R85/(M29*C7*C8)+J42</f>
         <v>13.419947043954794</v>
@@ -8974,12 +8974,12 @@
     <row r="87" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L87" s="21"/>
       <c r="M87" s="22"/>
-      <c r="N87" s="226" t="s">
-        <v>261</v>
-      </c>
-      <c r="O87" s="226"/>
-      <c r="P87" s="226"/>
-      <c r="Q87" s="226"/>
+      <c r="N87" s="230" t="s">
+        <v>260</v>
+      </c>
+      <c r="O87" s="230"/>
+      <c r="P87" s="230"/>
+      <c r="Q87" s="230"/>
       <c r="R87" s="97">
         <f>R86+Q33</f>
         <v>13.517822043954794</v>
@@ -8988,21 +8988,21 @@
     <row r="88" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L88" s="21"/>
       <c r="M88" s="22"/>
-      <c r="N88" s="226"/>
-      <c r="O88" s="226"/>
-      <c r="P88" s="226"/>
-      <c r="Q88" s="226"/>
+      <c r="N88" s="230"/>
+      <c r="O88" s="230"/>
+      <c r="P88" s="230"/>
+      <c r="Q88" s="230"/>
       <c r="R88" s="141"/>
     </row>
     <row r="89" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L89" s="21"/>
       <c r="M89" s="22"/>
-      <c r="N89" s="226" t="s">
-        <v>426</v>
-      </c>
-      <c r="O89" s="226"/>
-      <c r="P89" s="226"/>
-      <c r="Q89" s="226"/>
+      <c r="N89" s="230" t="s">
+        <v>425</v>
+      </c>
+      <c r="O89" s="230"/>
+      <c r="P89" s="230"/>
+      <c r="Q89" s="230"/>
       <c r="R89" s="61">
         <f>Q34+Q36+(R87+J45)*M30/60</f>
         <v>117.38840627635136</v>
@@ -9011,12 +9011,12 @@
     <row r="90" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L90" s="21"/>
       <c r="M90" s="22"/>
-      <c r="N90" s="226" t="s">
-        <v>427</v>
-      </c>
-      <c r="O90" s="226"/>
-      <c r="P90" s="226"/>
-      <c r="Q90" s="226"/>
+      <c r="N90" s="230" t="s">
+        <v>426</v>
+      </c>
+      <c r="O90" s="230"/>
+      <c r="P90" s="230"/>
+      <c r="Q90" s="230"/>
       <c r="R90" s="97">
         <f>Q35+Q36+(R87+J45)*M30/60</f>
         <v>117.3533442173817</v>
@@ -9025,23 +9025,23 @@
     <row r="91" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L91" s="23"/>
       <c r="M91" s="24"/>
-      <c r="N91" s="229"/>
-      <c r="O91" s="229"/>
-      <c r="P91" s="229"/>
-      <c r="Q91" s="229"/>
+      <c r="N91" s="231"/>
+      <c r="O91" s="231"/>
+      <c r="P91" s="231"/>
+      <c r="Q91" s="231"/>
       <c r="R91" s="73"/>
     </row>
     <row r="92" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L92" s="230" t="s">
-        <v>364</v>
-      </c>
-      <c r="M92" s="231"/>
-      <c r="N92" s="232" t="s">
-        <v>259</v>
-      </c>
-      <c r="O92" s="232"/>
-      <c r="P92" s="232"/>
-      <c r="Q92" s="232"/>
+      <c r="L92" s="251" t="s">
+        <v>363</v>
+      </c>
+      <c r="M92" s="280"/>
+      <c r="N92" s="229" t="s">
+        <v>258</v>
+      </c>
+      <c r="O92" s="229"/>
+      <c r="P92" s="229"/>
+      <c r="Q92" s="229"/>
       <c r="R92" s="77">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
@@ -9050,12 +9050,12 @@
     <row r="93" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L93" s="42"/>
       <c r="M93" s="43"/>
-      <c r="N93" s="226" t="s">
-        <v>260</v>
-      </c>
-      <c r="O93" s="226"/>
-      <c r="P93" s="226"/>
-      <c r="Q93" s="226"/>
+      <c r="N93" s="230" t="s">
+        <v>259</v>
+      </c>
+      <c r="O93" s="230"/>
+      <c r="P93" s="230"/>
+      <c r="Q93" s="230"/>
       <c r="R93" s="78">
         <f>R92/(M39*C7*C8)+J42</f>
         <v>18.514599441995351</v>
@@ -9064,12 +9064,12 @@
     <row r="94" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L94" s="17"/>
       <c r="M94" s="18"/>
-      <c r="N94" s="226" t="s">
-        <v>261</v>
-      </c>
-      <c r="O94" s="226"/>
-      <c r="P94" s="226"/>
-      <c r="Q94" s="226"/>
+      <c r="N94" s="230" t="s">
+        <v>260</v>
+      </c>
+      <c r="O94" s="230"/>
+      <c r="P94" s="230"/>
+      <c r="Q94" s="230"/>
       <c r="R94" s="78">
         <f>R93+Q42+Q41</f>
         <v>28.890439441995351</v>
@@ -9078,21 +9078,21 @@
     <row r="95" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L95" s="17"/>
       <c r="M95" s="18"/>
-      <c r="N95" s="226"/>
-      <c r="O95" s="226"/>
-      <c r="P95" s="226"/>
-      <c r="Q95" s="226"/>
+      <c r="N95" s="230"/>
+      <c r="O95" s="230"/>
+      <c r="P95" s="230"/>
+      <c r="Q95" s="230"/>
       <c r="R95" s="79"/>
     </row>
     <row r="96" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L96" s="17"/>
       <c r="M96" s="18"/>
-      <c r="N96" s="226" t="s">
-        <v>246</v>
-      </c>
-      <c r="O96" s="226"/>
-      <c r="P96" s="226"/>
-      <c r="Q96" s="226"/>
+      <c r="N96" s="230" t="s">
+        <v>245</v>
+      </c>
+      <c r="O96" s="230"/>
+      <c r="P96" s="230"/>
+      <c r="Q96" s="230"/>
       <c r="R96" s="80">
         <f>(J43+R94)*M41/60</f>
         <v>2.0743136387664342E-4</v>
@@ -9101,12 +9101,12 @@
     <row r="97" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L97" s="19"/>
       <c r="M97" s="20"/>
-      <c r="N97" s="229" t="s">
-        <v>258</v>
-      </c>
-      <c r="O97" s="229"/>
-      <c r="P97" s="229"/>
-      <c r="Q97" s="229"/>
+      <c r="N97" s="231" t="s">
+        <v>257</v>
+      </c>
+      <c r="O97" s="231"/>
+      <c r="P97" s="231"/>
+      <c r="Q97" s="231"/>
       <c r="R97" s="82">
         <f>(J43+R93)*(M40+M42)/60</f>
         <v>7.7776081938321706</v>
@@ -9115,19 +9115,66 @@
     <row r="118" ht="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="N95:Q95"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
     <mergeCell ref="N48:Q48"/>
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="N58:Q58"/>
@@ -9144,66 +9191,19 @@
     <mergeCell ref="N85:Q85"/>
     <mergeCell ref="N86:Q86"/>
     <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="N93:Q93"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N87:Q87"/>
-    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="N74:Q74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9217,7 +9217,9 @@
   </sheetPr>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9237,22 +9239,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
         <v>175</v>
-      </c>
-      <c r="G3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -9260,43 +9262,43 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E4">
-        <v>208995</v>
+        <v>132453</v>
       </c>
       <c r="G4" s="2">
         <f>E4/Summary!C14</f>
-        <v>171626.71528171271</v>
+        <v>108770.41708753172</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>88</v>
+        <v>561</v>
       </c>
       <c r="P4" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>367</v>
+      </c>
+      <c r="R4" t="s">
         <v>369</v>
       </c>
-      <c r="Q4" t="s">
-        <v>368</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>370</v>
-      </c>
-      <c r="S4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" t="s">
         <v>375</v>
-      </c>
-      <c r="C5" t="s">
-        <v>376</v>
       </c>
       <c r="F5">
         <v>126.82</v>
@@ -9306,10 +9308,10 @@
         <v>101.456</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P5">
         <v>76.5</v>
@@ -9328,7 +9330,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R6">
         <v>10.6</v>
@@ -9354,24 +9356,24 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" t="s">
         <v>311</v>
       </c>
-      <c r="C9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>312</v>
-      </c>
-      <c r="E9" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" t="s">
         <v>300</v>
-      </c>
-      <c r="B10" t="s">
-        <v>301</v>
       </c>
       <c r="C10">
         <v>780</v>
@@ -9390,7 +9392,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11">
         <v>230</v>
@@ -9409,7 +9411,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12">
         <v>125</v>
@@ -9426,15 +9428,15 @@
         <v>3.1496062992125983E-4</v>
       </c>
       <c r="I12" t="s">
+        <v>445</v>
+      </c>
+      <c r="J12" t="s">
         <v>446</v>
-      </c>
-      <c r="J12" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13">
         <v>86</v>
@@ -9459,7 +9461,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -9476,7 +9478,7 @@
         <v>5.3202809108320926E-4</v>
       </c>
       <c r="I14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J14" s="34">
         <f>J13/I13</f>
@@ -9485,7 +9487,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15">
         <v>59</v>
@@ -9504,7 +9506,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -9523,7 +9525,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -9542,7 +9544,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -9561,10 +9563,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C19">
         <v>780</v>
@@ -9583,7 +9585,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C20">
         <v>216</v>
@@ -9602,7 +9604,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -9621,7 +9623,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C22">
         <v>47</v>
@@ -9640,7 +9642,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -9659,10 +9661,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C24">
         <v>300</v>
@@ -9681,7 +9683,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C25">
         <v>120</v>
@@ -9700,7 +9702,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -9735,7 +9737,7 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9748,44 +9750,44 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" t="s">
-        <v>176</v>
-      </c>
       <c r="G1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2">
         <v>4386</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9796,40 +9798,40 @@
         <v>3859.6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="2">
         <v>8579</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="2">
         <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9837,47 +9839,47 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B13" s="27">
         <v>200</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B14" s="26">
         <v>18</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B15" s="28">
         <f>B14*5/228</f>
@@ -9887,7 +9889,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B16" s="26">
         <v>5.5</v>
@@ -9896,7 +9898,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B17" s="29">
         <f>B15*B13/B16</f>
@@ -9907,38 +9909,38 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B20" s="26">
         <v>12.8</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B21" s="26">
         <v>11</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B22" s="26">
         <f>PI()*0.04*0.04*100*7.8</f>
@@ -9948,7 +9950,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B23" s="27">
         <f>B20*B22/1000</f>
@@ -9958,38 +9960,38 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B26" s="26">
         <v>10.050000000000001</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B27" s="26">
         <v>2</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B28" s="26">
         <f>PI()*0.1*0.1*100*2.7</f>
@@ -9999,7 +10001,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B29" s="27">
         <f>B26*B28/1000</f>
@@ -10012,28 +10014,28 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B32" s="31">
         <f>30/(2*PI()*0.034)</f>
         <v>140.43083213990764</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B33" s="29">
         <f>'Manpower &amp; time'!H9/60</f>
@@ -10043,7 +10045,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B34" s="29">
         <f>B33*B32</f>
@@ -10084,32 +10086,32 @@
         <v>25</v>
       </c>
       <c r="B1" s="178" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1" s="168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="165" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2" s="169">
         <v>15000</v>
       </c>
       <c r="C2" s="166" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="163" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B3" s="152">
         <v>10000</v>
       </c>
       <c r="C3" s="164" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -10148,7 +10150,7 @@
         <v>5</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -10209,7 +10211,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -10218,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -10732,16 +10734,16 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S15" t="s">
         <v>6</v>
       </c>
       <c r="T15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -10753,7 +10755,7 @@
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
@@ -10765,16 +10767,16 @@
         <v>3</v>
       </c>
       <c r="S16" t="s">
+        <v>462</v>
+      </c>
+      <c r="T16" t="s">
         <v>463</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>464</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>465</v>
-      </c>
-      <c r="V16" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -10835,10 +10837,10 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -10869,7 +10871,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -10996,7 +10998,7 @@
         <v>6060</v>
       </c>
       <c r="T23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -11107,38 +11109,38 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -11150,7 +11152,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
@@ -11162,7 +11164,7 @@
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P32" t="s">
         <v>2</v>
@@ -11171,7 +11173,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -11439,15 +11441,15 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B44" t="s">
         <v>400</v>
-      </c>
-      <c r="B44" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -11487,33 +11489,33 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G48" t="s">
         <v>402</v>
-      </c>
-      <c r="G48" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B49" t="s">
         <v>76</v>
       </c>
       <c r="C49" t="s">
+        <v>404</v>
+      </c>
+      <c r="D49" t="s">
+        <v>468</v>
+      </c>
+      <c r="G49" t="s">
+        <v>403</v>
+      </c>
+      <c r="H49" t="s">
         <v>405</v>
       </c>
-      <c r="D49" t="s">
-        <v>469</v>
-      </c>
-      <c r="G49" t="s">
-        <v>404</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>406</v>
-      </c>
-      <c r="I49" t="s">
-        <v>407</v>
       </c>
       <c r="J49" t="s">
         <v>3</v>
@@ -11521,7 +11523,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B50" s="2">
         <v>86.4</v>
@@ -11535,7 +11537,7 @@
         <v>1.9072847682119207E-5</v>
       </c>
       <c r="G50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H50" s="9">
         <v>1.1000000000000001</v>
@@ -11551,7 +11553,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2">
         <v>60</v>
@@ -11565,7 +11567,7 @@
         <v>1.5915494309189534E-5</v>
       </c>
       <c r="G51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H51" s="9">
         <v>2.5</v>
@@ -11581,7 +11583,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B52" s="2">
         <v>28.32</v>
@@ -11595,7 +11597,7 @@
         <v>9.8117398386121925E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H52" s="9">
         <v>2.5</v>
@@ -11611,7 +11613,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2">
         <v>35.4</v>
@@ -11625,7 +11627,7 @@
         <v>9.8333333333333329E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H53" s="9">
         <v>18</v>
@@ -11641,7 +11643,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B54" s="2">
         <v>81.599999999999994</v>
@@ -11657,7 +11659,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2">
         <v>8</v>
@@ -11674,7 +11676,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2">
         <v>50</v>
@@ -11690,7 +11692,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B57" s="2">
         <v>46.2</v>
@@ -11706,7 +11708,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B58" s="2">
         <v>28</v>
@@ -11722,7 +11724,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B59" s="2">
         <v>35.700000000000003</v>
@@ -11738,7 +11740,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B60" s="2">
         <v>13</v>
@@ -11755,7 +11757,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D61" s="1">
         <f>AVERAGE(D51,D50)</f>
@@ -11773,7 +11775,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11787,7 +11789,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -11796,7 +11798,7 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11821,7 +11823,7 @@
         <v>1.605E-5</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -11936,86 +11938,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="282" t="s">
-        <v>185</v>
+      <c r="A1" s="285" t="s">
+        <v>184</v>
       </c>
       <c r="B1" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="289" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="290"/>
+      <c r="C1" s="292" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="293"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="283"/>
+      <c r="A2" s="286"/>
       <c r="B2" s="160" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="294" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="286"/>
+      <c r="B3" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="291" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="292"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="283"/>
-      <c r="B3" s="161" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="293" t="s">
-        <v>528</v>
-      </c>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="294"/>
+      <c r="C3" s="296" t="s">
+        <v>527</v>
+      </c>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="297"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="284"/>
+      <c r="A4" s="287"/>
       <c r="B4" s="163" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="295" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="295"/>
-      <c r="E4" s="295"/>
-      <c r="F4" s="296"/>
+      <c r="C4" s="298" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="299"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="285" t="s">
-        <v>285</v>
+      <c r="A7" s="288" t="s">
+        <v>284</v>
       </c>
       <c r="B7" s="167" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="178" t="s">
         <v>490</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="D7" s="178" t="s">
         <v>491</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="E7" s="178" t="s">
         <v>492</v>
       </c>
-      <c r="E7" s="178" t="s">
-        <v>493</v>
-      </c>
       <c r="F7" s="178" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G7" s="178" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H7" s="168" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
+      <c r="A8" s="289"/>
       <c r="B8" s="165" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="169">
         <v>1627</v>
@@ -12040,9 +12042,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="286"/>
+      <c r="A9" s="289"/>
       <c r="B9" s="161" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="27">
         <v>2489</v>
@@ -12067,9 +12069,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="286"/>
+      <c r="A10" s="289"/>
       <c r="B10" s="161" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C10" s="27">
         <v>3140</v>
@@ -12094,9 +12096,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="287"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="163" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="152">
         <v>4187</v>
@@ -12122,7 +12124,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="167" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F12" s="175">
         <f>SUM(F11+F9+F8)</f>
@@ -12137,8 +12139,8 @@
       <c r="A14" s="183"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="278" t="s">
-        <v>494</v>
+      <c r="A15" s="281" t="s">
+        <v>493</v>
       </c>
       <c r="B15" s="167" t="s">
         <v>16</v>
@@ -12148,45 +12150,45 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="288"/>
+      <c r="A16" s="291"/>
       <c r="B16" s="186" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="187">
         <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="288"/>
+      <c r="A17" s="291"/>
       <c r="B17" s="101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="141">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="288"/>
+      <c r="A18" s="291"/>
       <c r="B18" s="101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="141">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="288"/>
+      <c r="A19" s="291"/>
       <c r="B19" s="101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="141">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="288"/>
+      <c r="A20" s="291"/>
       <c r="B20" s="101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="141">
         <f>C16-C17-C18-C19</f>
@@ -12194,9 +12196,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="288"/>
+      <c r="A21" s="291"/>
       <c r="B21" s="101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="65">
         <f>C20/5</f>
@@ -12204,9 +12206,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="279"/>
+      <c r="A22" s="282"/>
       <c r="B22" s="102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C22" s="73">
         <f>Summary!$C$10*Summary!$C$8*Summary!$C$7</f>
@@ -12215,30 +12217,30 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="278" t="s">
-        <v>496</v>
+      <c r="A26" s="281" t="s">
+        <v>495</v>
       </c>
       <c r="B26" s="172"/>
       <c r="C26" s="178" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="178" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="178" t="s">
+      <c r="E26" s="178" t="s">
+        <v>364</v>
+      </c>
+      <c r="F26" s="178" t="s">
+        <v>365</v>
+      </c>
+      <c r="G26" s="178" t="s">
+        <v>363</v>
+      </c>
+      <c r="H26" s="178" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="178" t="s">
-        <v>365</v>
-      </c>
-      <c r="F26" s="178" t="s">
-        <v>366</v>
-      </c>
-      <c r="G26" s="178" t="s">
-        <v>364</v>
-      </c>
-      <c r="H26" s="178" t="s">
+      <c r="I26" s="178" t="s">
         <v>228</v>
-      </c>
-      <c r="I26" s="178" t="s">
-        <v>229</v>
       </c>
       <c r="J26" s="178" t="s">
         <v>29</v>
@@ -12247,13 +12249,13 @@
         <v>22</v>
       </c>
       <c r="L26" s="196" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="288"/>
+      <c r="A27" s="291"/>
       <c r="B27" s="197" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="186">
         <v>0.85</v>
@@ -12286,9 +12288,9 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="288"/>
+      <c r="A28" s="291"/>
       <c r="B28" s="198" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="101"/>
       <c r="D28" s="26"/>
@@ -12309,9 +12311,9 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="288"/>
+      <c r="A29" s="291"/>
       <c r="B29" s="198" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C29" s="101"/>
       <c r="D29" s="26"/>
@@ -12334,9 +12336,9 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="288"/>
+      <c r="A30" s="291"/>
       <c r="B30" s="198" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="101"/>
       <c r="D30" s="26"/>
@@ -12359,44 +12361,44 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="288"/>
+      <c r="A31" s="291"/>
       <c r="B31" s="198" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C31" s="101">
-        <f>$C$22*SUM(C27:C30)</f>
+        <f t="shared" ref="C31:K31" si="1">$C$22*SUM(C27:C30)</f>
         <v>1288.77</v>
       </c>
       <c r="D31" s="26">
-        <f>$C$22*SUM(D27:D30)</f>
+        <f t="shared" si="1"/>
         <v>1288.77</v>
       </c>
       <c r="E31" s="26">
-        <f>$C$22*SUM(E27:E30)</f>
+        <f t="shared" si="1"/>
         <v>454.86</v>
       </c>
       <c r="F31" s="26">
-        <f>$C$22*SUM(F27:F30)</f>
+        <f t="shared" si="1"/>
         <v>1288.77</v>
       </c>
       <c r="G31" s="26">
-        <f>$C$22*SUM(G27:G30)</f>
+        <f t="shared" si="1"/>
         <v>712.61400000000003</v>
       </c>
       <c r="H31" s="26">
-        <f>$C$22*SUM(H27:H30)</f>
+        <f t="shared" si="1"/>
         <v>1288.77</v>
       </c>
       <c r="I31" s="26">
-        <f>$C$22*SUM(I27:I30)</f>
+        <f t="shared" si="1"/>
         <v>2274.3000000000002</v>
       </c>
       <c r="J31" s="26">
-        <f>$C$22*SUM(J27:J30)</f>
+        <f t="shared" si="1"/>
         <v>1682.982</v>
       </c>
       <c r="K31" s="189">
-        <f>$C$22*SUM(K27:K30)</f>
+        <f t="shared" si="1"/>
         <v>485.18400000000003</v>
       </c>
       <c r="L31" s="191">
@@ -12405,9 +12407,9 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="288"/>
+      <c r="A32" s="291"/>
       <c r="B32" s="198" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C32" s="101">
         <f>Summary!$C$9*Summary!$C$8*Summary!$C$7</f>
@@ -12451,11 +12453,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="279"/>
+      <c r="A33" s="282"/>
       <c r="B33" s="199"/>
       <c r="C33" s="102"/>
       <c r="D33" s="62" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E33" s="62">
         <f>E32*0.4</f>
@@ -12471,21 +12473,21 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="278" t="s">
-        <v>495</v>
-      </c>
-      <c r="B36" s="268" t="s">
-        <v>236</v>
-      </c>
-      <c r="C36" s="280">
+      <c r="A36" s="281" t="s">
+        <v>494</v>
+      </c>
+      <c r="B36" s="250" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="283">
         <f>SUMPRODUCT(E8:E11*K27:K30)</f>
         <v>14044.629000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="279"/>
-      <c r="B37" s="252"/>
-      <c r="C37" s="281"/>
+      <c r="A37" s="282"/>
+      <c r="B37" s="248"/>
+      <c r="C37" s="284"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="188"/>
@@ -12548,105 +12550,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="299"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="302"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
-        <v>502</v>
-      </c>
-      <c r="B2" s="307" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="309"/>
+      <c r="A2" s="306" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="310" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="311"/>
+      <c r="D2" s="312"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="304"/>
-      <c r="B3" s="310" t="s">
+      <c r="A3" s="307"/>
+      <c r="B3" s="313" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="314"/>
+      <c r="D3" s="315"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="307"/>
+      <c r="B4" s="313" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="304"/>
-      <c r="B4" s="310" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="311"/>
-      <c r="D4" s="312"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="315"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="200" t="s">
-        <v>505</v>
-      </c>
-      <c r="B5" s="242">
+        <v>504</v>
+      </c>
+      <c r="B5" s="254">
         <v>38.64</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="305"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="308"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="200" t="s">
-        <v>503</v>
-      </c>
-      <c r="B6" s="242">
+        <v>502</v>
+      </c>
+      <c r="B6" s="254">
         <f>(24*2 + 7.5)*0.8+16+14</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="305"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="308"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="200" t="s">
-        <v>504</v>
-      </c>
-      <c r="B7" s="242">
+        <v>503</v>
+      </c>
+      <c r="B7" s="254">
         <f>B6*B5</f>
         <v>2874.8160000000003</v>
       </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="305"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="308"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="201" t="s">
-        <v>506</v>
-      </c>
-      <c r="B8" s="252">
+        <v>505</v>
+      </c>
+      <c r="B8" s="248">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="306"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="309"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="300" t="s">
-        <v>501</v>
-      </c>
-      <c r="B10" s="301"/>
-      <c r="C10" s="301"/>
-      <c r="D10" s="302"/>
+      <c r="A10" s="303" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10" s="304"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="305"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="165"/>
       <c r="B11" s="170" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="170" t="s">
         <v>499</v>
       </c>
-      <c r="C11" s="170" t="s">
-        <v>500</v>
-      </c>
       <c r="D11" s="187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="202" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B12" s="152">
         <v>3.07</v>
@@ -12656,7 +12658,7 @@
         <v>2.456</v>
       </c>
       <c r="D12" s="164" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -12705,27 +12707,27 @@
         <v>25</v>
       </c>
       <c r="B1" s="209" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="178" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="178" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" s="178" t="s">
         <v>509</v>
       </c>
-      <c r="D1" s="178" t="s">
-        <v>508</v>
-      </c>
-      <c r="E1" s="178" t="s">
-        <v>510</v>
-      </c>
       <c r="F1" s="168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="210" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="186" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="170"/>
       <c r="D2" s="206">
@@ -12736,12 +12738,12 @@
         <v>122.4</v>
       </c>
       <c r="F2" s="213" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="211" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="101">
         <v>0.01</v>
@@ -12755,7 +12757,7 @@
         <v>109.60000000000001</v>
       </c>
       <c r="F3" s="215" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12774,7 +12776,7 @@
         <v>50.400000000000006</v>
       </c>
       <c r="F4" s="215" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12787,7 +12789,7 @@
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="211" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="101"/>
       <c r="C6" s="26"/>
@@ -12799,12 +12801,12 @@
         <v>162.4</v>
       </c>
       <c r="F6" s="215" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="211" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="101"/>
       <c r="C7" s="26"/>
@@ -12816,7 +12818,7 @@
         <v>76.800000000000011</v>
       </c>
       <c r="F7" s="215" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12829,7 +12831,7 @@
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="211" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="101"/>
       <c r="C9" s="26"/>
@@ -12841,12 +12843,12 @@
         <v>225.60000000000002</v>
       </c>
       <c r="F9" s="215" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="211" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="101"/>
       <c r="C10" s="26"/>
@@ -12858,12 +12860,12 @@
         <v>376.8</v>
       </c>
       <c r="F10" s="215" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="211" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="26"/>
@@ -12875,7 +12877,7 @@
         <v>2904</v>
       </c>
       <c r="F11" s="215" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12887,11 +12889,11 @@
       <c r="F12" s="214"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="313" t="s">
+      <c r="A13" s="316" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="101" t="s">
         <v>120</v>
-      </c>
-      <c r="B13" s="101" t="s">
-        <v>121</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="203">
@@ -12902,13 +12904,13 @@
         <v>1186.4000000000001</v>
       </c>
       <c r="F13" s="215" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="314"/>
+      <c r="A14" s="317"/>
       <c r="B14" s="101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="203">
@@ -12919,13 +12921,13 @@
         <v>986.40000000000009</v>
       </c>
       <c r="F14" s="215" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="314"/>
+      <c r="A15" s="317"/>
       <c r="B15" s="101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="203">
@@ -12936,13 +12938,13 @@
         <v>120.80000000000001</v>
       </c>
       <c r="F15" s="215" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="315"/>
+      <c r="A16" s="318"/>
       <c r="B16" s="101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="203">
@@ -12953,15 +12955,15 @@
         <v>134.4</v>
       </c>
       <c r="F16" s="215" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="313" t="s">
+      <c r="A17" s="316" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="203">
@@ -12972,13 +12974,13 @@
         <v>1331.2</v>
       </c>
       <c r="F17" s="215" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="315"/>
+      <c r="A18" s="318"/>
       <c r="B18" s="205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="203">
@@ -12989,7 +12991,7 @@
         <v>576</v>
       </c>
       <c r="F18" s="215" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -13002,10 +13004,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="211" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="204">
         <v>340</v>
@@ -13019,7 +13021,7 @@
         <v>223.36642769743705</v>
       </c>
       <c r="F20" s="215" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -13032,10 +13034,10 @@
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="101" t="s">
         <v>213</v>
-      </c>
-      <c r="B22" s="101" t="s">
-        <v>214</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="203">
@@ -13046,7 +13048,7 @@
         <v>23733.600000000002</v>
       </c>
       <c r="F22" s="215" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -13059,10 +13061,10 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="212" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="102" t="s">
         <v>215</v>
-      </c>
-      <c r="B24" s="102" t="s">
-        <v>216</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
@@ -13070,7 +13072,7 @@
         <v>4625</v>
       </c>
       <c r="F24" s="216" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -13123,22 +13125,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="167" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1" s="176" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D1" s="176" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1" s="176" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="176" t="s">
-        <v>500</v>
-      </c>
       <c r="F1" s="177" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13150,14 +13152,14 @@
       <c r="F2" s="218"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="316" t="s">
-        <v>512</v>
+      <c r="A3" s="319" t="s">
+        <v>511</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="144">
         <v>498</v>
@@ -13167,23 +13169,23 @@
         <v>398.40000000000003</v>
       </c>
       <c r="F3" s="184" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="317"/>
+      <c r="A4" s="320"/>
       <c r="B4" s="102" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="152"/>
       <c r="E4" s="152">
         <v>10.5</v>
       </c>
       <c r="F4" s="164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13192,11 +13194,11 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="316" t="s">
-        <v>513</v>
+      <c r="A6" s="319" t="s">
+        <v>512</v>
       </c>
       <c r="B6" s="100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="144">
@@ -13207,13 +13209,13 @@
         <v>215.20000000000002</v>
       </c>
       <c r="F6" s="184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="318"/>
+      <c r="A7" s="321"/>
       <c r="B7" s="101" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="27">
@@ -13224,13 +13226,13 @@
         <v>46.400000000000006</v>
       </c>
       <c r="F7" s="162" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="318"/>
+      <c r="A8" s="321"/>
       <c r="B8" s="101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27">
@@ -13242,13 +13244,13 @@
         <v>88.800000000000011</v>
       </c>
       <c r="F8" s="162" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="318"/>
+      <c r="A9" s="321"/>
       <c r="B9" s="101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
@@ -13256,13 +13258,13 @@
         <v>21.95</v>
       </c>
       <c r="F9" s="162" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="320"/>
+      <c r="B10" s="102" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="317"/>
-      <c r="B10" s="102" t="s">
-        <v>170</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="152"/>
@@ -13270,7 +13272,7 @@
         <v>35.89</v>
       </c>
       <c r="F10" s="164" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13279,11 +13281,11 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="316" t="s">
-        <v>514</v>
+      <c r="A12" s="319" t="s">
+        <v>513</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="144">
@@ -13294,13 +13296,13 @@
         <v>1551.2</v>
       </c>
       <c r="F12" s="184" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="318"/>
+      <c r="A13" s="321"/>
       <c r="B13" s="101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27">
@@ -13311,13 +13313,13 @@
         <v>1527.2</v>
       </c>
       <c r="F13" s="162" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="317"/>
+      <c r="A14" s="320"/>
       <c r="B14" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="152">
@@ -13328,7 +13330,7 @@
         <v>535.20000000000005</v>
       </c>
       <c r="F14" s="164" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13337,11 +13339,11 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="316" t="s">
-        <v>515</v>
+      <c r="A16" s="319" t="s">
+        <v>514</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="144">
@@ -13352,13 +13354,13 @@
         <v>153.60000000000002</v>
       </c>
       <c r="F16" s="184" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="318"/>
+      <c r="A17" s="321"/>
       <c r="B17" s="101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="27">
@@ -13369,13 +13371,13 @@
         <v>31.200000000000003</v>
       </c>
       <c r="F17" s="162" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="318"/>
+      <c r="A18" s="321"/>
       <c r="B18" s="101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27">
@@ -13386,13 +13388,13 @@
         <v>23.200000000000003</v>
       </c>
       <c r="F18" s="162" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="317"/>
+      <c r="A19" s="320"/>
       <c r="B19" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="152">
@@ -13403,7 +13405,7 @@
         <v>191.20000000000002</v>
       </c>
       <c r="F19" s="164" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13411,31 +13413,31 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="196" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B21" s="208" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="173"/>
       <c r="E21" s="219">
         <v>63</v>
       </c>
       <c r="F21" s="174" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="185"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="316" t="s">
-        <v>517</v>
+      <c r="A23" s="319" t="s">
+        <v>516</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="58"/>
@@ -13443,13 +13445,13 @@
         <v>99.17</v>
       </c>
       <c r="F23" s="184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="317"/>
+      <c r="A24" s="320"/>
       <c r="B24" s="102" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
@@ -13457,7 +13459,7 @@
         <v>285</v>
       </c>
       <c r="F24" s="164" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -13511,111 +13513,111 @@
         <v>16</v>
       </c>
       <c r="B1" s="178" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="178" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="178" t="s">
         <v>518</v>
       </c>
-      <c r="D1" s="178" t="s">
-        <v>519</v>
-      </c>
       <c r="E1" s="168" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="165" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C2" s="170"/>
       <c r="D2" s="169">
         <v>302</v>
       </c>
       <c r="E2" s="166" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="27">
         <v>342</v>
       </c>
       <c r="E3" s="162" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="161" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="27">
         <v>359</v>
       </c>
       <c r="E4" s="162" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="161" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="27">
         <v>542</v>
       </c>
       <c r="E5" s="162" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="161" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="27">
         <v>1085</v>
       </c>
       <c r="E6" s="162" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="161" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="27">
         <v>1874</v>
       </c>
       <c r="E7" s="162" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="161" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -13623,22 +13625,22 @@
         <v>347</v>
       </c>
       <c r="E8" s="162" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="226" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="319" t="s">
+      <c r="B9" s="62" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="227">
+        <v>576</v>
+      </c>
+      <c r="E9" s="228" t="s">
         <v>559</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>561</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="320">
-        <v>576</v>
-      </c>
-      <c r="E9" s="321" t="s">
-        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -13686,28 +13688,28 @@
         <v>25</v>
       </c>
       <c r="C1" s="178" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" s="178" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="178" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1" s="178" t="s">
+        <v>507</v>
+      </c>
+      <c r="G1" s="178" t="s">
         <v>509</v>
       </c>
-      <c r="E1" s="178" t="s">
-        <v>520</v>
-      </c>
-      <c r="F1" s="178" t="s">
-        <v>508</v>
-      </c>
-      <c r="G1" s="178" t="s">
-        <v>510</v>
-      </c>
       <c r="H1" s="168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="316" t="s">
-        <v>521</v>
+      <c r="A3" s="319" t="s">
+        <v>520</v>
       </c>
       <c r="B3" s="100" t="s">
         <v>82</v>
@@ -13727,7 +13729,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="318"/>
+      <c r="A4" s="321"/>
       <c r="B4" s="101" t="s">
         <v>86</v>
       </c>
@@ -13746,9 +13748,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="318"/>
+      <c r="A5" s="321"/>
       <c r="B5" s="101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -13761,13 +13763,13 @@
         <v>324.37404022238098</v>
       </c>
       <c r="H5" s="162" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="318"/>
+      <c r="A6" s="321"/>
       <c r="B6" s="101" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -13780,13 +13782,13 @@
         <v>3116.454386440344</v>
       </c>
       <c r="H6" s="162" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="318"/>
+      <c r="A7" s="321"/>
       <c r="B7" s="101" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -13796,13 +13798,13 @@
         <v>119</v>
       </c>
       <c r="H7" s="162" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="318"/>
+      <c r="A8" s="321"/>
       <c r="B8" s="101" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -13812,13 +13814,13 @@
         <v>379</v>
       </c>
       <c r="H8" s="162" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="317"/>
+      <c r="A9" s="320"/>
       <c r="B9" s="102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -13828,7 +13830,7 @@
         <v>425</v>
       </c>
       <c r="H9" s="164" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13836,14 +13838,14 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="316" t="s">
-        <v>522</v>
+      <c r="A11" s="319" t="s">
+        <v>521</v>
       </c>
       <c r="B11" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="58" t="s">
         <v>203</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>204</v>
       </c>
       <c r="D11" s="222"/>
       <c r="E11" s="58"/>
@@ -13852,16 +13854,16 @@
         <v>1079.0999999999999</v>
       </c>
       <c r="H11" s="184" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="317"/>
+      <c r="A12" s="320"/>
       <c r="B12" s="102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="223"/>
       <c r="E12" s="62"/>
@@ -13873,7 +13875,7 @@
         <v>1633.384</v>
       </c>
       <c r="H12" s="164" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13881,13 +13883,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="196" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" s="208" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="173" t="s">
         <v>322</v>
-      </c>
-      <c r="C14" s="173" t="s">
-        <v>323</v>
       </c>
       <c r="D14" s="173"/>
       <c r="E14" s="173"/>
@@ -13896,18 +13898,18 @@
         <v>12999</v>
       </c>
       <c r="H14" s="224" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="185"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="316" t="s">
-        <v>523</v>
+      <c r="A16" s="319" t="s">
+        <v>522</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="58">
         <v>5</v>
@@ -13919,13 +13921,13 @@
         <v>69.400000000000006</v>
       </c>
       <c r="H16" s="184" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="318"/>
+      <c r="A17" s="321"/>
       <c r="B17" s="101" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C17" s="26">
         <v>1</v>
@@ -13937,13 +13939,13 @@
         <v>1433.25</v>
       </c>
       <c r="H17" s="162" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="318"/>
+      <c r="A18" s="321"/>
       <c r="B18" s="101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C18" s="26">
         <v>1</v>
@@ -13955,13 +13957,13 @@
         <v>1866.02</v>
       </c>
       <c r="H18" s="162" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="318"/>
+      <c r="A19" s="321"/>
       <c r="B19" s="101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C19" s="26">
         <v>1</v>
@@ -13973,13 +13975,13 @@
         <v>859.65</v>
       </c>
       <c r="H19" s="162" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="318"/>
+      <c r="A20" s="321"/>
       <c r="B20" s="101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C20" s="26">
         <v>3</v>
@@ -13991,13 +13993,13 @@
         <v>699.07</v>
       </c>
       <c r="H20" s="162" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="318"/>
+      <c r="A21" s="321"/>
       <c r="B21" s="101" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C21" s="26">
         <v>30</v>
@@ -14009,13 +14011,13 @@
         <v>16.899999999999999</v>
       </c>
       <c r="H21" s="162" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="318"/>
+      <c r="A22" s="321"/>
       <c r="B22" s="101" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -14025,13 +14027,13 @@
         <v>1001.67</v>
       </c>
       <c r="H22" s="162" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="321"/>
+      <c r="B23" s="101" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="318"/>
-      <c r="B23" s="101" t="s">
-        <v>269</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -14041,16 +14043,16 @@
         <v>352.31</v>
       </c>
       <c r="H23" s="162" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="317"/>
+      <c r="A24" s="320"/>
       <c r="B24" s="102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D24" s="62"/>
       <c r="E24" s="62"/>
@@ -14059,21 +14061,21 @@
         <v>2302.5700000000002</v>
       </c>
       <c r="H24" s="164" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="185"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="316" t="s">
-        <v>524</v>
+      <c r="A26" s="319" t="s">
+        <v>523</v>
       </c>
       <c r="B26" s="100" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="58" t="s">
         <v>353</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>354</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
@@ -14082,13 +14084,13 @@
         <v>3259</v>
       </c>
       <c r="H26" s="184" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="317"/>
+      <c r="A27" s="320"/>
       <c r="B27" s="102" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C27" s="62"/>
       <c r="D27" s="62"/>
@@ -14099,7 +14101,7 @@
         <v>1031.54</v>
       </c>
       <c r="H27" s="164" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14107,10 +14109,10 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="196" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B29" s="208" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C29" s="173"/>
       <c r="D29" s="173"/>
@@ -14120,7 +14122,7 @@
         <v>1075</v>
       </c>
       <c r="H29" s="224" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -14161,12 +14163,14 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14302,24 +14306,24 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" t="s">
         <v>184</v>
-      </c>
-      <c r="D21" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14334,12 +14338,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -14348,7 +14352,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -14454,7 +14458,9 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14469,14 +14475,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2" s="2">
         <f>133720</f>
         <v>133720</v>
       </c>
-      <c r="C2" t="s">
-        <v>318</v>
+      <c r="C2" s="3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14485,7 +14491,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4">
         <v>208</v>
@@ -14493,44 +14499,44 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2">
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -14606,14 +14612,15 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{AD80808C-9AE2-41A3-9DA5-AF947CB2D788}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/CR - Cost Report/2_CBOM/Cost_v1.0.xlsx
+++ b/CR - Cost Report/2_CBOM/Cost_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE5800-B919-4812-95D1-6AADC5D2B0D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70A28F-7370-4C11-BB44-C027DB1D4D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{FCC80F8F-209D-4EE0-B38E-B50CD23ACA60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCC80F8F-209D-4EE0-B38E-B50CD23ACA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="Laser cutter" sheetId="5" r:id="rId10"/>
     <sheet name="Welding" sheetId="10" r:id="rId11"/>
     <sheet name="Conventionnal machinning" sheetId="15" r:id="rId12"/>
-    <sheet name="Material" sheetId="2" r:id="rId13"/>
+    <sheet name="Card oven" sheetId="16" r:id="rId13"/>
+    <sheet name="Material" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="567">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -1771,6 +1772,21 @@
   </si>
   <si>
     <t>https://www.baileigh.com/cnc-laser-table-fl-510hd-1000</t>
+  </si>
+  <si>
+    <t>https://www.cif-retail.fr/fr/four-refusion/210-four-de-refusion-convection-ft03-nouveau-modele-3664131001571.html</t>
+  </si>
+  <si>
+    <t>Oven</t>
+  </si>
+  <si>
+    <t>https://www.cif-retail.fr/fr/machine-a-graver/193-machine-a-graver-autojet-ii-nouveau-modele-3664131001397.html</t>
+  </si>
+  <si>
+    <t>Card Oven</t>
+  </si>
+  <si>
+    <t>Cost of machine/card</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2628,6 +2644,50 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2638,7 +2698,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2702,13 +2762,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3092,20 +3146,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3131,9 +3257,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3149,30 +3272,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3188,66 +3299,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -3369,6 +3420,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6579,10 +6675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S118"/>
+  <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView zoomScale="128" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="H71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S97" sqref="S97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6612,137 +6708,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="262" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="48"/>
-      <c r="F1" s="234" t="s">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="46"/>
+      <c r="F1" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="236"/>
-      <c r="L1" s="237" t="s">
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="258"/>
+      <c r="L1" s="259" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="239"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="261"/>
     </row>
     <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="92" t="s">
         <v>347</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="L2" s="118" t="s">
+      <c r="L2" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119" t="s">
+      <c r="M2" s="117"/>
+      <c r="N2" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="119" t="s">
+      <c r="O2" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="P2" s="119" t="s">
+      <c r="P2" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="120" t="s">
+      <c r="R2" s="118" t="s">
         <v>347</v>
       </c>
-      <c r="S2" s="121" t="s">
+      <c r="S2" s="119" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="57">
         <f>'Manpower &amp; time'!D8</f>
         <v>21161</v>
       </c>
-      <c r="D3" s="256" t="s">
+      <c r="D3" s="273" t="s">
         <v>481</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="98" t="s">
         <v>534</v>
       </c>
-      <c r="H3" s="96">
+      <c r="H3" s="94">
         <f>SUM(Metrology!E13:E16)</f>
         <v>2428.0000000000005</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="73">
         <v>10</v>
       </c>
-      <c r="J3" s="87">
+      <c r="J3" s="85">
         <f>H3/I3</f>
         <v>242.80000000000004</v>
       </c>
-      <c r="L3" s="242" t="s">
+      <c r="L3" s="239" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="272"/>
-      <c r="N3" s="100" t="s">
+      <c r="M3" s="240"/>
+      <c r="N3" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>'CNC mill'!B22</f>
         <v>108020</v>
       </c>
-      <c r="R3" s="58">
+      <c r="R3" s="56">
         <v>10</v>
       </c>
-      <c r="S3" s="60">
+      <c r="S3" s="58">
         <f>Q3/R3</f>
         <v>10802</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="26" t="s">
         <v>44</v>
       </c>
@@ -6750,29 +6846,29 @@
         <f>'Manpower &amp; time'!D9</f>
         <v>40641</v>
       </c>
-      <c r="D4" s="257"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="101" t="s">
+      <c r="D4" s="274"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="81">
         <f>SUM(Metrology!E17:E18)</f>
         <v>1907.2</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="54">
         <v>10</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="95">
         <f t="shared" ref="J4:J35" si="0">H4/I4</f>
         <v>190.72</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="M4" s="124">
+      <c r="M4" s="122">
         <v>22.4</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="99" t="s">
         <v>190</v>
       </c>
       <c r="O4" s="26" t="s">
@@ -6786,13 +6882,13 @@
       <c r="R4" s="26">
         <v>5</v>
       </c>
-      <c r="S4" s="61">
+      <c r="S4" s="59">
         <f t="shared" ref="S4:S6" si="1">Q4/R4</f>
         <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
@@ -6800,30 +6896,30 @@
         <f>'Manpower &amp; time'!D11</f>
         <v>71259</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="101" t="s">
+      <c r="D5" s="274"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="81">
         <f>2*SUM(Metrology!E2:E7)</f>
         <v>1043.1999999999998</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="54">
         <v>10</v>
       </c>
-      <c r="J5" s="97">
+      <c r="J5" s="95">
         <f t="shared" si="0"/>
         <v>104.31999999999998</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="M5" s="125">
+      <c r="M5" s="123">
         <f>C9</f>
         <v>0.8</v>
       </c>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="99" t="s">
         <v>191</v>
       </c>
       <c r="O5" s="26" t="s">
@@ -6837,43 +6933,43 @@
       <c r="R5" s="26">
         <v>5</v>
       </c>
-      <c r="S5" s="61">
+      <c r="S5" s="59">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="61">
         <f>'Manpower &amp; time'!D9</f>
         <v>40641</v>
       </c>
-      <c r="D6" s="258"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="101" t="s">
+      <c r="D6" s="275"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="99" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="29">
         <f>Metrology!E22</f>
         <v>23733.600000000002</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="54">
         <v>10</v>
       </c>
-      <c r="J6" s="97">
+      <c r="J6" s="95">
         <f t="shared" si="0"/>
         <v>2373.36</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="M6" s="124">
+      <c r="M6" s="122">
         <v>5</v>
       </c>
-      <c r="N6" s="101" t="s">
+      <c r="N6" s="99" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="26" t="s">
@@ -6889,45 +6985,45 @@
       <c r="R6" s="26">
         <v>1</v>
       </c>
-      <c r="S6" s="61">
+      <c r="S6" s="59">
         <f t="shared" si="1"/>
         <v>5401</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="56">
         <v>35</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="101" t="s">
+      <c r="D7" s="62"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="81">
         <f>SUM(Metrology!E9:E11)</f>
         <v>3506.4</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="54">
         <v>10</v>
       </c>
-      <c r="J7" s="97">
+      <c r="J7" s="95">
         <f t="shared" si="0"/>
         <v>350.64</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="M7" s="126">
+      <c r="M7" s="124">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="99" t="s">
         <v>19</v>
       </c>
       <c r="O7" s="26" t="s">
@@ -6936,15 +7032,15 @@
       <c r="P7" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="Q7" s="55">
+      <c r="Q7" s="53">
         <f>M4*0.8*C12</f>
         <v>1.4031359999999997</v>
       </c>
       <c r="R7" s="26"/>
-      <c r="S7" s="141"/>
+      <c r="S7" s="139"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>49</v>
       </c>
@@ -6952,30 +7048,30 @@
         <f>'Manpower &amp; time'!C21</f>
         <v>45.6</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="101" t="s">
+      <c r="D8" s="63"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="81">
         <f>2*Metrology!E20</f>
         <v>446.73285539487409</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="54">
         <v>10</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="95">
         <f t="shared" si="0"/>
         <v>44.673285539487409</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="43" t="s">
         <v>488</v>
       </c>
-      <c r="M8" s="126">
+      <c r="M8" s="124">
         <f>M7*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="N8" s="101" t="s">
+      <c r="N8" s="99" t="s">
         <v>196</v>
       </c>
       <c r="O8" s="26" t="s">
@@ -6988,42 +7084,42 @@
         <v>20</v>
       </c>
       <c r="R8" s="26"/>
-      <c r="S8" s="141"/>
+      <c r="S8" s="139"/>
     </row>
     <row r="9" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="52">
         <v>0.8</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="102" t="s">
+      <c r="F9" s="106"/>
+      <c r="G9" s="100" t="s">
         <v>459</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="61">
         <f>Metrology!E24</f>
         <v>4625</v>
       </c>
-      <c r="I9" s="98">
+      <c r="I9" s="96">
         <v>10</v>
       </c>
-      <c r="J9" s="88">
+      <c r="J9" s="86">
         <f t="shared" si="0"/>
         <v>462.5</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="M9" s="126">
+      <c r="M9" s="124">
         <f>M7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="N9" s="101" t="s">
+      <c r="N9" s="99" t="s">
         <v>195</v>
       </c>
       <c r="O9" s="26" t="s">
@@ -7039,66 +7135,66 @@
       <c r="R9" s="26">
         <v>1</v>
       </c>
-      <c r="S9" s="61">
+      <c r="S9" s="59">
         <f t="shared" ref="S9" si="2">Q9/R9</f>
         <v>88.025599999999997</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="65">
         <v>0.95</v>
       </c>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="154" t="s">
         <v>234</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="57">
         <f>Energies!B7</f>
         <v>2874.8160000000003</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="56">
         <v>1</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="85">
         <f t="shared" si="0"/>
         <v>2874.8160000000003</v>
       </c>
-      <c r="L10" s="142" t="s">
+      <c r="L10" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="M10" s="143">
+      <c r="M10" s="141">
         <v>20</v>
       </c>
-      <c r="N10" s="102"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="73"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="71"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="57">
         <f>Energies!B7</f>
         <v>2874.8160000000003</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="157" t="s">
+      <c r="D11" s="58"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="155" t="s">
         <v>241</v>
       </c>
       <c r="H11" s="27">
@@ -7108,45 +7204,45 @@
       <c r="I11" s="26">
         <v>1</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="95">
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="L11" s="251" t="s">
+      <c r="L11" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="252"/>
-      <c r="N11" s="100" t="s">
+      <c r="M11" s="271"/>
+      <c r="N11" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="O11" s="58" t="s">
+      <c r="O11" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="144">
+      <c r="P11" s="56"/>
+      <c r="Q11" s="142">
         <f>'CNC lathe'!B2</f>
         <v>133720</v>
       </c>
-      <c r="R11" s="58">
+      <c r="R11" s="56">
         <v>10</v>
       </c>
-      <c r="S11" s="60">
+      <c r="S11" s="58">
         <f>Q11/R11</f>
         <v>13372</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="53">
         <f>Energies!B8</f>
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="104" t="s">
+      <c r="D12" s="69"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="102" t="s">
         <v>380</v>
       </c>
       <c r="H12" s="27">
@@ -7156,17 +7252,17 @@
       <c r="I12" s="26">
         <v>1</v>
       </c>
-      <c r="J12" s="97">
+      <c r="J12" s="95">
         <f t="shared" si="0"/>
         <v>147.35999999999999</v>
       </c>
       <c r="L12" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="M12" s="129">
+      <c r="M12" s="127">
         <v>29.8</v>
       </c>
-      <c r="N12" s="101" t="s">
+      <c r="N12" s="99" t="s">
         <v>279</v>
       </c>
       <c r="O12" s="26" t="s">
@@ -7180,46 +7276,46 @@
       <c r="R12" s="26">
         <v>10</v>
       </c>
-      <c r="S12" s="61">
+      <c r="S12" s="59">
         <f>Q12/R12</f>
         <v>1920</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="70"/>
+      <c r="B13" s="60" t="s">
         <v>483</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="61">
         <f>Energies!C12</f>
         <v>2.456</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="F13" s="112" t="s">
+      <c r="D13" s="71"/>
+      <c r="F13" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="G13" s="100" t="s">
+      <c r="G13" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="57">
         <f>C6</f>
         <v>40641</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="73">
         <v>1</v>
       </c>
-      <c r="J13" s="87">
+      <c r="J13" s="85">
         <f t="shared" si="0"/>
         <v>40641</v>
       </c>
       <c r="L13" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="M13" s="130">
+      <c r="M13" s="128">
         <f>C9</f>
         <v>0.8</v>
       </c>
-      <c r="N13" s="101" t="s">
+      <c r="N13" s="99" t="s">
         <v>292</v>
       </c>
       <c r="O13" s="26" t="s">
@@ -7233,44 +7329,44 @@
       <c r="R13" s="26">
         <v>5</v>
       </c>
-      <c r="S13" s="61">
+      <c r="S13" s="59">
         <f t="shared" ref="S13:S14" si="3">Q13/R13</f>
         <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="72" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="56" t="s">
         <v>442</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="73">
         <v>1.21773</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="101" t="s">
+      <c r="D14" s="62"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="99" t="s">
         <v>229</v>
       </c>
       <c r="H14" s="29">
         <f>C5*0.4</f>
         <v>28503.600000000002</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="54">
         <v>1</v>
       </c>
-      <c r="J14" s="97">
+      <c r="J14" s="95">
         <f t="shared" si="0"/>
         <v>28503.600000000002</v>
       </c>
       <c r="L14" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="M14" s="129">
+      <c r="M14" s="127">
         <v>5</v>
       </c>
-      <c r="N14" s="101" t="s">
+      <c r="N14" s="99" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="26" t="s">
@@ -7286,43 +7382,43 @@
       <c r="R14" s="26">
         <v>1</v>
       </c>
-      <c r="S14" s="61">
+      <c r="S14" s="59">
         <f t="shared" si="3"/>
         <v>6686</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="65">
         <v>0.2</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="101" t="s">
+      <c r="D15" s="66"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="99" t="s">
         <v>460</v>
       </c>
       <c r="H15" s="29">
         <f>'Manpower &amp; time'!G12</f>
         <v>11490.34500000001</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="54">
         <v>1</v>
       </c>
-      <c r="J15" s="97">
+      <c r="J15" s="95">
         <f t="shared" si="0"/>
         <v>11490.34500000001</v>
       </c>
       <c r="L15" s="42" t="s">
         <v>449</v>
       </c>
-      <c r="M15" s="131">
+      <c r="M15" s="129">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
-      <c r="N15" s="101" t="s">
+      <c r="N15" s="99" t="s">
         <v>19</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -7331,37 +7427,37 @@
       <c r="P15" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15" s="53">
         <f>M12*0.8*C12</f>
         <v>1.8666720000000001</v>
       </c>
       <c r="R15" s="26"/>
-      <c r="S15" s="141"/>
+      <c r="S15" s="139"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="114"/>
-      <c r="G16" s="102" t="s">
+      <c r="F16" s="112"/>
+      <c r="G16" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="61">
         <f>'Manpower &amp; time'!C36</f>
         <v>14044.629000000001</v>
       </c>
-      <c r="I16" s="98">
+      <c r="I16" s="96">
         <v>1</v>
       </c>
-      <c r="J16" s="88">
+      <c r="J16" s="86">
         <f t="shared" si="0"/>
         <v>14044.629000000001</v>
       </c>
       <c r="L16" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="M16" s="131">
+      <c r="M16" s="129">
         <f>M15*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="N16" s="101" t="s">
+      <c r="N16" s="99" t="s">
         <v>196</v>
       </c>
       <c r="O16" s="26" t="s">
@@ -7374,34 +7470,34 @@
         <v>10</v>
       </c>
       <c r="R16" s="26"/>
-      <c r="S16" s="141"/>
+      <c r="S16" s="139"/>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="100" t="s">
+      <c r="G17" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="57">
         <f>IT!E12+2*IT!E13+IT!E14+7*IT!E16+IT!E17+4*IT!E18+IT!E19</f>
         <v>6531.2</v>
       </c>
-      <c r="I17" s="75">
+      <c r="I17" s="73">
         <v>3</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="85">
         <f t="shared" si="0"/>
         <v>2177.0666666666666</v>
       </c>
       <c r="L17" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="M17" s="131">
+      <c r="M17" s="129">
         <f>M15*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="N17" s="101" t="s">
+      <c r="N17" s="99" t="s">
         <v>195</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -7417,103 +7513,103 @@
       <c r="R17" s="26">
         <v>1</v>
       </c>
-      <c r="S17" s="61">
+      <c r="S17" s="59">
         <f>Q17/R17</f>
         <v>88.025599999999997</v>
       </c>
     </row>
     <row r="18" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="116"/>
-      <c r="G18" s="101" t="s">
+      <c r="F18" s="114"/>
+      <c r="G18" s="99" t="s">
         <v>186</v>
       </c>
       <c r="H18" s="29">
         <f>IT!E6</f>
         <v>215.20000000000002</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="54">
         <v>3</v>
       </c>
-      <c r="J18" s="97">
+      <c r="J18" s="95">
         <f t="shared" si="0"/>
         <v>71.733333333333334</v>
       </c>
-      <c r="L18" s="225" t="s">
+      <c r="L18" s="223" t="s">
         <v>222</v>
       </c>
-      <c r="M18" s="140">
+      <c r="M18" s="138">
         <v>15</v>
       </c>
-      <c r="N18" s="102"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="73"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="71"/>
     </row>
     <row r="19" spans="4:19" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="159" t="s">
+      <c r="F19" s="114"/>
+      <c r="G19" s="157" t="s">
         <v>484</v>
       </c>
       <c r="H19" s="29">
         <f>2*IT!E7+IT!E8+2*IT!E9+IT!E10</f>
         <v>261.39000000000004</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="54">
         <v>1</v>
       </c>
-      <c r="J19" s="97">
+      <c r="J19" s="95">
         <f t="shared" si="0"/>
         <v>261.39000000000004</v>
       </c>
-      <c r="L19" s="273" t="s">
+      <c r="L19" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="274"/>
-      <c r="N19" s="100" t="s">
+      <c r="M19" s="242"/>
+      <c r="N19" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="58" t="s">
+      <c r="O19" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="59">
+      <c r="P19" s="56"/>
+      <c r="Q19" s="57">
         <f>'Laser cutter'!G4</f>
         <v>108770.41708753172</v>
       </c>
-      <c r="R19" s="58">
+      <c r="R19" s="56">
         <v>10</v>
       </c>
-      <c r="S19" s="60">
+      <c r="S19" s="58">
         <f>Q19/R19</f>
         <v>10877.041708753171</v>
       </c>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F20" s="116"/>
-      <c r="G20" s="101" t="s">
+      <c r="F20" s="114"/>
+      <c r="G20" s="99" t="s">
         <v>165</v>
       </c>
       <c r="H20" s="29">
         <f>IT!E4*12*3</f>
         <v>378</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="54">
         <v>1</v>
       </c>
-      <c r="J20" s="97">
+      <c r="J20" s="95">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
       <c r="L20" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="M20" s="132">
+      <c r="M20" s="130">
         <v>7.5</v>
       </c>
-      <c r="N20" s="101" t="s">
+      <c r="N20" s="99" t="s">
         <v>22</v>
       </c>
       <c r="O20" s="26" t="s">
@@ -7529,34 +7625,34 @@
       <c r="R20" s="26">
         <v>1</v>
       </c>
-      <c r="S20" s="61">
+      <c r="S20" s="59">
         <f>Q20/R20</f>
         <v>5438.5208543765866</v>
       </c>
     </row>
     <row r="21" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F21" s="116"/>
-      <c r="G21" s="101" t="s">
+      <c r="F21" s="114"/>
+      <c r="G21" s="99" t="s">
         <v>166</v>
       </c>
       <c r="H21" s="29">
         <f>IT!E3*2</f>
         <v>796.80000000000007</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="54">
         <v>1</v>
       </c>
-      <c r="J21" s="97">
+      <c r="J21" s="95">
         <f t="shared" si="0"/>
         <v>796.80000000000007</v>
       </c>
       <c r="L21" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="M21" s="133">
+      <c r="M21" s="131">
         <v>0.7</v>
       </c>
-      <c r="N21" s="101" t="s">
+      <c r="N21" s="99" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -7565,36 +7661,36 @@
       <c r="P21" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="Q21" s="55">
+      <c r="Q21" s="53">
         <f>M20*0.8*C12</f>
         <v>0.4698</v>
       </c>
       <c r="R21" s="26"/>
-      <c r="S21" s="141"/>
+      <c r="S21" s="139"/>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F22" s="116"/>
-      <c r="G22" s="101" t="s">
+      <c r="F22" s="114"/>
+      <c r="G22" s="99" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="29">
         <f>12*IT!E21</f>
         <v>756</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="54">
         <v>1</v>
       </c>
-      <c r="J22" s="97">
+      <c r="J22" s="95">
         <f t="shared" si="0"/>
         <v>756</v>
       </c>
       <c r="L22" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="M22" s="132">
+      <c r="M22" s="130">
         <v>5</v>
       </c>
-      <c r="N22" s="101" t="s">
+      <c r="N22" s="99" t="s">
         <v>376</v>
       </c>
       <c r="O22" s="26" t="s">
@@ -7608,130 +7704,130 @@
         <v>5.0728</v>
       </c>
       <c r="R22" s="26"/>
-      <c r="S22" s="141"/>
+      <c r="S22" s="139"/>
     </row>
     <row r="23" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="117"/>
-      <c r="G23" s="102" t="s">
+      <c r="F23" s="115"/>
+      <c r="G23" s="100" t="s">
         <v>348</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="61">
         <f>IT!E24+IT!E23</f>
         <v>384.17</v>
       </c>
-      <c r="I23" s="98">
+      <c r="I23" s="96">
         <v>3</v>
       </c>
-      <c r="J23" s="88">
+      <c r="J23" s="86">
         <f t="shared" si="0"/>
         <v>128.05666666666667</v>
       </c>
       <c r="L23" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="M23" s="134">
+      <c r="M23" s="132">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="N23" s="122"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="145"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="143"/>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F24" s="106" t="s">
+      <c r="F24" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="G24" s="100" t="s">
+      <c r="G24" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="99">
+      <c r="H24" s="97">
         <v>200</v>
       </c>
-      <c r="I24" s="75">
+      <c r="I24" s="73">
         <v>1</v>
       </c>
-      <c r="J24" s="87">
+      <c r="J24" s="85">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="L24" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="M24" s="135">
+      <c r="M24" s="133">
         <v>1.5</v>
       </c>
-      <c r="N24" s="122"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="146"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="144"/>
     </row>
     <row r="25" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="108"/>
-      <c r="G25" s="102" t="s">
+      <c r="F25" s="106"/>
+      <c r="G25" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="61">
         <f>Office!D2*3+Office!D3*3+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10+Office!D9</f>
         <v>10739</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="60">
         <v>10</v>
       </c>
-      <c r="J25" s="88">
+      <c r="J25" s="86">
         <f>H25/I25</f>
         <v>1073.9000000000001</v>
       </c>
       <c r="L25" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="M25" s="135">
+      <c r="M25" s="133">
         <v>1</v>
       </c>
-      <c r="N25" s="123"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="147"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="145"/>
     </row>
     <row r="26" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="109" t="s">
+      <c r="F26" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="158" t="s">
+      <c r="G26" s="156" t="s">
         <v>362</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="57">
         <f>SUM(Manufacturing!G3:G8)+Manufacturing!G9*4</f>
         <v>18194.977983625271</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="56">
         <v>10</v>
       </c>
-      <c r="J26" s="87">
+      <c r="J26" s="85">
         <f t="shared" si="0"/>
         <v>1819.4977983625272</v>
       </c>
-      <c r="L26" s="148" t="s">
+      <c r="L26" s="146" t="s">
         <v>316</v>
       </c>
-      <c r="M26" s="149">
+      <c r="M26" s="147">
         <v>8</v>
       </c>
-      <c r="N26" s="102"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="73"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="71"/>
     </row>
     <row r="27" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F27" s="110"/>
-      <c r="G27" s="101" t="s">
+      <c r="F27" s="108"/>
+      <c r="G27" s="99" t="s">
         <v>350</v>
       </c>
       <c r="H27" s="29">
@@ -7741,36 +7837,36 @@
       <c r="I27" s="26">
         <v>10</v>
       </c>
-      <c r="J27" s="97">
+      <c r="J27" s="95">
         <f t="shared" si="0"/>
         <v>325.89999999999998</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="150"/>
-      <c r="N27" s="100" t="s">
+      <c r="M27" s="148"/>
+      <c r="N27" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="O27" s="58" t="s">
+      <c r="O27" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59">
+      <c r="P27" s="56"/>
+      <c r="Q27" s="57">
         <f>Welding!F2+Welding!F3</f>
         <v>5308.6</v>
       </c>
-      <c r="R27" s="58">
+      <c r="R27" s="56">
         <v>10</v>
       </c>
-      <c r="S27" s="60">
+      <c r="S27" s="58">
         <f>Q27/R27</f>
         <v>530.86</v>
       </c>
     </row>
     <row r="28" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F28" s="110"/>
-      <c r="G28" s="101" t="s">
+      <c r="F28" s="108"/>
+      <c r="G28" s="99" t="s">
         <v>456</v>
       </c>
       <c r="H28" s="29">
@@ -7780,13 +7876,13 @@
       <c r="I28" s="26">
         <v>10</v>
       </c>
-      <c r="J28" s="97">
+      <c r="J28" s="95">
         <f t="shared" si="0"/>
         <v>103.154</v>
       </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="101" t="s">
+      <c r="L28" s="43"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="99" t="s">
         <v>38</v>
       </c>
       <c r="O28" s="26" t="s">
@@ -7800,14 +7896,14 @@
       <c r="R28" s="26">
         <v>10</v>
       </c>
-      <c r="S28" s="61">
+      <c r="S28" s="59">
         <f t="shared" ref="S28:S32" si="4">Q28/R28</f>
         <v>385.96</v>
       </c>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F29" s="110"/>
-      <c r="G29" s="101" t="s">
+      <c r="F29" s="108"/>
+      <c r="G29" s="99" t="s">
         <v>271</v>
       </c>
       <c r="H29" s="29">
@@ -7817,18 +7913,18 @@
       <c r="I29" s="26">
         <v>10</v>
       </c>
-      <c r="J29" s="97">
+      <c r="J29" s="95">
         <f t="shared" si="0"/>
         <v>813.74519999999995</v>
       </c>
-      <c r="L29" s="44" t="s">
+      <c r="L29" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="M29" s="125">
+      <c r="M29" s="123">
         <f>C9</f>
         <v>0.8</v>
       </c>
-      <c r="N29" s="101" t="s">
+      <c r="N29" s="99" t="s">
         <v>221</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -7842,14 +7938,14 @@
       <c r="R29" s="26">
         <v>5</v>
       </c>
-      <c r="S29" s="61">
+      <c r="S29" s="59">
         <f t="shared" si="4"/>
         <v>29.2</v>
       </c>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F30" s="110"/>
-      <c r="G30" s="159" t="s">
+      <c r="F30" s="108"/>
+      <c r="G30" s="157" t="s">
         <v>325</v>
       </c>
       <c r="H30" s="29">
@@ -7859,18 +7955,18 @@
       <c r="I30" s="26">
         <v>10</v>
       </c>
-      <c r="J30" s="97">
+      <c r="J30" s="95">
         <f t="shared" si="0"/>
         <v>406.87259999999998</v>
       </c>
-      <c r="L30" s="44" t="s">
+      <c r="L30" s="43" t="s">
         <v>424</v>
       </c>
-      <c r="M30" s="136">
+      <c r="M30" s="134">
         <f>Welding!B32</f>
         <v>140.43083213990764</v>
       </c>
-      <c r="N30" s="101" t="s">
+      <c r="N30" s="99" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="26" t="s">
@@ -7884,14 +7980,14 @@
       <c r="R30" s="26">
         <v>2</v>
       </c>
-      <c r="S30" s="61">
+      <c r="S30" s="59">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F31" s="110"/>
-      <c r="G31" s="101" t="s">
+      <c r="F31" s="108"/>
+      <c r="G31" s="99" t="s">
         <v>326</v>
       </c>
       <c r="H31" s="29">
@@ -7900,13 +7996,13 @@
       <c r="I31" s="26">
         <v>5</v>
       </c>
-      <c r="J31" s="97">
+      <c r="J31" s="95">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="L31" s="44"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="101" t="s">
+      <c r="L31" s="43"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="99" t="s">
         <v>210</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -7920,14 +8016,14 @@
       <c r="R31" s="26">
         <v>10</v>
       </c>
-      <c r="S31" s="61">
+      <c r="S31" s="59">
         <f t="shared" si="4"/>
         <v>857.9</v>
       </c>
     </row>
     <row r="32" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F32" s="110"/>
-      <c r="G32" s="101" t="s">
+      <c r="F32" s="108"/>
+      <c r="G32" s="99" t="s">
         <v>327</v>
       </c>
       <c r="H32" s="29">
@@ -7936,13 +8032,13 @@
       <c r="I32" s="26">
         <v>1</v>
       </c>
-      <c r="J32" s="97">
+      <c r="J32" s="95">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="101" t="s">
+      <c r="L32" s="43"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="99" t="s">
         <v>22</v>
       </c>
       <c r="O32" s="26" t="s">
@@ -7958,14 +8054,14 @@
       <c r="R32" s="26">
         <v>1</v>
       </c>
-      <c r="S32" s="61">
+      <c r="S32" s="59">
         <f t="shared" si="4"/>
         <v>275.04599999999999</v>
       </c>
     </row>
     <row r="33" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F33" s="110"/>
-      <c r="G33" s="101" t="s">
+      <c r="F33" s="108"/>
+      <c r="G33" s="99" t="s">
         <v>331</v>
       </c>
       <c r="H33" s="29">
@@ -7975,13 +8071,13 @@
       <c r="I33" s="26">
         <v>10</v>
       </c>
-      <c r="J33" s="97">
+      <c r="J33" s="95">
         <f t="shared" si="0"/>
         <v>230.25700000000001</v>
       </c>
-      <c r="L33" s="44"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="101" t="s">
+      <c r="L33" s="43"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="99" t="s">
         <v>19</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -7990,16 +8086,16 @@
       <c r="P33" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="Q33" s="55">
+      <c r="Q33" s="53">
         <f>(0.75+0.5)*C12</f>
         <v>9.787499999999999E-2</v>
       </c>
       <c r="R33" s="26"/>
-      <c r="S33" s="141"/>
+      <c r="S33" s="139"/>
     </row>
     <row r="34" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F34" s="110"/>
-      <c r="G34" s="101" t="s">
+      <c r="F34" s="108"/>
+      <c r="G34" s="99" t="s">
         <v>40</v>
       </c>
       <c r="H34" s="29">
@@ -8009,19 +8105,19 @@
       <c r="I34" s="26">
         <v>10</v>
       </c>
-      <c r="J34" s="97">
+      <c r="J34" s="95">
         <f t="shared" si="0"/>
         <v>706.69499999999994</v>
       </c>
-      <c r="L34" s="127"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="101" t="s">
+      <c r="L34" s="125"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="99" t="s">
         <v>422</v>
       </c>
-      <c r="O34" s="259" t="s">
+      <c r="O34" s="276" t="s">
         <v>194</v>
       </c>
-      <c r="P34" s="260" t="s">
+      <c r="P34" s="277" t="s">
         <v>421</v>
       </c>
       <c r="Q34" s="29">
@@ -8029,11 +8125,11 @@
         <v>8.5247116655159064E-2</v>
       </c>
       <c r="R34" s="26"/>
-      <c r="S34" s="141"/>
+      <c r="S34" s="139"/>
     </row>
     <row r="35" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F35" s="110"/>
-      <c r="G35" s="101" t="s">
+      <c r="F35" s="108"/>
+      <c r="G35" s="99" t="s">
         <v>343</v>
       </c>
       <c r="H35" s="29">
@@ -8043,27 +8139,27 @@
       <c r="I35" s="26">
         <v>10</v>
       </c>
-      <c r="J35" s="97">
+      <c r="J35" s="95">
         <f t="shared" si="0"/>
         <v>711.01300000000003</v>
       </c>
-      <c r="L35" s="137"/>
-      <c r="M35" s="138"/>
-      <c r="N35" s="101" t="s">
+      <c r="L35" s="135"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="99" t="s">
         <v>423</v>
       </c>
-      <c r="O35" s="259"/>
-      <c r="P35" s="260"/>
+      <c r="O35" s="276"/>
+      <c r="P35" s="277"/>
       <c r="Q35" s="29">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
       </c>
       <c r="R35" s="26"/>
-      <c r="S35" s="141"/>
+      <c r="S35" s="139"/>
     </row>
     <row r="36" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="110"/>
-      <c r="G36" s="104" t="s">
+      <c r="F36" s="108"/>
+      <c r="G36" s="102" t="s">
         <v>323</v>
       </c>
       <c r="H36" s="29">
@@ -8073,31 +8169,31 @@
       <c r="I36" s="26">
         <v>10</v>
       </c>
-      <c r="J36" s="97">
+      <c r="J36" s="95">
         <f>H36/I36</f>
         <v>1299.9000000000001</v>
       </c>
       <c r="L36" s="23"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="102" t="s">
+      <c r="M36" s="149"/>
+      <c r="N36" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="O36" s="62" t="s">
+      <c r="O36" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="P36" s="62" t="s">
+      <c r="P36" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="Q36" s="63">
+      <c r="Q36" s="61">
         <f>Welding!B17</f>
         <v>14.354066985645932</v>
       </c>
-      <c r="R36" s="62"/>
-      <c r="S36" s="73"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="71"/>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F37" s="110"/>
-      <c r="G37" s="104" t="s">
+      <c r="F37" s="108"/>
+      <c r="G37" s="102" t="s">
         <v>324</v>
       </c>
       <c r="H37" s="29">
@@ -8107,56 +8203,56 @@
       <c r="I37" s="26">
         <v>1</v>
       </c>
-      <c r="J37" s="97">
+      <c r="J37" s="95">
         <f>H37/I37</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L37" s="251" t="s">
+      <c r="L37" s="236" t="s">
         <v>363</v>
       </c>
-      <c r="M37" s="252"/>
-      <c r="N37" s="100" t="s">
+      <c r="M37" s="271"/>
+      <c r="N37" s="98" t="s">
         <v>427</v>
       </c>
-      <c r="O37" s="58" t="s">
+      <c r="O37" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="144">
+      <c r="P37" s="56"/>
+      <c r="Q37" s="142">
         <f>'Conventionnal machinning'!B2</f>
         <v>15000</v>
       </c>
-      <c r="R37" s="58">
+      <c r="R37" s="56">
         <v>10</v>
       </c>
-      <c r="S37" s="60">
+      <c r="S37" s="58">
         <f>Q37/R37</f>
         <v>1500</v>
       </c>
     </row>
     <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="111"/>
-      <c r="G38" s="105" t="s">
+      <c r="F38" s="109"/>
+      <c r="G38" s="103" t="s">
         <v>458</v>
       </c>
-      <c r="H38" s="63">
+      <c r="H38" s="61">
         <f>2*Manufacturing!G29</f>
         <v>2150</v>
       </c>
-      <c r="I38" s="62">
+      <c r="I38" s="60">
         <v>10</v>
       </c>
-      <c r="J38" s="88">
+      <c r="J38" s="86">
         <f>H38/I38</f>
         <v>215</v>
       </c>
       <c r="L38" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="M38" s="129">
+      <c r="M38" s="127">
         <v>6</v>
       </c>
-      <c r="N38" s="101" t="s">
+      <c r="N38" s="99" t="s">
         <v>433</v>
       </c>
       <c r="O38" s="26" t="s">
@@ -8170,7 +8266,7 @@
       <c r="R38" s="26">
         <v>10</v>
       </c>
-      <c r="S38" s="61">
+      <c r="S38" s="59">
         <f>Q38/R38</f>
         <v>1000</v>
       </c>
@@ -8182,10 +8278,10 @@
       <c r="L39" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="M39" s="130">
+      <c r="M39" s="128">
         <v>0.44</v>
       </c>
-      <c r="N39" s="101" t="s">
+      <c r="N39" s="99" t="s">
         <v>441</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -8199,26 +8295,26 @@
       <c r="R39" s="26">
         <v>5</v>
       </c>
-      <c r="S39" s="61">
+      <c r="S39" s="59">
         <f t="shared" ref="S39:S40" si="5">Q39/R39</f>
         <v>1525</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="244" t="s">
+      <c r="F40" s="265" t="s">
         <v>485</v>
       </c>
-      <c r="G40" s="245"/>
-      <c r="H40" s="245"/>
-      <c r="I40" s="245"/>
-      <c r="J40" s="246"/>
+      <c r="G40" s="266"/>
+      <c r="H40" s="266"/>
+      <c r="I40" s="266"/>
+      <c r="J40" s="267"/>
       <c r="L40" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="M40" s="129">
+      <c r="M40" s="127">
         <v>5</v>
       </c>
-      <c r="N40" s="101" t="s">
+      <c r="N40" s="99" t="s">
         <v>22</v>
       </c>
       <c r="O40" s="26" t="s">
@@ -8234,32 +8330,32 @@
       <c r="R40" s="26">
         <v>1</v>
       </c>
-      <c r="S40" s="61">
+      <c r="S40" s="59">
         <f t="shared" si="5"/>
         <v>750</v>
       </c>
     </row>
     <row r="41" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F41" s="261" t="s">
+      <c r="F41" s="246" t="s">
         <v>283</v>
       </c>
-      <c r="G41" s="249" t="s">
+      <c r="G41" s="269" t="s">
         <v>444</v>
       </c>
-      <c r="H41" s="249"/>
-      <c r="I41" s="250"/>
-      <c r="J41" s="87">
+      <c r="H41" s="269"/>
+      <c r="I41" s="270"/>
+      <c r="J41" s="85">
         <f>SUM(J3:J38)*1.05</f>
         <v>127700.70111809715</v>
       </c>
       <c r="L41" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="M41" s="131">
+      <c r="M41" s="129">
         <f>3*1/10000</f>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N41" s="101" t="s">
+      <c r="N41" s="99" t="s">
         <v>19</v>
       </c>
       <c r="O41" s="26" t="s">
@@ -8268,128 +8364,128 @@
       <c r="P41" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="Q41" s="55">
+      <c r="Q41" s="53">
         <f>M38*0.8*C12</f>
         <v>0.37584000000000001</v>
       </c>
       <c r="R41" s="26"/>
-      <c r="S41" s="141"/>
+      <c r="S41" s="139"/>
     </row>
     <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="262"/>
-      <c r="G42" s="247" t="s">
+      <c r="F42" s="247"/>
+      <c r="G42" s="268" t="s">
         <v>249</v>
       </c>
-      <c r="H42" s="247"/>
-      <c r="I42" s="248"/>
-      <c r="J42" s="88">
+      <c r="H42" s="268"/>
+      <c r="I42" s="254"/>
+      <c r="J42" s="86">
         <f>J41/SUM('Manpower &amp; time'!C32:J32)</f>
         <v>11.714929813378353</v>
       </c>
-      <c r="L42" s="139" t="s">
+      <c r="L42" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="M42" s="140">
+      <c r="M42" s="138">
         <v>10</v>
       </c>
-      <c r="N42" s="102" t="s">
+      <c r="N42" s="100" t="s">
         <v>435</v>
       </c>
-      <c r="O42" s="62" t="s">
+      <c r="O42" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="P42" s="62" t="s">
+      <c r="P42" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="Q42" s="152">
+      <c r="Q42" s="150">
         <v>10</v>
       </c>
-      <c r="R42" s="62"/>
-      <c r="S42" s="73"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="71"/>
     </row>
     <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="263" t="s">
+      <c r="F43" s="248" t="s">
         <v>284</v>
       </c>
-      <c r="G43" s="250" t="s">
+      <c r="G43" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="H43" s="253"/>
-      <c r="I43" s="253"/>
-      <c r="J43" s="89">
+      <c r="H43" s="272"/>
+      <c r="I43" s="272"/>
+      <c r="J43" s="87">
         <f>'Manpower &amp; time'!H8</f>
         <v>12.595833333333333</v>
       </c>
     </row>
     <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="264"/>
-      <c r="G44" s="254" t="s">
+      <c r="F44" s="249"/>
+      <c r="G44" s="244" t="s">
         <v>296</v>
       </c>
-      <c r="H44" s="255"/>
-      <c r="I44" s="255"/>
-      <c r="J44" s="90">
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="88">
         <f>'Manpower &amp; time'!H9</f>
         <v>24.191071428571426</v>
       </c>
-      <c r="L44" s="266" t="s">
+      <c r="L44" s="251" t="s">
         <v>486</v>
       </c>
-      <c r="M44" s="267"/>
-      <c r="N44" s="267"/>
-      <c r="O44" s="267"/>
-      <c r="P44" s="267"/>
-      <c r="Q44" s="267"/>
-      <c r="R44" s="268"/>
+      <c r="M44" s="252"/>
+      <c r="N44" s="252"/>
+      <c r="O44" s="252"/>
+      <c r="P44" s="252"/>
+      <c r="Q44" s="252"/>
+      <c r="R44" s="253"/>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="264"/>
-      <c r="G45" s="254" t="s">
+      <c r="F45" s="249"/>
+      <c r="G45" s="244" t="s">
         <v>438</v>
       </c>
-      <c r="H45" s="255"/>
-      <c r="I45" s="255"/>
-      <c r="J45" s="90">
+      <c r="H45" s="245"/>
+      <c r="I45" s="245"/>
+      <c r="J45" s="88">
         <f>'Manpower &amp; time'!H10</f>
         <v>30.467857142857142</v>
       </c>
-      <c r="L45" s="242" t="s">
+      <c r="L45" s="239" t="s">
         <v>448</v>
       </c>
-      <c r="M45" s="243"/>
-      <c r="N45" s="229" t="s">
+      <c r="M45" s="264"/>
+      <c r="N45" s="237" t="s">
         <v>258</v>
       </c>
-      <c r="O45" s="229"/>
-      <c r="P45" s="229"/>
-      <c r="Q45" s="229"/>
-      <c r="R45" s="77">
+      <c r="O45" s="237"/>
+      <c r="P45" s="237"/>
+      <c r="Q45" s="237"/>
+      <c r="R45" s="75">
         <f>SUM(S3:S6)+S9</f>
         <v>17591.025600000001</v>
       </c>
     </row>
     <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="265"/>
-      <c r="G46" s="248" t="s">
+      <c r="F46" s="250"/>
+      <c r="G46" s="254" t="s">
         <v>286</v>
       </c>
-      <c r="H46" s="269"/>
-      <c r="I46" s="269"/>
-      <c r="J46" s="91">
+      <c r="H46" s="255"/>
+      <c r="I46" s="255"/>
+      <c r="J46" s="89">
         <f>'Manpower &amp; time'!H11</f>
         <v>42.416071428571428</v>
       </c>
-      <c r="L46" s="278" t="s">
+      <c r="L46" s="234" t="s">
         <v>452</v>
       </c>
-      <c r="M46" s="279"/>
-      <c r="N46" s="230" t="s">
+      <c r="M46" s="235"/>
+      <c r="N46" s="233" t="s">
         <v>259</v>
       </c>
-      <c r="O46" s="230"/>
-      <c r="P46" s="230"/>
-      <c r="Q46" s="230"/>
-      <c r="R46" s="78">
+      <c r="O46" s="233"/>
+      <c r="P46" s="233"/>
+      <c r="Q46" s="233"/>
+      <c r="R46" s="76">
         <f>R45/(M5*C7*C8)+J42</f>
         <v>25.492362144205423</v>
       </c>
@@ -8402,13 +8498,13 @@
       <c r="M47" s="38">
         <v>2.5</v>
       </c>
-      <c r="N47" s="230" t="s">
+      <c r="N47" s="233" t="s">
         <v>260</v>
       </c>
-      <c r="O47" s="230"/>
-      <c r="P47" s="230"/>
-      <c r="Q47" s="230"/>
-      <c r="R47" s="78">
+      <c r="O47" s="233"/>
+      <c r="P47" s="233"/>
+      <c r="Q47" s="233"/>
+      <c r="R47" s="76">
         <f>R46+Q8+Q7</f>
         <v>46.895498144205419</v>
       </c>
@@ -8421,40 +8517,40 @@
       <c r="M48" s="38">
         <v>0.5</v>
       </c>
-      <c r="N48" s="230"/>
-      <c r="O48" s="230"/>
-      <c r="P48" s="230"/>
-      <c r="Q48" s="230"/>
-      <c r="R48" s="79"/>
+      <c r="N48" s="233"/>
+      <c r="O48" s="233"/>
+      <c r="P48" s="233"/>
+      <c r="Q48" s="233"/>
+      <c r="R48" s="77"/>
     </row>
     <row r="49" spans="6:18" x14ac:dyDescent="0.25">
       <c r="I49" s="10"/>
       <c r="J49" s="14"/>
       <c r="L49" s="21"/>
       <c r="M49" s="22"/>
-      <c r="N49" s="230" t="s">
+      <c r="N49" s="233" t="s">
         <v>245</v>
       </c>
-      <c r="O49" s="230"/>
-      <c r="P49" s="230"/>
-      <c r="Q49" s="230"/>
-      <c r="R49" s="80">
+      <c r="O49" s="233"/>
+      <c r="P49" s="233"/>
+      <c r="Q49" s="233"/>
+      <c r="R49" s="78">
         <f>('Manpower &amp; time'!H8+R47)*M7/60</f>
         <v>9.9152219129231255E-5</v>
       </c>
     </row>
     <row r="50" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I50" s="47"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="14"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="230" t="s">
+      <c r="N50" s="233" t="s">
         <v>443</v>
       </c>
-      <c r="O50" s="230"/>
-      <c r="P50" s="230"/>
-      <c r="Q50" s="230"/>
-      <c r="R50" s="81">
+      <c r="O50" s="233"/>
+      <c r="P50" s="233"/>
+      <c r="Q50" s="233"/>
+      <c r="R50" s="79">
         <f>('Manpower &amp; time'!H8)*M7/60/R49</f>
         <v>0.2117255240469606</v>
       </c>
@@ -8464,22 +8560,22 @@
       <c r="J51" s="14"/>
       <c r="L51" s="21"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="230"/>
-      <c r="O51" s="230"/>
-      <c r="P51" s="230"/>
-      <c r="Q51" s="230"/>
-      <c r="R51" s="80"/>
+      <c r="N51" s="233"/>
+      <c r="O51" s="233"/>
+      <c r="P51" s="233"/>
+      <c r="Q51" s="233"/>
+      <c r="R51" s="78"/>
     </row>
     <row r="52" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L52" s="21"/>
       <c r="M52" s="22"/>
-      <c r="N52" s="230" t="s">
+      <c r="N52" s="233" t="s">
         <v>248</v>
       </c>
-      <c r="O52" s="230"/>
-      <c r="P52" s="230"/>
-      <c r="Q52" s="230"/>
-      <c r="R52" s="80">
+      <c r="O52" s="233"/>
+      <c r="P52" s="233"/>
+      <c r="Q52" s="233"/>
+      <c r="R52" s="78">
         <f>('Manpower &amp; time'!H8+J42)*M8/60</f>
         <v>2.0258969288926407E-5</v>
       </c>
@@ -8488,13 +8584,13 @@
       <c r="J53" s="8"/>
       <c r="L53" s="21"/>
       <c r="M53" s="22"/>
-      <c r="N53" s="230" t="s">
+      <c r="N53" s="233" t="s">
         <v>246</v>
       </c>
-      <c r="O53" s="230"/>
-      <c r="P53" s="230"/>
-      <c r="Q53" s="230"/>
-      <c r="R53" s="80">
+      <c r="O53" s="233"/>
+      <c r="P53" s="233"/>
+      <c r="Q53" s="233"/>
+      <c r="R53" s="78">
         <f>('Manpower &amp; time'!H9+J42)*M8/60</f>
         <v>2.9921667701624819E-5</v>
       </c>
@@ -8503,13 +8599,13 @@
       <c r="J54" s="7"/>
       <c r="L54" s="21"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="230" t="s">
+      <c r="N54" s="233" t="s">
         <v>247</v>
       </c>
-      <c r="O54" s="230"/>
-      <c r="P54" s="230"/>
-      <c r="Q54" s="230"/>
-      <c r="R54" s="80">
+      <c r="O54" s="233"/>
+      <c r="P54" s="233"/>
+      <c r="Q54" s="233"/>
+      <c r="R54" s="78">
         <f>('Manpower &amp; time'!H11+J42)*M8/60</f>
         <v>4.5109167701624822E-5</v>
       </c>
@@ -8518,13 +8614,13 @@
       <c r="J55" s="7"/>
       <c r="L55" s="21"/>
       <c r="M55" s="22"/>
-      <c r="N55" s="230" t="s">
+      <c r="N55" s="233" t="s">
         <v>287</v>
       </c>
-      <c r="O55" s="230"/>
-      <c r="P55" s="230"/>
-      <c r="Q55" s="230"/>
-      <c r="R55" s="80">
+      <c r="O55" s="233"/>
+      <c r="P55" s="233"/>
+      <c r="Q55" s="233"/>
+      <c r="R55" s="78">
         <f>('Manpower &amp; time'!H8+J42)*M$9/60</f>
         <v>1.6207175431141127E-5</v>
       </c>
@@ -8533,13 +8629,13 @@
       <c r="J56" s="7"/>
       <c r="L56" s="21"/>
       <c r="M56" s="22"/>
-      <c r="N56" s="230" t="s">
+      <c r="N56" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="O56" s="230"/>
-      <c r="P56" s="230"/>
-      <c r="Q56" s="230"/>
-      <c r="R56" s="80">
+      <c r="O56" s="233"/>
+      <c r="P56" s="233"/>
+      <c r="Q56" s="233"/>
+      <c r="R56" s="78">
         <f>('Manpower &amp; time'!H9+J42)*M$9/60</f>
         <v>2.3937334161299856E-5</v>
       </c>
@@ -8548,13 +8644,13 @@
       <c r="J57" s="5"/>
       <c r="L57" s="21"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="230" t="s">
+      <c r="N57" s="319" t="s">
         <v>289</v>
       </c>
-      <c r="O57" s="230"/>
-      <c r="P57" s="230"/>
-      <c r="Q57" s="230"/>
-      <c r="R57" s="80">
+      <c r="O57" s="320"/>
+      <c r="P57" s="320"/>
+      <c r="Q57" s="321"/>
+      <c r="R57" s="78">
         <f>('Manpower &amp; time'!H11+J42)*M$9/60</f>
         <v>3.6087334161299856E-5</v>
       </c>
@@ -8562,45 +8658,45 @@
     <row r="58" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L58" s="23"/>
       <c r="M58" s="24"/>
-      <c r="N58" s="231" t="s">
+      <c r="N58" s="327" t="s">
         <v>257</v>
       </c>
-      <c r="O58" s="231"/>
-      <c r="P58" s="231"/>
-      <c r="Q58" s="231"/>
-      <c r="R58" s="82">
+      <c r="O58" s="328"/>
+      <c r="P58" s="328"/>
+      <c r="Q58" s="329"/>
+      <c r="R58" s="80">
         <f>('Manpower &amp; time'!H8+R46)*(M10+M6)/60</f>
         <v>15.87008144897448</v>
       </c>
     </row>
     <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L59" s="251" t="s">
+      <c r="L59" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="280"/>
-      <c r="N59" s="229" t="s">
+      <c r="M59" s="326"/>
+      <c r="N59" s="323" t="s">
         <v>258</v>
       </c>
-      <c r="O59" s="229"/>
-      <c r="P59" s="229"/>
-      <c r="Q59" s="229"/>
-      <c r="R59" s="77">
+      <c r="O59" s="324"/>
+      <c r="P59" s="324"/>
+      <c r="Q59" s="325"/>
+      <c r="R59" s="75">
         <f>SUM(S11:S14)+S17</f>
         <v>23026.025600000001</v>
       </c>
     </row>
     <row r="60" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L60" s="276" t="s">
+      <c r="L60" s="243" t="s">
         <v>452</v>
       </c>
-      <c r="M60" s="277"/>
-      <c r="N60" s="230" t="s">
+      <c r="M60" s="331"/>
+      <c r="N60" s="319" t="s">
         <v>259</v>
       </c>
-      <c r="O60" s="230"/>
-      <c r="P60" s="230"/>
-      <c r="Q60" s="230"/>
-      <c r="R60" s="78">
+      <c r="O60" s="320"/>
+      <c r="P60" s="320"/>
+      <c r="Q60" s="321"/>
+      <c r="R60" s="76">
         <f>R59/(M13*C7*C8)+J42</f>
         <v>29.749097733177855</v>
       </c>
@@ -8613,13 +8709,13 @@
       <c r="M61" s="40">
         <v>2.5</v>
       </c>
-      <c r="N61" s="230" t="s">
+      <c r="N61" s="319" t="s">
         <v>260</v>
       </c>
-      <c r="O61" s="230"/>
-      <c r="P61" s="230"/>
-      <c r="Q61" s="230"/>
-      <c r="R61" s="78">
+      <c r="O61" s="320"/>
+      <c r="P61" s="320"/>
+      <c r="Q61" s="321"/>
+      <c r="R61" s="76">
         <f>R60+Q16+Q15</f>
         <v>41.615769733177856</v>
       </c>
@@ -8631,23 +8727,23 @@
       <c r="M62" s="40">
         <v>0.5</v>
       </c>
-      <c r="N62" s="230"/>
-      <c r="O62" s="230"/>
-      <c r="P62" s="230"/>
-      <c r="Q62" s="230"/>
-      <c r="R62" s="79"/>
+      <c r="N62" s="319"/>
+      <c r="O62" s="320"/>
+      <c r="P62" s="320"/>
+      <c r="Q62" s="321"/>
+      <c r="R62" s="77"/>
     </row>
     <row r="63" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F63" s="11"/>
       <c r="L63" s="17"/>
       <c r="M63" s="18"/>
-      <c r="N63" s="230" t="s">
+      <c r="N63" s="319" t="s">
         <v>245</v>
       </c>
-      <c r="O63" s="230"/>
-      <c r="P63" s="230"/>
-      <c r="Q63" s="230"/>
-      <c r="R63" s="80">
+      <c r="O63" s="320"/>
+      <c r="P63" s="320"/>
+      <c r="Q63" s="321"/>
+      <c r="R63" s="78">
         <f>(J43+R61)*M15/60</f>
         <v>9.0352671777518655E-5</v>
       </c>
@@ -8655,13 +8751,13 @@
     <row r="64" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L64" s="17"/>
       <c r="M64" s="18"/>
-      <c r="N64" s="230" t="s">
+      <c r="N64" s="319" t="s">
         <v>443</v>
       </c>
-      <c r="O64" s="230"/>
-      <c r="P64" s="230"/>
-      <c r="Q64" s="230"/>
-      <c r="R64" s="81">
+      <c r="O64" s="320"/>
+      <c r="P64" s="320"/>
+      <c r="Q64" s="321"/>
+      <c r="R64" s="79">
         <f>(J43)*M15/60/R63</f>
         <v>0.23234570868306079</v>
       </c>
@@ -8669,22 +8765,22 @@
     <row r="65" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L65" s="17"/>
       <c r="M65" s="18"/>
-      <c r="N65" s="230"/>
-      <c r="O65" s="230"/>
-      <c r="P65" s="230"/>
-      <c r="Q65" s="230"/>
-      <c r="R65" s="80"/>
+      <c r="N65" s="319"/>
+      <c r="O65" s="320"/>
+      <c r="P65" s="320"/>
+      <c r="Q65" s="321"/>
+      <c r="R65" s="78"/>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L66" s="17"/>
       <c r="M66" s="18"/>
-      <c r="N66" s="230" t="s">
+      <c r="N66" s="319" t="s">
         <v>248</v>
       </c>
-      <c r="O66" s="230"/>
-      <c r="P66" s="230"/>
-      <c r="Q66" s="230"/>
-      <c r="R66" s="80">
+      <c r="O66" s="320"/>
+      <c r="P66" s="320"/>
+      <c r="Q66" s="321"/>
+      <c r="R66" s="78">
         <f>(J43+J42)*M$16/60</f>
         <v>2.0258969288926407E-5</v>
       </c>
@@ -8692,13 +8788,13 @@
     <row r="67" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L67" s="17"/>
       <c r="M67" s="18"/>
-      <c r="N67" s="230" t="s">
+      <c r="N67" s="319" t="s">
         <v>246</v>
       </c>
-      <c r="O67" s="230"/>
-      <c r="P67" s="230"/>
-      <c r="Q67" s="230"/>
-      <c r="R67" s="80">
+      <c r="O67" s="320"/>
+      <c r="P67" s="320"/>
+      <c r="Q67" s="321"/>
+      <c r="R67" s="78">
         <f>(J44+J42)*M$16/60</f>
         <v>2.9921667701624819E-5</v>
       </c>
@@ -8706,13 +8802,13 @@
     <row r="68" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L68" s="17"/>
       <c r="M68" s="18"/>
-      <c r="N68" s="230" t="s">
+      <c r="N68" s="319" t="s">
         <v>247</v>
       </c>
-      <c r="O68" s="230"/>
-      <c r="P68" s="230"/>
-      <c r="Q68" s="230"/>
-      <c r="R68" s="80">
+      <c r="O68" s="320"/>
+      <c r="P68" s="320"/>
+      <c r="Q68" s="321"/>
+      <c r="R68" s="78">
         <f>(J46+J42)*M$16/60</f>
         <v>4.5109167701624822E-5</v>
       </c>
@@ -8720,13 +8816,13 @@
     <row r="69" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L69" s="17"/>
       <c r="M69" s="18"/>
-      <c r="N69" s="230" t="s">
+      <c r="N69" s="319" t="s">
         <v>287</v>
       </c>
-      <c r="O69" s="230"/>
-      <c r="P69" s="230"/>
-      <c r="Q69" s="230"/>
-      <c r="R69" s="80">
+      <c r="O69" s="320"/>
+      <c r="P69" s="320"/>
+      <c r="Q69" s="321"/>
+      <c r="R69" s="78">
         <f>(J43+J42)*M$17/60</f>
         <v>1.6207175431141127E-5</v>
       </c>
@@ -8734,13 +8830,13 @@
     <row r="70" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L70" s="17"/>
       <c r="M70" s="18"/>
-      <c r="N70" s="230" t="s">
+      <c r="N70" s="319" t="s">
         <v>288</v>
       </c>
-      <c r="O70" s="230"/>
-      <c r="P70" s="230"/>
-      <c r="Q70" s="230"/>
-      <c r="R70" s="80">
+      <c r="O70" s="320"/>
+      <c r="P70" s="320"/>
+      <c r="Q70" s="321"/>
+      <c r="R70" s="78">
         <f>(J44+J42)*M$17/60</f>
         <v>2.3937334161299856E-5</v>
       </c>
@@ -8748,13 +8844,13 @@
     <row r="71" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L71" s="17"/>
       <c r="M71" s="18"/>
-      <c r="N71" s="230" t="s">
+      <c r="N71" s="319" t="s">
         <v>289</v>
       </c>
-      <c r="O71" s="230"/>
-      <c r="P71" s="230"/>
-      <c r="Q71" s="230"/>
-      <c r="R71" s="80">
+      <c r="O71" s="320"/>
+      <c r="P71" s="320"/>
+      <c r="Q71" s="321"/>
+      <c r="R71" s="78">
         <f>(J46+J42)*M$17/60</f>
         <v>3.6087334161299856E-5</v>
       </c>
@@ -8762,45 +8858,45 @@
     <row r="72" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L72" s="17"/>
       <c r="M72" s="18"/>
-      <c r="N72" s="232" t="s">
+      <c r="N72" s="327" t="s">
         <v>257</v>
       </c>
-      <c r="O72" s="232"/>
-      <c r="P72" s="232"/>
-      <c r="Q72" s="232"/>
-      <c r="R72" s="154">
+      <c r="O72" s="328"/>
+      <c r="P72" s="328"/>
+      <c r="Q72" s="329"/>
+      <c r="R72" s="152">
         <f>(J43+R60)*(M14+M18)/60</f>
         <v>14.114977022170395</v>
       </c>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L73" s="273" t="s">
+      <c r="L73" s="241" t="s">
         <v>377</v>
       </c>
-      <c r="M73" s="275"/>
-      <c r="N73" s="229" t="s">
+      <c r="M73" s="332"/>
+      <c r="N73" s="323" t="s">
         <v>258</v>
       </c>
-      <c r="O73" s="229"/>
-      <c r="P73" s="229"/>
-      <c r="Q73" s="229"/>
-      <c r="R73" s="77">
+      <c r="O73" s="324"/>
+      <c r="P73" s="324"/>
+      <c r="Q73" s="325"/>
+      <c r="R73" s="75">
         <f>S19+S20</f>
         <v>16315.562563129759</v>
       </c>
     </row>
     <row r="74" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L74" s="270" t="s">
+      <c r="L74" s="238" t="s">
         <v>453</v>
       </c>
-      <c r="M74" s="271"/>
-      <c r="N74" s="230" t="s">
+      <c r="M74" s="330"/>
+      <c r="N74" s="319" t="s">
         <v>259</v>
       </c>
-      <c r="O74" s="230"/>
-      <c r="P74" s="230"/>
-      <c r="Q74" s="230"/>
-      <c r="R74" s="78">
+      <c r="O74" s="320"/>
+      <c r="P74" s="320"/>
+      <c r="Q74" s="321"/>
+      <c r="R74" s="76">
         <f>R73/(M21*C7*C8)+J42</f>
         <v>26.318906328890129</v>
       </c>
@@ -8813,115 +8909,115 @@
         <f>'Laser cutter'!J14</f>
         <v>0.71739130434782605</v>
       </c>
-      <c r="N75" s="230" t="s">
+      <c r="N75" s="319" t="s">
         <v>260</v>
       </c>
-      <c r="O75" s="230"/>
-      <c r="P75" s="230"/>
-      <c r="Q75" s="230"/>
-      <c r="R75" s="78">
+      <c r="O75" s="320"/>
+      <c r="P75" s="320"/>
+      <c r="Q75" s="321"/>
+      <c r="R75" s="76">
         <f>R74+Q21+Q22</f>
         <v>31.86150632889013</v>
       </c>
     </row>
     <row r="76" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L76" s="270"/>
-      <c r="M76" s="271"/>
-      <c r="N76" s="230"/>
-      <c r="O76" s="230"/>
-      <c r="P76" s="230"/>
-      <c r="Q76" s="230"/>
-      <c r="R76" s="79"/>
+      <c r="L76" s="238"/>
+      <c r="M76" s="330"/>
+      <c r="N76" s="319"/>
+      <c r="O76" s="320"/>
+      <c r="P76" s="320"/>
+      <c r="Q76" s="321"/>
+      <c r="R76" s="77"/>
     </row>
     <row r="77" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L77" s="270"/>
-      <c r="M77" s="271"/>
-      <c r="N77" s="230" t="s">
+      <c r="L77" s="238"/>
+      <c r="M77" s="330"/>
+      <c r="N77" s="319" t="s">
         <v>378</v>
       </c>
-      <c r="O77" s="230"/>
-      <c r="P77" s="230"/>
-      <c r="Q77" s="230"/>
-      <c r="R77" s="80">
+      <c r="O77" s="320"/>
+      <c r="P77" s="320"/>
+      <c r="Q77" s="321"/>
+      <c r="R77" s="78">
         <f>(J43*0.4+R75)*M23/60</f>
         <v>2.8289877074371322E-4</v>
       </c>
     </row>
     <row r="78" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L78" s="270"/>
-      <c r="M78" s="271"/>
-      <c r="N78" s="230" t="s">
+      <c r="L78" s="238"/>
+      <c r="M78" s="330"/>
+      <c r="N78" s="319" t="s">
         <v>443</v>
       </c>
-      <c r="O78" s="230"/>
-      <c r="P78" s="230"/>
-      <c r="Q78" s="230"/>
-      <c r="R78" s="81">
+      <c r="O78" s="320"/>
+      <c r="P78" s="320"/>
+      <c r="Q78" s="321"/>
+      <c r="R78" s="79">
         <f>(J43)*M23/60/R77</f>
         <v>0.34135198007996848</v>
       </c>
     </row>
     <row r="79" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L79" s="270"/>
-      <c r="M79" s="271"/>
-      <c r="N79" s="230"/>
-      <c r="O79" s="230"/>
-      <c r="P79" s="230"/>
-      <c r="Q79" s="230"/>
-      <c r="R79" s="141"/>
+      <c r="L79" s="238"/>
+      <c r="M79" s="330"/>
+      <c r="N79" s="319"/>
+      <c r="O79" s="320"/>
+      <c r="P79" s="320"/>
+      <c r="Q79" s="321"/>
+      <c r="R79" s="139"/>
     </row>
     <row r="80" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L80" s="270"/>
-      <c r="M80" s="271"/>
-      <c r="N80" s="230" t="s">
+      <c r="L80" s="238"/>
+      <c r="M80" s="330"/>
+      <c r="N80" s="319" t="s">
         <v>475</v>
       </c>
-      <c r="O80" s="230"/>
-      <c r="P80" s="230"/>
-      <c r="Q80" s="230"/>
-      <c r="R80" s="153">
+      <c r="O80" s="320"/>
+      <c r="P80" s="320"/>
+      <c r="Q80" s="321"/>
+      <c r="R80" s="151">
         <f>(J43+J42)*M24/60</f>
         <v>0.60776907866779217</v>
       </c>
     </row>
     <row r="81" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L81" s="270"/>
-      <c r="M81" s="271"/>
-      <c r="N81" s="230" t="s">
+      <c r="L81" s="238"/>
+      <c r="M81" s="330"/>
+      <c r="N81" s="319" t="s">
         <v>476</v>
       </c>
-      <c r="O81" s="230"/>
-      <c r="P81" s="230"/>
-      <c r="Q81" s="230"/>
-      <c r="R81" s="153">
+      <c r="O81" s="320"/>
+      <c r="P81" s="320"/>
+      <c r="Q81" s="321"/>
+      <c r="R81" s="151">
         <f>(J44+J42)*M24/60</f>
         <v>0.89765003104874452</v>
       </c>
     </row>
     <row r="82" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L82" s="270"/>
-      <c r="M82" s="271"/>
-      <c r="N82" s="230" t="s">
+      <c r="L82" s="238"/>
+      <c r="M82" s="330"/>
+      <c r="N82" s="319" t="s">
         <v>477</v>
       </c>
-      <c r="O82" s="230"/>
-      <c r="P82" s="230"/>
-      <c r="Q82" s="230"/>
-      <c r="R82" s="153">
+      <c r="O82" s="320"/>
+      <c r="P82" s="320"/>
+      <c r="Q82" s="321"/>
+      <c r="R82" s="151">
         <f>(J43+J42)*M25/60</f>
         <v>0.40517938577852808</v>
       </c>
     </row>
     <row r="83" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L83" s="270"/>
-      <c r="M83" s="271"/>
-      <c r="N83" s="230" t="s">
+      <c r="L83" s="238"/>
+      <c r="M83" s="330"/>
+      <c r="N83" s="319" t="s">
         <v>478</v>
       </c>
-      <c r="O83" s="230"/>
-      <c r="P83" s="230"/>
-      <c r="Q83" s="230"/>
-      <c r="R83" s="153">
+      <c r="O83" s="320"/>
+      <c r="P83" s="320"/>
+      <c r="Q83" s="321"/>
+      <c r="R83" s="151">
         <f>(J44+J42)*M$25/60</f>
         <v>0.59843335403249631</v>
       </c>
@@ -8929,43 +9025,43 @@
     <row r="84" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L84" s="32"/>
       <c r="M84" s="33"/>
-      <c r="N84" s="231" t="s">
+      <c r="N84" s="327" t="s">
         <v>257</v>
       </c>
-      <c r="O84" s="231"/>
-      <c r="P84" s="231"/>
-      <c r="Q84" s="231"/>
-      <c r="R84" s="82">
+      <c r="O84" s="328"/>
+      <c r="P84" s="328"/>
+      <c r="Q84" s="329"/>
+      <c r="R84" s="80">
         <f>(J43+R74)*(M26+M22)/60</f>
         <v>8.4315269268150832</v>
       </c>
     </row>
     <row r="85" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L85" s="278" t="s">
+      <c r="L85" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="M85" s="279"/>
-      <c r="N85" s="233" t="s">
+      <c r="M85" s="322"/>
+      <c r="N85" s="323" t="s">
         <v>258</v>
       </c>
-      <c r="O85" s="233"/>
-      <c r="P85" s="233"/>
-      <c r="Q85" s="233"/>
-      <c r="R85" s="155">
+      <c r="O85" s="324"/>
+      <c r="P85" s="324"/>
+      <c r="Q85" s="325"/>
+      <c r="R85" s="153">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
       </c>
     </row>
     <row r="86" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L86" s="44"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="230" t="s">
+      <c r="L86" s="229"/>
+      <c r="M86" s="230"/>
+      <c r="N86" s="319" t="s">
         <v>259</v>
       </c>
-      <c r="O86" s="230"/>
-      <c r="P86" s="230"/>
-      <c r="Q86" s="230"/>
-      <c r="R86" s="97">
+      <c r="O86" s="320"/>
+      <c r="P86" s="320"/>
+      <c r="Q86" s="321"/>
+      <c r="R86" s="95">
         <f>R85/(M29*C7*C8)+J42</f>
         <v>13.419947043954794</v>
       </c>
@@ -8974,13 +9070,13 @@
     <row r="87" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L87" s="21"/>
       <c r="M87" s="22"/>
-      <c r="N87" s="230" t="s">
+      <c r="N87" s="319" t="s">
         <v>260</v>
       </c>
-      <c r="O87" s="230"/>
-      <c r="P87" s="230"/>
-      <c r="Q87" s="230"/>
-      <c r="R87" s="97">
+      <c r="O87" s="320"/>
+      <c r="P87" s="320"/>
+      <c r="Q87" s="321"/>
+      <c r="R87" s="95">
         <f>R86+Q33</f>
         <v>13.517822043954794</v>
       </c>
@@ -8988,22 +9084,22 @@
     <row r="88" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L88" s="21"/>
       <c r="M88" s="22"/>
-      <c r="N88" s="230"/>
-      <c r="O88" s="230"/>
-      <c r="P88" s="230"/>
-      <c r="Q88" s="230"/>
-      <c r="R88" s="141"/>
+      <c r="N88" s="319"/>
+      <c r="O88" s="320"/>
+      <c r="P88" s="320"/>
+      <c r="Q88" s="321"/>
+      <c r="R88" s="139"/>
     </row>
     <row r="89" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L89" s="21"/>
       <c r="M89" s="22"/>
-      <c r="N89" s="230" t="s">
+      <c r="N89" s="319" t="s">
         <v>425</v>
       </c>
-      <c r="O89" s="230"/>
-      <c r="P89" s="230"/>
-      <c r="Q89" s="230"/>
-      <c r="R89" s="61">
+      <c r="O89" s="320"/>
+      <c r="P89" s="320"/>
+      <c r="Q89" s="321"/>
+      <c r="R89" s="59">
         <f>Q34+Q36+(R87+J45)*M30/60</f>
         <v>117.38840627635136</v>
       </c>
@@ -9011,13 +9107,13 @@
     <row r="90" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L90" s="21"/>
       <c r="M90" s="22"/>
-      <c r="N90" s="230" t="s">
+      <c r="N90" s="319" t="s">
         <v>426</v>
       </c>
-      <c r="O90" s="230"/>
-      <c r="P90" s="230"/>
-      <c r="Q90" s="230"/>
-      <c r="R90" s="97">
+      <c r="O90" s="320"/>
+      <c r="P90" s="320"/>
+      <c r="Q90" s="321"/>
+      <c r="R90" s="95">
         <f>Q35+Q36+(R87+J45)*M30/60</f>
         <v>117.3533442173817</v>
       </c>
@@ -9025,38 +9121,38 @@
     <row r="91" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L91" s="23"/>
       <c r="M91" s="24"/>
-      <c r="N91" s="231"/>
-      <c r="O91" s="231"/>
-      <c r="P91" s="231"/>
-      <c r="Q91" s="231"/>
-      <c r="R91" s="73"/>
+      <c r="N91" s="327"/>
+      <c r="O91" s="328"/>
+      <c r="P91" s="328"/>
+      <c r="Q91" s="329"/>
+      <c r="R91" s="71"/>
     </row>
     <row r="92" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L92" s="251" t="s">
+      <c r="L92" s="236" t="s">
         <v>363</v>
       </c>
-      <c r="M92" s="280"/>
-      <c r="N92" s="229" t="s">
+      <c r="M92" s="326"/>
+      <c r="N92" s="323" t="s">
         <v>258</v>
       </c>
-      <c r="O92" s="229"/>
-      <c r="P92" s="229"/>
-      <c r="Q92" s="229"/>
-      <c r="R92" s="77">
+      <c r="O92" s="324"/>
+      <c r="P92" s="324"/>
+      <c r="Q92" s="325"/>
+      <c r="R92" s="75">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
       </c>
     </row>
     <row r="93" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L93" s="42"/>
-      <c r="M93" s="43"/>
-      <c r="N93" s="230" t="s">
+      <c r="L93" s="227"/>
+      <c r="M93" s="228"/>
+      <c r="N93" s="319" t="s">
         <v>259</v>
       </c>
-      <c r="O93" s="230"/>
-      <c r="P93" s="230"/>
-      <c r="Q93" s="230"/>
-      <c r="R93" s="78">
+      <c r="O93" s="320"/>
+      <c r="P93" s="320"/>
+      <c r="Q93" s="321"/>
+      <c r="R93" s="76">
         <f>R92/(M39*C7*C8)+J42</f>
         <v>18.514599441995351</v>
       </c>
@@ -9064,13 +9160,13 @@
     <row r="94" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L94" s="17"/>
       <c r="M94" s="18"/>
-      <c r="N94" s="230" t="s">
+      <c r="N94" s="319" t="s">
         <v>260</v>
       </c>
-      <c r="O94" s="230"/>
-      <c r="P94" s="230"/>
-      <c r="Q94" s="230"/>
-      <c r="R94" s="78">
+      <c r="O94" s="320"/>
+      <c r="P94" s="320"/>
+      <c r="Q94" s="321"/>
+      <c r="R94" s="76">
         <f>R93+Q42+Q41</f>
         <v>28.890439441995351</v>
       </c>
@@ -9078,53 +9174,199 @@
     <row r="95" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L95" s="17"/>
       <c r="M95" s="18"/>
-      <c r="N95" s="230"/>
-      <c r="O95" s="230"/>
-      <c r="P95" s="230"/>
-      <c r="Q95" s="230"/>
-      <c r="R95" s="79"/>
+      <c r="N95" s="319"/>
+      <c r="O95" s="320"/>
+      <c r="P95" s="320"/>
+      <c r="Q95" s="321"/>
+      <c r="R95" s="77"/>
     </row>
     <row r="96" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L96" s="17"/>
       <c r="M96" s="18"/>
-      <c r="N96" s="230" t="s">
+      <c r="N96" s="319" t="s">
         <v>245</v>
       </c>
-      <c r="O96" s="230"/>
-      <c r="P96" s="230"/>
-      <c r="Q96" s="230"/>
-      <c r="R96" s="80">
+      <c r="O96" s="320"/>
+      <c r="P96" s="320"/>
+      <c r="Q96" s="321"/>
+      <c r="R96" s="78">
         <f>(J43+R94)*M41/60</f>
         <v>2.0743136387664342E-4</v>
       </c>
     </row>
-    <row r="97" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="12:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L97" s="19"/>
       <c r="M97" s="20"/>
-      <c r="N97" s="231" t="s">
+      <c r="N97" s="327" t="s">
         <v>257</v>
       </c>
-      <c r="O97" s="231"/>
-      <c r="P97" s="231"/>
-      <c r="Q97" s="231"/>
-      <c r="R97" s="82">
+      <c r="O97" s="328"/>
+      <c r="P97" s="328"/>
+      <c r="Q97" s="329"/>
+      <c r="R97" s="80">
         <f>(J43+R93)*(M40+M42)/60</f>
         <v>7.7776081938321706</v>
       </c>
     </row>
+    <row r="98" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L98" s="236" t="s">
+        <v>565</v>
+      </c>
+      <c r="M98" s="326"/>
+      <c r="N98" s="323" t="s">
+        <v>258</v>
+      </c>
+      <c r="O98" s="324"/>
+      <c r="P98" s="324"/>
+      <c r="Q98" s="325"/>
+      <c r="R98" s="75">
+        <f>'Card oven'!B2/5</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L99" s="227" t="s">
+        <v>205</v>
+      </c>
+      <c r="M99" s="333">
+        <v>0.3</v>
+      </c>
+      <c r="N99" s="319" t="s">
+        <v>259</v>
+      </c>
+      <c r="O99" s="320"/>
+      <c r="P99" s="320"/>
+      <c r="Q99" s="321"/>
+      <c r="R99" s="76">
+        <f>R98/(M99*C7*C8)+J42</f>
+        <v>12.548263146711687</v>
+      </c>
+      <c r="S99" t="s">
+        <v>19</v>
+      </c>
+      <c r="U99" s="9">
+        <f>2*C12</f>
+        <v>0.15659999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L100" s="17"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="319" t="s">
+        <v>260</v>
+      </c>
+      <c r="O100" s="320"/>
+      <c r="P100" s="320"/>
+      <c r="Q100" s="321"/>
+      <c r="R100" s="76">
+        <f>R99+U99</f>
+        <v>12.704863146711686</v>
+      </c>
+    </row>
+    <row r="101" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L101" s="17"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="319"/>
+      <c r="O101" s="320"/>
+      <c r="P101" s="320"/>
+      <c r="Q101" s="321"/>
+      <c r="R101" s="77"/>
+    </row>
+    <row r="102" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L102" s="17"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="319" t="s">
+        <v>566</v>
+      </c>
+      <c r="O102" s="320"/>
+      <c r="P102" s="320"/>
+      <c r="Q102" s="321"/>
+      <c r="R102" s="151">
+        <f>R100*5/60</f>
+        <v>1.0587385955593072</v>
+      </c>
+    </row>
+    <row r="103" spans="12:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L103" s="19"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="327"/>
+      <c r="O103" s="328"/>
+      <c r="P103" s="328"/>
+      <c r="Q103" s="329"/>
+      <c r="R103" s="80"/>
+    </row>
     <row r="118" ht="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N87:Q87"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="N93:Q93"/>
+  <mergeCells count="96">
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N98:Q98"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="N101:Q101"/>
+    <mergeCell ref="N102:Q102"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="N89:Q89"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N56:Q56"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="L82:M82"/>
@@ -9140,70 +9382,18 @@
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="N91:Q91"/>
     <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="N89:Q89"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="N86:Q86"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="N95:Q95"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="N88:Q88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9737,7 +9927,7 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10072,7 +10262,9 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10082,35 +10274,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="176" t="s">
         <v>432</v>
       </c>
-      <c r="C1" s="168" t="s">
+      <c r="C1" s="166" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="163" t="s">
         <v>430</v>
       </c>
-      <c r="B2" s="169">
+      <c r="B2" s="167">
         <v>15000</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="164" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="161" t="s">
         <v>431</v>
       </c>
-      <c r="B3" s="152">
+      <c r="B3" s="150">
         <v>10000</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="162" t="s">
         <v>429</v>
       </c>
     </row>
@@ -10124,6 +10316,57 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB0195A-5936-42C1-AAC9-BE383BEB0660}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="231" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="232" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="163" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="167">
+        <v>1995</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="161"/>
+      <c r="B3" s="150">
+        <v>3315</v>
+      </c>
+      <c r="C3" s="162" t="s">
+        <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W69"/>
   <sheetViews>
@@ -11938,112 +12181,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="282" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="292" t="s">
+      <c r="C1" s="289" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="293"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="290"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="286"/>
-      <c r="B2" s="160" t="s">
+      <c r="A2" s="283"/>
+      <c r="B2" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="294" t="s">
+      <c r="C2" s="291" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="295"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="292"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="286"/>
-      <c r="B3" s="161" t="s">
+      <c r="A3" s="283"/>
+      <c r="B3" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="296" t="s">
+      <c r="C3" s="293" t="s">
         <v>527</v>
       </c>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="297"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="294"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="287"/>
-      <c r="B4" s="163" t="s">
+      <c r="A4" s="284"/>
+      <c r="B4" s="161" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="298" t="s">
+      <c r="C4" s="295" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="299"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="296"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="288" t="s">
+      <c r="A7" s="285" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="165" t="s">
         <v>489</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="C7" s="176" t="s">
         <v>490</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="176" t="s">
         <v>491</v>
       </c>
-      <c r="E7" s="178" t="s">
+      <c r="E7" s="176" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="178" t="s">
+      <c r="F7" s="176" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="178" t="s">
+      <c r="G7" s="176" t="s">
         <v>440</v>
       </c>
-      <c r="H7" s="168" t="s">
+      <c r="H7" s="166" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="289"/>
-      <c r="B8" s="165" t="s">
+      <c r="A8" s="286"/>
+      <c r="B8" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="169">
+      <c r="C8" s="167">
         <v>1627</v>
       </c>
-      <c r="D8" s="169">
+      <c r="D8" s="167">
         <v>21161</v>
       </c>
-      <c r="E8" s="169">
+      <c r="E8" s="167">
         <f>D8*Summary!$C$10</f>
         <v>20102.95</v>
       </c>
-      <c r="F8" s="170">
+      <c r="F8" s="168">
         <v>4.5</v>
       </c>
-      <c r="G8" s="171">
+      <c r="G8" s="169">
         <f>D8*(1-Summary!$C$10)*F8</f>
         <v>4761.225000000004</v>
       </c>
-      <c r="H8" s="155">
+      <c r="H8" s="153">
         <f>E8*Summary!$C$10/$C$22</f>
         <v>12.595833333333333</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="289"/>
-      <c r="B9" s="161" t="s">
+      <c r="A9" s="286"/>
+      <c r="B9" s="159" t="s">
         <v>208</v>
       </c>
       <c r="C9" s="27">
@@ -12063,14 +12306,14 @@
         <f>D9*(1-Summary!$C$10)*F9</f>
         <v>2032.0500000000018</v>
       </c>
-      <c r="H9" s="155">
+      <c r="H9" s="153">
         <f>E9*Summary!$C$10/$C$22</f>
         <v>24.191071428571426</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="289"/>
-      <c r="B10" s="161" t="s">
+      <c r="A10" s="286"/>
+      <c r="B10" s="159" t="s">
         <v>437</v>
       </c>
       <c r="C10" s="27">
@@ -12090,209 +12333,209 @@
         <f>D10*(1-Summary!$C$10)*F10</f>
         <v>2559.3000000000025</v>
       </c>
-      <c r="H10" s="155">
+      <c r="H10" s="153">
         <f>E10*Summary!$C$10/$C$22</f>
         <v>30.467857142857142</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
-      <c r="B11" s="163" t="s">
+      <c r="A11" s="287"/>
+      <c r="B11" s="161" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="152">
+      <c r="C11" s="150">
         <v>4187</v>
       </c>
-      <c r="D11" s="152">
+      <c r="D11" s="150">
         <v>71259</v>
       </c>
-      <c r="E11" s="179">
+      <c r="E11" s="177">
         <f>D11*Summary!$C$10</f>
         <v>67696.05</v>
       </c>
-      <c r="F11" s="180">
+      <c r="F11" s="178">
         <v>0.6</v>
       </c>
-      <c r="G11" s="181">
+      <c r="G11" s="179">
         <f>D11*(1-Summary!$C$10)*F11</f>
         <v>2137.7700000000018</v>
       </c>
-      <c r="H11" s="155">
+      <c r="H11" s="153">
         <f>E11*Summary!$C$10/$C$22</f>
         <v>42.416071428571428</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="167" t="s">
+      <c r="E12" s="165" t="s">
         <v>224</v>
       </c>
-      <c r="F12" s="175">
+      <c r="F12" s="173">
         <f>SUM(F11+F9+F8)</f>
         <v>6.1</v>
       </c>
-      <c r="G12" s="182">
+      <c r="G12" s="180">
         <f>G11+G9+G8+G10</f>
         <v>11490.34500000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="183"/>
+      <c r="A14" s="181"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="281" t="s">
+      <c r="A15" s="278" t="s">
         <v>493</v>
       </c>
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="168" t="s">
+      <c r="C15" s="166" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="291"/>
-      <c r="B16" s="186" t="s">
+      <c r="A16" s="288"/>
+      <c r="B16" s="184" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="187">
+      <c r="C16" s="185">
         <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="291"/>
-      <c r="B17" s="101" t="s">
+      <c r="A17" s="288"/>
+      <c r="B17" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="141">
+      <c r="C17" s="139">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="291"/>
-      <c r="B18" s="101" t="s">
+      <c r="A18" s="288"/>
+      <c r="B18" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="141">
+      <c r="C18" s="139">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="291"/>
-      <c r="B19" s="101" t="s">
+      <c r="A19" s="288"/>
+      <c r="B19" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="141">
+      <c r="C19" s="139">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="291"/>
-      <c r="B20" s="101" t="s">
+      <c r="A20" s="288"/>
+      <c r="B20" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="141">
+      <c r="C20" s="139">
         <f>C16-C17-C18-C19</f>
         <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="291"/>
-      <c r="B21" s="101" t="s">
+      <c r="A21" s="288"/>
+      <c r="B21" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="63">
         <f>C20/5</f>
         <v>45.6</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="282"/>
-      <c r="B22" s="102" t="s">
+      <c r="A22" s="279"/>
+      <c r="B22" s="100" t="s">
         <v>439</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="71">
         <f>Summary!$C$10*Summary!$C$8*Summary!$C$7</f>
         <v>1516.2</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="281" t="s">
+      <c r="A26" s="278" t="s">
         <v>495</v>
       </c>
-      <c r="B26" s="172"/>
-      <c r="C26" s="178" t="s">
+      <c r="B26" s="170"/>
+      <c r="C26" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="178" t="s">
+      <c r="D26" s="176" t="s">
         <v>226</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="176" t="s">
         <v>364</v>
       </c>
-      <c r="F26" s="178" t="s">
+      <c r="F26" s="176" t="s">
         <v>365</v>
       </c>
-      <c r="G26" s="178" t="s">
+      <c r="G26" s="176" t="s">
         <v>363</v>
       </c>
-      <c r="H26" s="178" t="s">
+      <c r="H26" s="176" t="s">
         <v>227</v>
       </c>
-      <c r="I26" s="178" t="s">
+      <c r="I26" s="176" t="s">
         <v>228</v>
       </c>
-      <c r="J26" s="178" t="s">
+      <c r="J26" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="195" t="s">
+      <c r="K26" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="196" t="s">
+      <c r="L26" s="194" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="291"/>
-      <c r="B27" s="197" t="s">
+      <c r="A27" s="288"/>
+      <c r="B27" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="186">
+      <c r="C27" s="184">
         <v>0.85</v>
       </c>
-      <c r="D27" s="170">
+      <c r="D27" s="168">
         <v>0.85</v>
       </c>
-      <c r="E27" s="170">
+      <c r="E27" s="168">
         <v>0.3</v>
       </c>
-      <c r="F27" s="170">
+      <c r="F27" s="168">
         <v>0.85</v>
       </c>
-      <c r="G27" s="170">
+      <c r="G27" s="168">
         <v>0.47</v>
       </c>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170">
+      <c r="H27" s="168"/>
+      <c r="I27" s="168">
         <v>0.65</v>
       </c>
-      <c r="J27" s="170">
+      <c r="J27" s="168">
         <v>0.41</v>
       </c>
-      <c r="K27" s="193">
+      <c r="K27" s="191">
         <v>0.12</v>
       </c>
-      <c r="L27" s="194">
+      <c r="L27" s="192">
         <f>SUM(C27:K27)</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="291"/>
-      <c r="B28" s="198" t="s">
+      <c r="A28" s="288"/>
+      <c r="B28" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="101"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
@@ -12304,18 +12547,18 @@
       <c r="J28" s="26">
         <v>0.5</v>
       </c>
-      <c r="K28" s="189"/>
-      <c r="L28" s="191">
+      <c r="K28" s="187"/>
+      <c r="L28" s="189">
         <f t="shared" ref="L28:L31" si="0">SUM(C28:K28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="291"/>
-      <c r="B29" s="198" t="s">
+      <c r="A29" s="288"/>
+      <c r="B29" s="196" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="101"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -12327,20 +12570,20 @@
       <c r="J29" s="26">
         <v>0.05</v>
       </c>
-      <c r="K29" s="189">
+      <c r="K29" s="187">
         <v>0.1</v>
       </c>
-      <c r="L29" s="191">
+      <c r="L29" s="189">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="291"/>
-      <c r="B30" s="198" t="s">
+      <c r="A30" s="288"/>
+      <c r="B30" s="196" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="101"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
@@ -12352,20 +12595,20 @@
       <c r="J30" s="26">
         <v>0.15</v>
       </c>
-      <c r="K30" s="189">
+      <c r="K30" s="187">
         <v>0.1</v>
       </c>
-      <c r="L30" s="191">
+      <c r="L30" s="189">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="291"/>
-      <c r="B31" s="198" t="s">
+      <c r="A31" s="288"/>
+      <c r="B31" s="196" t="s">
         <v>496</v>
       </c>
-      <c r="C31" s="101">
+      <c r="C31" s="99">
         <f t="shared" ref="C31:K31" si="1">$C$22*SUM(C27:C30)</f>
         <v>1288.77</v>
       </c>
@@ -12397,21 +12640,21 @@
         <f t="shared" si="1"/>
         <v>1682.982</v>
       </c>
-      <c r="K31" s="189">
+      <c r="K31" s="187">
         <f t="shared" si="1"/>
         <v>485.18400000000003</v>
       </c>
-      <c r="L31" s="191">
+      <c r="L31" s="189">
         <f t="shared" si="0"/>
         <v>10765.019999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="291"/>
-      <c r="B32" s="198" t="s">
+      <c r="A32" s="288"/>
+      <c r="B32" s="196" t="s">
         <v>497</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="99">
         <f>Summary!$C$9*Summary!$C$8*Summary!$C$7</f>
         <v>1276.8000000000002</v>
       </c>
@@ -12443,70 +12686,70 @@
         <f>2*0.4*C32+E32*0.6</f>
         <v>1691.7600000000002</v>
       </c>
-      <c r="K32" s="189">
+      <c r="K32" s="187">
         <f>0.06*Summary!C7*Summary!C8*5</f>
         <v>478.8</v>
       </c>
-      <c r="L32" s="191">
+      <c r="L32" s="189">
         <f>SUM(C32:K32)-E32+E33</f>
         <v>10709.159999999998</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="282"/>
-      <c r="B33" s="199"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="62" t="s">
+      <c r="A33" s="279"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="60" t="s">
         <v>479</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="60">
         <f>E32*0.4</f>
         <v>446.88000000000005</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="192"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="190"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="281" t="s">
+      <c r="A36" s="278" t="s">
         <v>494</v>
       </c>
-      <c r="B36" s="250" t="s">
+      <c r="B36" s="270" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="283">
+      <c r="C36" s="280">
         <f>SUMPRODUCT(E8:E11*K27:K30)</f>
         <v>14044.629000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="282"/>
-      <c r="B37" s="248"/>
-      <c r="C37" s="284"/>
+      <c r="A37" s="279"/>
+      <c r="B37" s="254"/>
+      <c r="C37" s="281"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="188"/>
+      <c r="A38" s="186"/>
       <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="188"/>
+      <c r="A39" s="186"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="188"/>
+      <c r="A40" s="186"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="188"/>
+      <c r="A41" s="186"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="188"/>
+      <c r="A42" s="186"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="188"/>
+      <c r="A43" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12550,114 +12793,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="302"/>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="303" t="s">
         <v>501</v>
       </c>
-      <c r="B2" s="310" t="s">
+      <c r="B2" s="307" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="311"/>
-      <c r="D2" s="312"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="309"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="307"/>
-      <c r="B3" s="313" t="s">
+      <c r="A3" s="304"/>
+      <c r="B3" s="310" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="314"/>
-      <c r="D3" s="315"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="312"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="307"/>
-      <c r="B4" s="313" t="s">
+      <c r="A4" s="304"/>
+      <c r="B4" s="310" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="314"/>
-      <c r="D4" s="315"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="312"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="198" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="254">
+      <c r="B5" s="244">
         <v>38.64</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="308"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="305"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="198" t="s">
         <v>502</v>
       </c>
-      <c r="B6" s="254">
+      <c r="B6" s="244">
         <f>(24*2 + 7.5)*0.8+16+14</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="308"/>
+      <c r="C6" s="245"/>
+      <c r="D6" s="305"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="200" t="s">
+      <c r="A7" s="198" t="s">
         <v>503</v>
       </c>
-      <c r="B7" s="254">
+      <c r="B7" s="244">
         <f>B6*B5</f>
         <v>2874.8160000000003</v>
       </c>
-      <c r="C7" s="255"/>
-      <c r="D7" s="308"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="305"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="201" t="s">
+      <c r="A8" s="199" t="s">
         <v>505</v>
       </c>
-      <c r="B8" s="248">
+      <c r="B8" s="254">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="C8" s="269"/>
-      <c r="D8" s="309"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="306"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="303" t="s">
+      <c r="A10" s="300" t="s">
         <v>500</v>
       </c>
-      <c r="B10" s="304"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="305"/>
+      <c r="B10" s="301"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="302"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
-      <c r="B11" s="170" t="s">
+      <c r="A11" s="163"/>
+      <c r="B11" s="168" t="s">
         <v>498</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="168" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="185" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="200" t="s">
         <v>506</v>
       </c>
-      <c r="B12" s="152">
+      <c r="B12" s="150">
         <v>3.07</v>
       </c>
-      <c r="C12" s="152">
+      <c r="C12" s="150">
         <f>B12*(1-Summary!C15)</f>
         <v>2.456</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="162" t="s">
         <v>379</v>
       </c>
     </row>
@@ -12703,375 +12946,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="176" t="s">
         <v>508</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="176" t="s">
         <v>507</v>
       </c>
-      <c r="E1" s="178" t="s">
+      <c r="E1" s="176" t="s">
         <v>509</v>
       </c>
-      <c r="F1" s="168" t="s">
+      <c r="F1" s="166" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="208" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="206">
+      <c r="C2" s="168"/>
+      <c r="D2" s="204">
         <v>153</v>
       </c>
-      <c r="E2" s="207">
+      <c r="E2" s="205">
         <f>D2*(1-Summary!$C$15)</f>
         <v>122.4</v>
       </c>
-      <c r="F2" s="213" t="s">
+      <c r="F2" s="211" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="101">
+      <c r="B3" s="99">
         <v>0.01</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="203">
+      <c r="D3" s="201">
         <v>137</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="81">
         <f>D3*(1-Summary!$C$15)</f>
         <v>109.60000000000001</v>
       </c>
-      <c r="F3" s="215" t="s">
+      <c r="F3" s="213" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="101">
+      <c r="B4" s="99">
         <v>0.01</v>
       </c>
       <c r="C4" s="26"/>
-      <c r="D4" s="203">
+      <c r="D4" s="201">
         <v>63</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="81">
         <f>D4*(1-Summary!$C$15)</f>
         <v>50.400000000000006</v>
       </c>
-      <c r="F4" s="215" t="s">
+      <c r="F4" s="213" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="211"/>
-      <c r="B5" s="101"/>
+      <c r="A5" s="209"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="212"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="209" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="203">
+      <c r="D6" s="201">
         <v>203</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="81">
         <f>D6*(1-Summary!$C$15)</f>
         <v>162.4</v>
       </c>
-      <c r="F6" s="215" t="s">
+      <c r="F6" s="213" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="203">
+      <c r="D7" s="201">
         <v>96</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="81">
         <f>D7*(1-Summary!$C$15)</f>
         <v>76.800000000000011</v>
       </c>
-      <c r="F7" s="215" t="s">
+      <c r="F7" s="213" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="211"/>
-      <c r="B8" s="101"/>
+      <c r="A8" s="209"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="214"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="212"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="211" t="s">
+      <c r="A9" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="203">
+      <c r="D9" s="201">
         <v>282</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="81">
         <f>D9*(1-Summary!$C$15)</f>
         <v>225.60000000000002</v>
       </c>
-      <c r="F9" s="215" t="s">
+      <c r="F9" s="213" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="211" t="s">
+      <c r="A10" s="209" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="101"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="203">
+      <c r="D10" s="201">
         <v>471</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="81">
         <f>D10*(1-Summary!$C$15)</f>
         <v>376.8</v>
       </c>
-      <c r="F10" s="215" t="s">
+      <c r="F10" s="213" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="211" t="s">
+      <c r="A11" s="209" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="101"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="203">
+      <c r="D11" s="201">
         <v>3630</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="81">
         <f>D11*(1-Summary!$C$15)</f>
         <v>2904</v>
       </c>
-      <c r="F11" s="215" t="s">
+      <c r="F11" s="213" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="211"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="209"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="214"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="212"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="316" t="s">
+      <c r="A13" s="313" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="99" t="s">
         <v>120</v>
       </c>
       <c r="C13" s="26"/>
-      <c r="D13" s="203">
+      <c r="D13" s="201">
         <v>1483</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="81">
         <f>D13*(1-Summary!$C$15)</f>
         <v>1186.4000000000001</v>
       </c>
-      <c r="F13" s="215" t="s">
+      <c r="F13" s="213" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="317"/>
-      <c r="B14" s="101" t="s">
+      <c r="A14" s="314"/>
+      <c r="B14" s="99" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="26"/>
-      <c r="D14" s="203">
+      <c r="D14" s="201">
         <v>1233</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="81">
         <f>D14*(1-Summary!$C$15)</f>
         <v>986.40000000000009</v>
       </c>
-      <c r="F14" s="215" t="s">
+      <c r="F14" s="213" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="317"/>
-      <c r="B15" s="101" t="s">
+      <c r="A15" s="314"/>
+      <c r="B15" s="99" t="s">
         <v>124</v>
       </c>
       <c r="C15" s="26"/>
-      <c r="D15" s="203">
+      <c r="D15" s="201">
         <v>151</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="81">
         <f>D15*(1-Summary!$C$15)</f>
         <v>120.80000000000001</v>
       </c>
-      <c r="F15" s="215" t="s">
+      <c r="F15" s="213" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="318"/>
-      <c r="B16" s="101" t="s">
+      <c r="A16" s="315"/>
+      <c r="B16" s="99" t="s">
         <v>126</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="203">
+      <c r="D16" s="201">
         <v>168</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="81">
         <f>D16*(1-Summary!$C$15)</f>
         <v>134.4</v>
       </c>
-      <c r="F16" s="215" t="s">
+      <c r="F16" s="213" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="316" t="s">
+      <c r="A17" s="313" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="99" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="203">
+      <c r="D17" s="201">
         <v>1664</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="81">
         <f>D17*(1-Summary!$C$15)</f>
         <v>1331.2</v>
       </c>
-      <c r="F17" s="215" t="s">
+      <c r="F17" s="213" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="318"/>
-      <c r="B18" s="205" t="s">
+      <c r="A18" s="315"/>
+      <c r="B18" s="203" t="s">
         <v>176</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="203">
+      <c r="D18" s="201">
         <v>720</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="81">
         <f>D18*(1-Summary!$C$15)</f>
         <v>576</v>
       </c>
-      <c r="F18" s="215" t="s">
+      <c r="F18" s="213" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="211"/>
-      <c r="B19" s="205"/>
+      <c r="A19" s="209"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="214"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="212"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="211" t="s">
+      <c r="A20" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="204">
+      <c r="C20" s="202">
         <v>340</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="53">
         <f>Metrology!C20/(Summary!C14)</f>
         <v>279.20803462179629</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="81">
         <f>D20*(1-Summary!$C$15)</f>
         <v>223.36642769743705</v>
       </c>
-      <c r="F20" s="215" t="s">
+      <c r="F20" s="213" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="211"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="209"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="214"/>
+      <c r="F21" s="212"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="211" t="s">
+      <c r="A22" s="209" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="99" t="s">
         <v>213</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="203">
+      <c r="D22" s="201">
         <v>29667</v>
       </c>
-      <c r="E22" s="83">
+      <c r="E22" s="81">
         <f>D22*(1-Summary!$C$15)</f>
         <v>23733.600000000002</v>
       </c>
-      <c r="F22" s="215" t="s">
+      <c r="F22" s="213" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="211"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="209"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="214"/>
+      <c r="F23" s="212"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="212" t="s">
+      <c r="A24" s="210" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="152">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="150">
         <v>4625</v>
       </c>
-      <c r="F24" s="216" t="s">
+      <c r="F24" s="214" t="s">
         <v>532</v>
       </c>
     </row>
@@ -13124,97 +13367,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="165" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="174" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="176" t="s">
+      <c r="D1" s="174" t="s">
         <v>498</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="E1" s="174" t="s">
         <v>499</v>
       </c>
-      <c r="F1" s="177" t="s">
+      <c r="F1" s="175" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="217"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="319" t="s">
+      <c r="A3" s="316" t="s">
         <v>511</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="144">
+      <c r="D3" s="142">
         <v>498</v>
       </c>
-      <c r="E3" s="144">
+      <c r="E3" s="142">
         <f>D3*(1-Summary!$C$15)</f>
         <v>398.40000000000003</v>
       </c>
-      <c r="F3" s="184" t="s">
+      <c r="F3" s="182" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="320"/>
-      <c r="B4" s="102" t="s">
+      <c r="A4" s="317"/>
+      <c r="B4" s="100" t="s">
         <v>535</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152">
+      <c r="D4" s="150"/>
+      <c r="E4" s="150">
         <v>10.5</v>
       </c>
-      <c r="F4" s="164" t="s">
+      <c r="F4" s="162" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="185"/>
+      <c r="A5" s="183"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="319" t="s">
+      <c r="A6" s="316" t="s">
         <v>512</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="144">
+      <c r="C6" s="56"/>
+      <c r="D6" s="142">
         <v>269</v>
       </c>
-      <c r="E6" s="144">
+      <c r="E6" s="142">
         <f>D6*(1-Summary!$C$15)</f>
         <v>215.20000000000002</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="182" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="321"/>
-      <c r="B7" s="101" t="s">
+      <c r="A7" s="318"/>
+      <c r="B7" s="99" t="s">
         <v>536</v>
       </c>
       <c r="C7" s="26"/>
@@ -13225,13 +13468,13 @@
         <f>D7*(1-Summary!$C$15)</f>
         <v>46.400000000000006</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="160" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="321"/>
-      <c r="B8" s="101" t="s">
+      <c r="A8" s="318"/>
+      <c r="B8" s="99" t="s">
         <v>151</v>
       </c>
       <c r="C8" s="26"/>
@@ -13243,13 +13486,13 @@
         <f>D8*(1-Summary!$C$15)</f>
         <v>88.800000000000011</v>
       </c>
-      <c r="F8" s="162" t="s">
+      <c r="F8" s="160" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="321"/>
-      <c r="B9" s="101" t="s">
+      <c r="A9" s="318"/>
+      <c r="B9" s="99" t="s">
         <v>167</v>
       </c>
       <c r="C9" s="26"/>
@@ -13257,51 +13500,51 @@
       <c r="E9" s="27">
         <v>21.95</v>
       </c>
-      <c r="F9" s="162" t="s">
+      <c r="F9" s="160" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="320"/>
-      <c r="B10" s="102" t="s">
+      <c r="A10" s="317"/>
+      <c r="B10" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152">
+      <c r="C10" s="60"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150">
         <v>35.89</v>
       </c>
-      <c r="F10" s="164" t="s">
+      <c r="F10" s="162" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="185"/>
+      <c r="A11" s="183"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="319" t="s">
+      <c r="A12" s="316" t="s">
         <v>513</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="144">
+      <c r="C12" s="56"/>
+      <c r="D12" s="142">
         <v>1939</v>
       </c>
-      <c r="E12" s="144">
+      <c r="E12" s="142">
         <f>D12*(1-Summary!$C$15)</f>
         <v>1551.2</v>
       </c>
-      <c r="F12" s="184" t="s">
+      <c r="F12" s="182" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="321"/>
-      <c r="B13" s="101" t="s">
+      <c r="A13" s="318"/>
+      <c r="B13" s="99" t="s">
         <v>149</v>
       </c>
       <c r="C13" s="26"/>
@@ -13312,54 +13555,54 @@
         <f>D13*(1-Summary!$C$15)</f>
         <v>1527.2</v>
       </c>
-      <c r="F13" s="162" t="s">
+      <c r="F13" s="160" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="320"/>
-      <c r="B14" s="102" t="s">
+      <c r="A14" s="317"/>
+      <c r="B14" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="152">
+      <c r="C14" s="60"/>
+      <c r="D14" s="150">
         <v>669</v>
       </c>
-      <c r="E14" s="152">
+      <c r="E14" s="150">
         <f>D14*(1-Summary!$C$15)</f>
         <v>535.20000000000005</v>
       </c>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="162" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="185"/>
+      <c r="A15" s="183"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="319" t="s">
+      <c r="A16" s="316" t="s">
         <v>514</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="144">
+      <c r="C16" s="56"/>
+      <c r="D16" s="142">
         <v>192</v>
       </c>
-      <c r="E16" s="144">
+      <c r="E16" s="142">
         <f>D16*(1-Summary!$C$15)</f>
         <v>153.60000000000002</v>
       </c>
-      <c r="F16" s="184" t="s">
+      <c r="F16" s="182" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="321"/>
-      <c r="B17" s="101" t="s">
+      <c r="A17" s="318"/>
+      <c r="B17" s="99" t="s">
         <v>153</v>
       </c>
       <c r="C17" s="26"/>
@@ -13370,13 +13613,13 @@
         <f>D17*(1-Summary!$C$15)</f>
         <v>31.200000000000003</v>
       </c>
-      <c r="F17" s="162" t="s">
+      <c r="F17" s="160" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="321"/>
-      <c r="B18" s="101" t="s">
+      <c r="A18" s="318"/>
+      <c r="B18" s="99" t="s">
         <v>154</v>
       </c>
       <c r="C18" s="26"/>
@@ -13387,78 +13630,78 @@
         <f>D18*(1-Summary!$C$15)</f>
         <v>23.200000000000003</v>
       </c>
-      <c r="F18" s="162" t="s">
+      <c r="F18" s="160" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="320"/>
-      <c r="B19" s="102" t="s">
+      <c r="A19" s="317"/>
+      <c r="B19" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="152">
+      <c r="C19" s="60"/>
+      <c r="D19" s="150">
         <v>239</v>
       </c>
-      <c r="E19" s="152">
+      <c r="E19" s="150">
         <f>D19*(1-Summary!$C$15)</f>
         <v>191.20000000000002</v>
       </c>
-      <c r="F19" s="164" t="s">
+      <c r="F19" s="162" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="185"/>
+      <c r="A20" s="183"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="196" t="s">
+      <c r="A21" s="194" t="s">
         <v>515</v>
       </c>
-      <c r="B21" s="208" t="s">
+      <c r="B21" s="206" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="171" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="219">
+      <c r="D21" s="171"/>
+      <c r="E21" s="217">
         <v>63</v>
       </c>
-      <c r="F21" s="174" t="s">
+      <c r="F21" s="172" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="185"/>
+      <c r="A22" s="183"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="319" t="s">
+      <c r="A23" s="316" t="s">
         <v>516</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="144">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="142">
         <v>99.17</v>
       </c>
-      <c r="F23" s="184" t="s">
+      <c r="F23" s="182" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="320"/>
-      <c r="B24" s="102" t="s">
+      <c r="A24" s="317"/>
+      <c r="B24" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="152">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="150">
         <v>285</v>
       </c>
-      <c r="F24" s="164" t="s">
+      <c r="F24" s="162" t="s">
         <v>255</v>
       </c>
     </row>
@@ -13509,39 +13752,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="176" t="s">
         <v>517</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="176" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="168" t="s">
+      <c r="E1" s="166" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="163" t="s">
         <v>547</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>549</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="169">
+      <c r="C2" s="168"/>
+      <c r="D2" s="167">
         <v>302</v>
       </c>
-      <c r="E2" s="166" t="s">
+      <c r="E2" s="164" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="159" t="s">
         <v>263</v>
       </c>
       <c r="B3" s="26" t="s">
@@ -13551,12 +13794,12 @@
       <c r="D3" s="27">
         <v>342</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="160" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="159" t="s">
         <v>525</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -13566,12 +13809,12 @@
       <c r="D4" s="27">
         <v>359</v>
       </c>
-      <c r="E4" s="162" t="s">
+      <c r="E4" s="160" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="159" t="s">
         <v>526</v>
       </c>
       <c r="B5" s="26" t="s">
@@ -13581,12 +13824,12 @@
       <c r="D5" s="27">
         <v>542</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="160" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="159" t="s">
         <v>264</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -13596,12 +13839,12 @@
       <c r="D6" s="27">
         <v>1085</v>
       </c>
-      <c r="E6" s="162" t="s">
+      <c r="E6" s="160" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="159" t="s">
         <v>265</v>
       </c>
       <c r="B7" s="26" t="s">
@@ -13611,12 +13854,12 @@
       <c r="D7" s="27">
         <v>1874</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="160" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="159" t="s">
         <v>266</v>
       </c>
       <c r="B8" s="26"/>
@@ -13624,22 +13867,22 @@
       <c r="D8" s="27">
         <v>347</v>
       </c>
-      <c r="E8" s="162" t="s">
+      <c r="E8" s="160" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="226" t="s">
+      <c r="A9" s="224" t="s">
         <v>558</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="227">
+      <c r="C9" s="60"/>
+      <c r="D9" s="225">
         <v>576</v>
       </c>
-      <c r="E9" s="228" t="s">
+      <c r="E9" s="226" t="s">
         <v>559</v>
       </c>
     </row>
@@ -13681,61 +13924,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="176" t="s">
         <v>508</v>
       </c>
-      <c r="E1" s="178" t="s">
+      <c r="E1" s="176" t="s">
         <v>519</v>
       </c>
-      <c r="F1" s="178" t="s">
+      <c r="F1" s="176" t="s">
         <v>507</v>
       </c>
-      <c r="G1" s="178" t="s">
+      <c r="G1" s="176" t="s">
         <v>509</v>
       </c>
-      <c r="H1" s="168" t="s">
+      <c r="H1" s="166" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="319" t="s">
+      <c r="A3" s="316" t="s">
         <v>520</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="220">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="218">
         <v>1295</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="144">
+      <c r="F3" s="56"/>
+      <c r="G3" s="142">
         <f>E3/Summary!C14</f>
         <v>1063.4541318683123</v>
       </c>
-      <c r="H3" s="184" t="s">
+      <c r="H3" s="182" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="321"/>
-      <c r="B4" s="101" t="s">
+      <c r="A4" s="318"/>
+      <c r="B4" s="99" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="204">
+      <c r="E4" s="202">
         <v>13995</v>
       </c>
       <c r="F4" s="26"/>
@@ -13743,18 +13986,18 @@
         <f>E4/Summary!C14</f>
         <v>11492.695425094233</v>
       </c>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="160" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="321"/>
-      <c r="B5" s="101" t="s">
+      <c r="A5" s="318"/>
+      <c r="B5" s="99" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
-      <c r="E5" s="204">
+      <c r="E5" s="202">
         <v>395</v>
       </c>
       <c r="F5" s="26"/>
@@ -13762,18 +14005,18 @@
         <f>E5/Summary!C14</f>
         <v>324.37404022238098</v>
       </c>
-      <c r="H5" s="162" t="s">
+      <c r="H5" s="160" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="321"/>
-      <c r="B6" s="101" t="s">
+      <c r="A6" s="318"/>
+      <c r="B6" s="99" t="s">
         <v>329</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="204">
+      <c r="E6" s="202">
         <v>3795</v>
       </c>
       <c r="F6" s="26"/>
@@ -13781,152 +14024,152 @@
         <f>E6/Summary!C14</f>
         <v>3116.454386440344</v>
       </c>
-      <c r="H6" s="162" t="s">
+      <c r="H6" s="160" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="321"/>
-      <c r="B7" s="101" t="s">
+      <c r="A7" s="318"/>
+      <c r="B7" s="99" t="s">
         <v>358</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
-      <c r="E7" s="204"/>
+      <c r="E7" s="202"/>
       <c r="F7" s="26"/>
       <c r="G7" s="27">
         <v>119</v>
       </c>
-      <c r="H7" s="162" t="s">
+      <c r="H7" s="160" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="321"/>
-      <c r="B8" s="101" t="s">
+      <c r="A8" s="318"/>
+      <c r="B8" s="99" t="s">
         <v>356</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="204"/>
+      <c r="E8" s="202"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27">
         <v>379</v>
       </c>
-      <c r="H8" s="162" t="s">
+      <c r="H8" s="160" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="320"/>
-      <c r="B9" s="102" t="s">
+      <c r="A9" s="317"/>
+      <c r="B9" s="100" t="s">
         <v>361</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="152">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="150">
         <v>425</v>
       </c>
-      <c r="H9" s="164" t="s">
+      <c r="H9" s="162" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
+      <c r="A10" s="183"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="319" t="s">
+      <c r="A11" s="316" t="s">
         <v>521</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="222"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="144">
+      <c r="D11" s="220"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="142">
         <v>1079.0999999999999</v>
       </c>
-      <c r="H11" s="184" t="s">
+      <c r="H11" s="182" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="320"/>
-      <c r="B12" s="102" t="s">
+      <c r="A12" s="317"/>
+      <c r="B12" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="223"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="152">
+      <c r="D12" s="221"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="150">
         <v>2041.73</v>
       </c>
-      <c r="G12" s="152">
+      <c r="G12" s="150">
         <f>F12*(1-Summary!C15)</f>
         <v>1633.384</v>
       </c>
-      <c r="H12" s="164" t="s">
+      <c r="H12" s="162" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185"/>
+      <c r="A13" s="183"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="196" t="s">
+      <c r="A14" s="194" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="208" t="s">
+      <c r="B14" s="206" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="171" t="s">
         <v>322</v>
       </c>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="219">
+      <c r="D14" s="171"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="217">
         <v>12999</v>
       </c>
-      <c r="H14" s="224" t="s">
+      <c r="H14" s="222" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="185"/>
+      <c r="A15" s="183"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="319" t="s">
+      <c r="A16" s="316" t="s">
         <v>522</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="98" t="s">
         <v>333</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="56">
         <v>5</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="144">
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="142">
         <v>69.400000000000006</v>
       </c>
-      <c r="H16" s="184" t="s">
+      <c r="H16" s="182" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="321"/>
-      <c r="B17" s="101" t="s">
+      <c r="A17" s="318"/>
+      <c r="B17" s="99" t="s">
         <v>335</v>
       </c>
       <c r="C17" s="26">
@@ -13938,13 +14181,13 @@
       <c r="G17" s="27">
         <v>1433.25</v>
       </c>
-      <c r="H17" s="162" t="s">
+      <c r="H17" s="160" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="321"/>
-      <c r="B18" s="101" t="s">
+      <c r="A18" s="318"/>
+      <c r="B18" s="99" t="s">
         <v>337</v>
       </c>
       <c r="C18" s="26">
@@ -13956,13 +14199,13 @@
       <c r="G18" s="27">
         <v>1866.02</v>
       </c>
-      <c r="H18" s="162" t="s">
+      <c r="H18" s="160" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="321"/>
-      <c r="B19" s="101" t="s">
+      <c r="A19" s="318"/>
+      <c r="B19" s="99" t="s">
         <v>339</v>
       </c>
       <c r="C19" s="26">
@@ -13974,13 +14217,13 @@
       <c r="G19" s="27">
         <v>859.65</v>
       </c>
-      <c r="H19" s="162" t="s">
+      <c r="H19" s="160" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="321"/>
-      <c r="B20" s="101" t="s">
+      <c r="A20" s="318"/>
+      <c r="B20" s="99" t="s">
         <v>341</v>
       </c>
       <c r="C20" s="26">
@@ -13992,13 +14235,13 @@
       <c r="G20" s="27">
         <v>699.07</v>
       </c>
-      <c r="H20" s="162" t="s">
+      <c r="H20" s="160" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="321"/>
-      <c r="B21" s="101" t="s">
+      <c r="A21" s="318"/>
+      <c r="B21" s="99" t="s">
         <v>344</v>
       </c>
       <c r="C21" s="26">
@@ -14010,13 +14253,13 @@
       <c r="G21" s="27">
         <v>16.899999999999999</v>
       </c>
-      <c r="H21" s="162" t="s">
+      <c r="H21" s="160" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="321"/>
-      <c r="B22" s="101" t="s">
+      <c r="A22" s="318"/>
+      <c r="B22" s="99" t="s">
         <v>270</v>
       </c>
       <c r="C22" s="26"/>
@@ -14026,13 +14269,13 @@
       <c r="G22" s="27">
         <v>1001.67</v>
       </c>
-      <c r="H22" s="162" t="s">
+      <c r="H22" s="160" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="321"/>
-      <c r="B23" s="101" t="s">
+      <c r="A23" s="318"/>
+      <c r="B23" s="99" t="s">
         <v>268</v>
       </c>
       <c r="C23" s="26"/>
@@ -14042,86 +14285,86 @@
       <c r="G23" s="27">
         <v>352.31</v>
       </c>
-      <c r="H23" s="162" t="s">
+      <c r="H23" s="160" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="320"/>
-      <c r="B24" s="102" t="s">
+      <c r="A24" s="317"/>
+      <c r="B24" s="100" t="s">
         <v>331</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="152">
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="150">
         <v>2302.5700000000002</v>
       </c>
-      <c r="H24" s="164" t="s">
+      <c r="H24" s="162" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="185"/>
+      <c r="A25" s="183"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="319" t="s">
+      <c r="A26" s="316" t="s">
         <v>523</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="98" t="s">
         <v>352</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="144">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="142">
         <v>3259</v>
       </c>
-      <c r="H26" s="184" t="s">
+      <c r="H26" s="182" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="320"/>
-      <c r="B27" s="102" t="s">
+      <c r="A27" s="317"/>
+      <c r="B27" s="100" t="s">
         <v>456</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="152">
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="150">
         <f>1031.54</f>
         <v>1031.54</v>
       </c>
-      <c r="H27" s="164" t="s">
+      <c r="H27" s="162" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="185"/>
+      <c r="A28" s="183"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="196" t="s">
+      <c r="A29" s="194" t="s">
         <v>524</v>
       </c>
-      <c r="B29" s="208" t="s">
+      <c r="B29" s="206" t="s">
         <v>354</v>
       </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="219">
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="217">
         <v>1075</v>
       </c>
-      <c r="H29" s="224" t="s">
+      <c r="H29" s="222" t="s">
         <v>355</v>
       </c>
     </row>

--- a/CR - Cost Report/2_CBOM/Cost_v1.0.xlsx
+++ b/CR - Cost Report/2_CBOM/Cost_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70A28F-7370-4C11-BB44-C027DB1D4D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BE95B3-7FE8-4EFD-990A-9167AC4347CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCC80F8F-209D-4EE0-B38E-B50CD23ACA60}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="570">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -1787,6 +1787,15 @@
   </si>
   <si>
     <t>Cost of machine/card</t>
+  </si>
+  <si>
+    <t>Card oven</t>
+  </si>
+  <si>
+    <t>Power consumption</t>
+  </si>
+  <si>
+    <t>2kW</t>
   </si>
 </sst>
 </file>
@@ -2698,7 +2707,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="334">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3164,140 +3173,185 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
@@ -3422,50 +3476,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6677,8 +6695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S97" sqref="S97"/>
+    <sheetView tabSelected="1" topLeftCell="I65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6686,15 +6704,15 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.140625" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="29.85546875" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
@@ -6708,29 +6726,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
       <c r="D1" s="46"/>
-      <c r="F1" s="256" t="s">
+      <c r="F1" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="258"/>
-      <c r="L1" s="259" t="s">
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="248"/>
+      <c r="L1" s="249" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="260"/>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="261"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="250"/>
+      <c r="S1" s="251"/>
     </row>
     <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -6794,7 +6812,7 @@
         <f>'Manpower &amp; time'!D8</f>
         <v>21161</v>
       </c>
-      <c r="D3" s="273" t="s">
+      <c r="D3" s="267" t="s">
         <v>481</v>
       </c>
       <c r="F3" s="104" t="s">
@@ -6814,10 +6832,10 @@
         <f>H3/I3</f>
         <v>242.80000000000004</v>
       </c>
-      <c r="L3" s="239" t="s">
+      <c r="L3" s="254" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="240"/>
+      <c r="M3" s="284"/>
       <c r="N3" s="98" t="s">
         <v>188</v>
       </c>
@@ -6846,7 +6864,7 @@
         <f>'Manpower &amp; time'!D9</f>
         <v>40641</v>
       </c>
-      <c r="D4" s="274"/>
+      <c r="D4" s="268"/>
       <c r="F4" s="105"/>
       <c r="G4" s="99" t="s">
         <v>179</v>
@@ -6896,7 +6914,7 @@
         <f>'Manpower &amp; time'!D11</f>
         <v>71259</v>
       </c>
-      <c r="D5" s="274"/>
+      <c r="D5" s="268"/>
       <c r="F5" s="105"/>
       <c r="G5" s="99" t="s">
         <v>178</v>
@@ -6947,7 +6965,7 @@
         <f>'Manpower &amp; time'!D9</f>
         <v>40641</v>
       </c>
-      <c r="D6" s="275"/>
+      <c r="D6" s="269"/>
       <c r="F6" s="105"/>
       <c r="G6" s="99" t="s">
         <v>32</v>
@@ -7181,7 +7199,7 @@
       <c r="R10" s="60"/>
       <c r="S10" s="71"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>280</v>
       </c>
@@ -7208,10 +7226,10 @@
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="L11" s="236" t="s">
+      <c r="L11" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="271"/>
+      <c r="M11" s="263"/>
       <c r="N11" s="98" t="s">
         <v>290</v>
       </c>
@@ -7564,10 +7582,10 @@
         <f t="shared" si="0"/>
         <v>261.39000000000004</v>
       </c>
-      <c r="L19" s="241" t="s">
+      <c r="L19" s="285" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="242"/>
+      <c r="M19" s="286"/>
       <c r="N19" s="98" t="s">
         <v>21</v>
       </c>
@@ -7794,7 +7812,7 @@
       <c r="R25" s="84"/>
       <c r="S25" s="145"/>
     </row>
-    <row r="26" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F26" s="107" t="s">
         <v>39</v>
       </c>
@@ -8114,10 +8132,10 @@
       <c r="N34" s="99" t="s">
         <v>422</v>
       </c>
-      <c r="O34" s="276" t="s">
+      <c r="O34" s="270" t="s">
         <v>194</v>
       </c>
-      <c r="P34" s="277" t="s">
+      <c r="P34" s="271" t="s">
         <v>421</v>
       </c>
       <c r="Q34" s="29">
@@ -8148,8 +8166,8 @@
       <c r="N35" s="99" t="s">
         <v>423</v>
       </c>
-      <c r="O35" s="276"/>
-      <c r="P35" s="277"/>
+      <c r="O35" s="270"/>
+      <c r="P35" s="271"/>
       <c r="Q35" s="29">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
@@ -8207,10 +8225,10 @@
         <f>H37/I37</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L37" s="236" t="s">
+      <c r="L37" s="234" t="s">
         <v>363</v>
       </c>
-      <c r="M37" s="271"/>
+      <c r="M37" s="263"/>
       <c r="N37" s="98" t="s">
         <v>427</v>
       </c>
@@ -8301,13 +8319,13 @@
       </c>
     </row>
     <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="265" t="s">
+      <c r="F40" s="256" t="s">
         <v>485</v>
       </c>
-      <c r="G40" s="266"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="266"/>
-      <c r="J40" s="267"/>
+      <c r="G40" s="257"/>
+      <c r="H40" s="257"/>
+      <c r="I40" s="257"/>
+      <c r="J40" s="258"/>
       <c r="L40" s="42" t="s">
         <v>206</v>
       </c>
@@ -8336,14 +8354,14 @@
       </c>
     </row>
     <row r="41" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F41" s="246" t="s">
+      <c r="F41" s="272" t="s">
         <v>283</v>
       </c>
-      <c r="G41" s="269" t="s">
+      <c r="G41" s="261" t="s">
         <v>444</v>
       </c>
-      <c r="H41" s="269"/>
-      <c r="I41" s="270"/>
+      <c r="H41" s="261"/>
+      <c r="I41" s="262"/>
       <c r="J41" s="85">
         <f>SUM(J3:J38)*1.05</f>
         <v>127700.70111809715</v>
@@ -8372,12 +8390,12 @@
       <c r="S41" s="139"/>
     </row>
     <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="247"/>
-      <c r="G42" s="268" t="s">
+      <c r="F42" s="273"/>
+      <c r="G42" s="259" t="s">
         <v>249</v>
       </c>
-      <c r="H42" s="268"/>
-      <c r="I42" s="254"/>
+      <c r="H42" s="259"/>
+      <c r="I42" s="260"/>
       <c r="J42" s="86">
         <f>J41/SUM('Manpower &amp; time'!C32:J32)</f>
         <v>11.714929813378353</v>
@@ -8404,87 +8422,87 @@
       <c r="S42" s="71"/>
     </row>
     <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="248" t="s">
+      <c r="F43" s="274" t="s">
         <v>284</v>
       </c>
-      <c r="G43" s="270" t="s">
+      <c r="G43" s="262" t="s">
         <v>285</v>
       </c>
-      <c r="H43" s="272"/>
-      <c r="I43" s="272"/>
+      <c r="H43" s="264"/>
+      <c r="I43" s="264"/>
       <c r="J43" s="87">
         <f>'Manpower &amp; time'!H8</f>
         <v>12.595833333333333</v>
       </c>
     </row>
     <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="249"/>
-      <c r="G44" s="244" t="s">
+      <c r="F44" s="275"/>
+      <c r="G44" s="265" t="s">
         <v>296</v>
       </c>
-      <c r="H44" s="245"/>
-      <c r="I44" s="245"/>
+      <c r="H44" s="266"/>
+      <c r="I44" s="266"/>
       <c r="J44" s="88">
         <f>'Manpower &amp; time'!H9</f>
         <v>24.191071428571426</v>
       </c>
-      <c r="L44" s="251" t="s">
+      <c r="L44" s="277" t="s">
         <v>486</v>
       </c>
-      <c r="M44" s="252"/>
-      <c r="N44" s="252"/>
-      <c r="O44" s="252"/>
-      <c r="P44" s="252"/>
-      <c r="Q44" s="252"/>
-      <c r="R44" s="253"/>
+      <c r="M44" s="278"/>
+      <c r="N44" s="278"/>
+      <c r="O44" s="278"/>
+      <c r="P44" s="278"/>
+      <c r="Q44" s="278"/>
+      <c r="R44" s="279"/>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="249"/>
-      <c r="G45" s="244" t="s">
+      <c r="F45" s="275"/>
+      <c r="G45" s="265" t="s">
         <v>438</v>
       </c>
-      <c r="H45" s="245"/>
-      <c r="I45" s="245"/>
+      <c r="H45" s="266"/>
+      <c r="I45" s="266"/>
       <c r="J45" s="88">
         <f>'Manpower &amp; time'!H10</f>
         <v>30.467857142857142</v>
       </c>
-      <c r="L45" s="239" t="s">
+      <c r="L45" s="254" t="s">
         <v>448</v>
       </c>
-      <c r="M45" s="264"/>
-      <c r="N45" s="237" t="s">
+      <c r="M45" s="255"/>
+      <c r="N45" s="281" t="s">
         <v>258</v>
       </c>
-      <c r="O45" s="237"/>
-      <c r="P45" s="237"/>
-      <c r="Q45" s="237"/>
+      <c r="O45" s="281"/>
+      <c r="P45" s="281"/>
+      <c r="Q45" s="281"/>
       <c r="R45" s="75">
         <f>SUM(S3:S6)+S9</f>
         <v>17591.025600000001</v>
       </c>
     </row>
     <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="250"/>
-      <c r="G46" s="254" t="s">
+      <c r="F46" s="276"/>
+      <c r="G46" s="260" t="s">
         <v>286</v>
       </c>
-      <c r="H46" s="255"/>
-      <c r="I46" s="255"/>
+      <c r="H46" s="280"/>
+      <c r="I46" s="280"/>
       <c r="J46" s="89">
         <f>'Manpower &amp; time'!H11</f>
         <v>42.416071428571428</v>
       </c>
-      <c r="L46" s="234" t="s">
+      <c r="L46" s="290" t="s">
         <v>452</v>
       </c>
-      <c r="M46" s="235"/>
-      <c r="N46" s="233" t="s">
+      <c r="M46" s="291"/>
+      <c r="N46" s="245" t="s">
         <v>259</v>
       </c>
-      <c r="O46" s="233"/>
-      <c r="P46" s="233"/>
-      <c r="Q46" s="233"/>
+      <c r="O46" s="245"/>
+      <c r="P46" s="245"/>
+      <c r="Q46" s="245"/>
       <c r="R46" s="76">
         <f>R45/(M5*C7*C8)+J42</f>
         <v>25.492362144205423</v>
@@ -8498,12 +8516,12 @@
       <c r="M47" s="38">
         <v>2.5</v>
       </c>
-      <c r="N47" s="233" t="s">
+      <c r="N47" s="245" t="s">
         <v>260</v>
       </c>
-      <c r="O47" s="233"/>
-      <c r="P47" s="233"/>
-      <c r="Q47" s="233"/>
+      <c r="O47" s="245"/>
+      <c r="P47" s="245"/>
+      <c r="Q47" s="245"/>
       <c r="R47" s="76">
         <f>R46+Q8+Q7</f>
         <v>46.895498144205419</v>
@@ -8517,10 +8535,10 @@
       <c r="M48" s="38">
         <v>0.5</v>
       </c>
-      <c r="N48" s="233"/>
-      <c r="O48" s="233"/>
-      <c r="P48" s="233"/>
-      <c r="Q48" s="233"/>
+      <c r="N48" s="245"/>
+      <c r="O48" s="245"/>
+      <c r="P48" s="245"/>
+      <c r="Q48" s="245"/>
       <c r="R48" s="77"/>
     </row>
     <row r="49" spans="6:18" x14ac:dyDescent="0.25">
@@ -8528,12 +8546,12 @@
       <c r="J49" s="14"/>
       <c r="L49" s="21"/>
       <c r="M49" s="22"/>
-      <c r="N49" s="233" t="s">
+      <c r="N49" s="245" t="s">
         <v>245</v>
       </c>
-      <c r="O49" s="233"/>
-      <c r="P49" s="233"/>
-      <c r="Q49" s="233"/>
+      <c r="O49" s="245"/>
+      <c r="P49" s="245"/>
+      <c r="Q49" s="245"/>
       <c r="R49" s="78">
         <f>('Manpower &amp; time'!H8+R47)*M7/60</f>
         <v>9.9152219129231255E-5</v>
@@ -8544,12 +8562,12 @@
       <c r="J50" s="14"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="233" t="s">
+      <c r="N50" s="245" t="s">
         <v>443</v>
       </c>
-      <c r="O50" s="233"/>
-      <c r="P50" s="233"/>
-      <c r="Q50" s="233"/>
+      <c r="O50" s="245"/>
+      <c r="P50" s="245"/>
+      <c r="Q50" s="245"/>
       <c r="R50" s="79">
         <f>('Manpower &amp; time'!H8)*M7/60/R49</f>
         <v>0.2117255240469606</v>
@@ -8560,21 +8578,21 @@
       <c r="J51" s="14"/>
       <c r="L51" s="21"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="233"/>
-      <c r="O51" s="233"/>
-      <c r="P51" s="233"/>
-      <c r="Q51" s="233"/>
+      <c r="N51" s="245"/>
+      <c r="O51" s="245"/>
+      <c r="P51" s="245"/>
+      <c r="Q51" s="245"/>
       <c r="R51" s="78"/>
     </row>
     <row r="52" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L52" s="21"/>
       <c r="M52" s="22"/>
-      <c r="N52" s="233" t="s">
+      <c r="N52" s="245" t="s">
         <v>248</v>
       </c>
-      <c r="O52" s="233"/>
-      <c r="P52" s="233"/>
-      <c r="Q52" s="233"/>
+      <c r="O52" s="245"/>
+      <c r="P52" s="245"/>
+      <c r="Q52" s="245"/>
       <c r="R52" s="78">
         <f>('Manpower &amp; time'!H8+J42)*M8/60</f>
         <v>2.0258969288926407E-5</v>
@@ -8584,12 +8602,12 @@
       <c r="J53" s="8"/>
       <c r="L53" s="21"/>
       <c r="M53" s="22"/>
-      <c r="N53" s="233" t="s">
+      <c r="N53" s="245" t="s">
         <v>246</v>
       </c>
-      <c r="O53" s="233"/>
-      <c r="P53" s="233"/>
-      <c r="Q53" s="233"/>
+      <c r="O53" s="245"/>
+      <c r="P53" s="245"/>
+      <c r="Q53" s="245"/>
       <c r="R53" s="78">
         <f>('Manpower &amp; time'!H9+J42)*M8/60</f>
         <v>2.9921667701624819E-5</v>
@@ -8599,12 +8617,12 @@
       <c r="J54" s="7"/>
       <c r="L54" s="21"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="233" t="s">
+      <c r="N54" s="245" t="s">
         <v>247</v>
       </c>
-      <c r="O54" s="233"/>
-      <c r="P54" s="233"/>
-      <c r="Q54" s="233"/>
+      <c r="O54" s="245"/>
+      <c r="P54" s="245"/>
+      <c r="Q54" s="245"/>
       <c r="R54" s="78">
         <f>('Manpower &amp; time'!H11+J42)*M8/60</f>
         <v>4.5109167701624822E-5</v>
@@ -8614,12 +8632,12 @@
       <c r="J55" s="7"/>
       <c r="L55" s="21"/>
       <c r="M55" s="22"/>
-      <c r="N55" s="233" t="s">
+      <c r="N55" s="245" t="s">
         <v>287</v>
       </c>
-      <c r="O55" s="233"/>
-      <c r="P55" s="233"/>
-      <c r="Q55" s="233"/>
+      <c r="O55" s="245"/>
+      <c r="P55" s="245"/>
+      <c r="Q55" s="245"/>
       <c r="R55" s="78">
         <f>('Manpower &amp; time'!H8+J42)*M$9/60</f>
         <v>1.6207175431141127E-5</v>
@@ -8629,12 +8647,12 @@
       <c r="J56" s="7"/>
       <c r="L56" s="21"/>
       <c r="M56" s="22"/>
-      <c r="N56" s="233" t="s">
+      <c r="N56" s="245" t="s">
         <v>288</v>
       </c>
-      <c r="O56" s="233"/>
-      <c r="P56" s="233"/>
-      <c r="Q56" s="233"/>
+      <c r="O56" s="245"/>
+      <c r="P56" s="245"/>
+      <c r="Q56" s="245"/>
       <c r="R56" s="78">
         <f>('Manpower &amp; time'!H9+J42)*M$9/60</f>
         <v>2.3937334161299856E-5</v>
@@ -8644,12 +8662,12 @@
       <c r="J57" s="5"/>
       <c r="L57" s="21"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="319" t="s">
+      <c r="N57" s="236" t="s">
         <v>289</v>
       </c>
-      <c r="O57" s="320"/>
-      <c r="P57" s="320"/>
-      <c r="Q57" s="321"/>
+      <c r="O57" s="237"/>
+      <c r="P57" s="237"/>
+      <c r="Q57" s="238"/>
       <c r="R57" s="78">
         <f>('Manpower &amp; time'!H11+J42)*M$9/60</f>
         <v>3.6087334161299856E-5</v>
@@ -8658,44 +8676,44 @@
     <row r="58" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L58" s="23"/>
       <c r="M58" s="24"/>
-      <c r="N58" s="327" t="s">
+      <c r="N58" s="239" t="s">
         <v>257</v>
       </c>
-      <c r="O58" s="328"/>
-      <c r="P58" s="328"/>
-      <c r="Q58" s="329"/>
+      <c r="O58" s="240"/>
+      <c r="P58" s="240"/>
+      <c r="Q58" s="241"/>
       <c r="R58" s="80">
         <f>('Manpower &amp; time'!H8+R46)*(M10+M6)/60</f>
         <v>15.87008144897448</v>
       </c>
     </row>
     <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L59" s="236" t="s">
+      <c r="L59" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="326"/>
-      <c r="N59" s="323" t="s">
+      <c r="M59" s="235"/>
+      <c r="N59" s="242" t="s">
         <v>258</v>
       </c>
-      <c r="O59" s="324"/>
-      <c r="P59" s="324"/>
-      <c r="Q59" s="325"/>
+      <c r="O59" s="243"/>
+      <c r="P59" s="243"/>
+      <c r="Q59" s="244"/>
       <c r="R59" s="75">
         <f>SUM(S11:S14)+S17</f>
         <v>23026.025600000001</v>
       </c>
     </row>
     <row r="60" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L60" s="243" t="s">
+      <c r="L60" s="288" t="s">
         <v>452</v>
       </c>
-      <c r="M60" s="331"/>
-      <c r="N60" s="319" t="s">
+      <c r="M60" s="289"/>
+      <c r="N60" s="236" t="s">
         <v>259</v>
       </c>
-      <c r="O60" s="320"/>
-      <c r="P60" s="320"/>
-      <c r="Q60" s="321"/>
+      <c r="O60" s="237"/>
+      <c r="P60" s="237"/>
+      <c r="Q60" s="238"/>
       <c r="R60" s="76">
         <f>R59/(M13*C7*C8)+J42</f>
         <v>29.749097733177855</v>
@@ -8709,12 +8727,12 @@
       <c r="M61" s="40">
         <v>2.5</v>
       </c>
-      <c r="N61" s="319" t="s">
+      <c r="N61" s="236" t="s">
         <v>260</v>
       </c>
-      <c r="O61" s="320"/>
-      <c r="P61" s="320"/>
-      <c r="Q61" s="321"/>
+      <c r="O61" s="237"/>
+      <c r="P61" s="237"/>
+      <c r="Q61" s="238"/>
       <c r="R61" s="76">
         <f>R60+Q16+Q15</f>
         <v>41.615769733177856</v>
@@ -8727,22 +8745,22 @@
       <c r="M62" s="40">
         <v>0.5</v>
       </c>
-      <c r="N62" s="319"/>
-      <c r="O62" s="320"/>
-      <c r="P62" s="320"/>
-      <c r="Q62" s="321"/>
+      <c r="N62" s="236"/>
+      <c r="O62" s="237"/>
+      <c r="P62" s="237"/>
+      <c r="Q62" s="238"/>
       <c r="R62" s="77"/>
     </row>
     <row r="63" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F63" s="11"/>
       <c r="L63" s="17"/>
       <c r="M63" s="18"/>
-      <c r="N63" s="319" t="s">
+      <c r="N63" s="236" t="s">
         <v>245</v>
       </c>
-      <c r="O63" s="320"/>
-      <c r="P63" s="320"/>
-      <c r="Q63" s="321"/>
+      <c r="O63" s="237"/>
+      <c r="P63" s="237"/>
+      <c r="Q63" s="238"/>
       <c r="R63" s="78">
         <f>(J43+R61)*M15/60</f>
         <v>9.0352671777518655E-5</v>
@@ -8751,12 +8769,12 @@
     <row r="64" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L64" s="17"/>
       <c r="M64" s="18"/>
-      <c r="N64" s="319" t="s">
+      <c r="N64" s="236" t="s">
         <v>443</v>
       </c>
-      <c r="O64" s="320"/>
-      <c r="P64" s="320"/>
-      <c r="Q64" s="321"/>
+      <c r="O64" s="237"/>
+      <c r="P64" s="237"/>
+      <c r="Q64" s="238"/>
       <c r="R64" s="79">
         <f>(J43)*M15/60/R63</f>
         <v>0.23234570868306079</v>
@@ -8765,21 +8783,21 @@
     <row r="65" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L65" s="17"/>
       <c r="M65" s="18"/>
-      <c r="N65" s="319"/>
-      <c r="O65" s="320"/>
-      <c r="P65" s="320"/>
-      <c r="Q65" s="321"/>
+      <c r="N65" s="236"/>
+      <c r="O65" s="237"/>
+      <c r="P65" s="237"/>
+      <c r="Q65" s="238"/>
       <c r="R65" s="78"/>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L66" s="17"/>
       <c r="M66" s="18"/>
-      <c r="N66" s="319" t="s">
+      <c r="N66" s="236" t="s">
         <v>248</v>
       </c>
-      <c r="O66" s="320"/>
-      <c r="P66" s="320"/>
-      <c r="Q66" s="321"/>
+      <c r="O66" s="237"/>
+      <c r="P66" s="237"/>
+      <c r="Q66" s="238"/>
       <c r="R66" s="78">
         <f>(J43+J42)*M$16/60</f>
         <v>2.0258969288926407E-5</v>
@@ -8788,12 +8806,12 @@
     <row r="67" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L67" s="17"/>
       <c r="M67" s="18"/>
-      <c r="N67" s="319" t="s">
+      <c r="N67" s="236" t="s">
         <v>246</v>
       </c>
-      <c r="O67" s="320"/>
-      <c r="P67" s="320"/>
-      <c r="Q67" s="321"/>
+      <c r="O67" s="237"/>
+      <c r="P67" s="237"/>
+      <c r="Q67" s="238"/>
       <c r="R67" s="78">
         <f>(J44+J42)*M$16/60</f>
         <v>2.9921667701624819E-5</v>
@@ -8802,12 +8820,12 @@
     <row r="68" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L68" s="17"/>
       <c r="M68" s="18"/>
-      <c r="N68" s="319" t="s">
+      <c r="N68" s="236" t="s">
         <v>247</v>
       </c>
-      <c r="O68" s="320"/>
-      <c r="P68" s="320"/>
-      <c r="Q68" s="321"/>
+      <c r="O68" s="237"/>
+      <c r="P68" s="237"/>
+      <c r="Q68" s="238"/>
       <c r="R68" s="78">
         <f>(J46+J42)*M$16/60</f>
         <v>4.5109167701624822E-5</v>
@@ -8816,12 +8834,12 @@
     <row r="69" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L69" s="17"/>
       <c r="M69" s="18"/>
-      <c r="N69" s="319" t="s">
+      <c r="N69" s="236" t="s">
         <v>287</v>
       </c>
-      <c r="O69" s="320"/>
-      <c r="P69" s="320"/>
-      <c r="Q69" s="321"/>
+      <c r="O69" s="237"/>
+      <c r="P69" s="237"/>
+      <c r="Q69" s="238"/>
       <c r="R69" s="78">
         <f>(J43+J42)*M$17/60</f>
         <v>1.6207175431141127E-5</v>
@@ -8830,12 +8848,12 @@
     <row r="70" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L70" s="17"/>
       <c r="M70" s="18"/>
-      <c r="N70" s="319" t="s">
+      <c r="N70" s="236" t="s">
         <v>288</v>
       </c>
-      <c r="O70" s="320"/>
-      <c r="P70" s="320"/>
-      <c r="Q70" s="321"/>
+      <c r="O70" s="237"/>
+      <c r="P70" s="237"/>
+      <c r="Q70" s="238"/>
       <c r="R70" s="78">
         <f>(J44+J42)*M$17/60</f>
         <v>2.3937334161299856E-5</v>
@@ -8844,12 +8862,12 @@
     <row r="71" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L71" s="17"/>
       <c r="M71" s="18"/>
-      <c r="N71" s="319" t="s">
+      <c r="N71" s="236" t="s">
         <v>289</v>
       </c>
-      <c r="O71" s="320"/>
-      <c r="P71" s="320"/>
-      <c r="Q71" s="321"/>
+      <c r="O71" s="237"/>
+      <c r="P71" s="237"/>
+      <c r="Q71" s="238"/>
       <c r="R71" s="78">
         <f>(J46+J42)*M$17/60</f>
         <v>3.6087334161299856E-5</v>
@@ -8858,44 +8876,44 @@
     <row r="72" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L72" s="17"/>
       <c r="M72" s="18"/>
-      <c r="N72" s="327" t="s">
+      <c r="N72" s="239" t="s">
         <v>257</v>
       </c>
-      <c r="O72" s="328"/>
-      <c r="P72" s="328"/>
-      <c r="Q72" s="329"/>
+      <c r="O72" s="240"/>
+      <c r="P72" s="240"/>
+      <c r="Q72" s="241"/>
       <c r="R72" s="152">
         <f>(J43+R60)*(M14+M18)/60</f>
         <v>14.114977022170395</v>
       </c>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L73" s="241" t="s">
+      <c r="L73" s="285" t="s">
         <v>377</v>
       </c>
-      <c r="M73" s="332"/>
-      <c r="N73" s="323" t="s">
+      <c r="M73" s="287"/>
+      <c r="N73" s="242" t="s">
         <v>258</v>
       </c>
-      <c r="O73" s="324"/>
-      <c r="P73" s="324"/>
-      <c r="Q73" s="325"/>
+      <c r="O73" s="243"/>
+      <c r="P73" s="243"/>
+      <c r="Q73" s="244"/>
       <c r="R73" s="75">
         <f>S19+S20</f>
         <v>16315.562563129759</v>
       </c>
     </row>
     <row r="74" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L74" s="238" t="s">
+      <c r="L74" s="282" t="s">
         <v>453</v>
       </c>
-      <c r="M74" s="330"/>
-      <c r="N74" s="319" t="s">
+      <c r="M74" s="283"/>
+      <c r="N74" s="236" t="s">
         <v>259</v>
       </c>
-      <c r="O74" s="320"/>
-      <c r="P74" s="320"/>
-      <c r="Q74" s="321"/>
+      <c r="O74" s="237"/>
+      <c r="P74" s="237"/>
+      <c r="Q74" s="238"/>
       <c r="R74" s="76">
         <f>R73/(M21*C7*C8)+J42</f>
         <v>26.318906328890129</v>
@@ -8909,114 +8927,114 @@
         <f>'Laser cutter'!J14</f>
         <v>0.71739130434782605</v>
       </c>
-      <c r="N75" s="319" t="s">
+      <c r="N75" s="236" t="s">
         <v>260</v>
       </c>
-      <c r="O75" s="320"/>
-      <c r="P75" s="320"/>
-      <c r="Q75" s="321"/>
+      <c r="O75" s="237"/>
+      <c r="P75" s="237"/>
+      <c r="Q75" s="238"/>
       <c r="R75" s="76">
         <f>R74+Q21+Q22</f>
         <v>31.86150632889013</v>
       </c>
     </row>
     <row r="76" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L76" s="238"/>
-      <c r="M76" s="330"/>
-      <c r="N76" s="319"/>
-      <c r="O76" s="320"/>
-      <c r="P76" s="320"/>
-      <c r="Q76" s="321"/>
+      <c r="L76" s="282"/>
+      <c r="M76" s="283"/>
+      <c r="N76" s="236"/>
+      <c r="O76" s="237"/>
+      <c r="P76" s="237"/>
+      <c r="Q76" s="238"/>
       <c r="R76" s="77"/>
     </row>
     <row r="77" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L77" s="238"/>
-      <c r="M77" s="330"/>
-      <c r="N77" s="319" t="s">
+      <c r="L77" s="282"/>
+      <c r="M77" s="283"/>
+      <c r="N77" s="236" t="s">
         <v>378</v>
       </c>
-      <c r="O77" s="320"/>
-      <c r="P77" s="320"/>
-      <c r="Q77" s="321"/>
+      <c r="O77" s="237"/>
+      <c r="P77" s="237"/>
+      <c r="Q77" s="238"/>
       <c r="R77" s="78">
         <f>(J43*0.4+R75)*M23/60</f>
         <v>2.8289877074371322E-4</v>
       </c>
     </row>
     <row r="78" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L78" s="238"/>
-      <c r="M78" s="330"/>
-      <c r="N78" s="319" t="s">
+      <c r="L78" s="282"/>
+      <c r="M78" s="283"/>
+      <c r="N78" s="236" t="s">
         <v>443</v>
       </c>
-      <c r="O78" s="320"/>
-      <c r="P78" s="320"/>
-      <c r="Q78" s="321"/>
+      <c r="O78" s="237"/>
+      <c r="P78" s="237"/>
+      <c r="Q78" s="238"/>
       <c r="R78" s="79">
         <f>(J43)*M23/60/R77</f>
         <v>0.34135198007996848</v>
       </c>
     </row>
     <row r="79" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L79" s="238"/>
-      <c r="M79" s="330"/>
-      <c r="N79" s="319"/>
-      <c r="O79" s="320"/>
-      <c r="P79" s="320"/>
-      <c r="Q79" s="321"/>
+      <c r="L79" s="282"/>
+      <c r="M79" s="283"/>
+      <c r="N79" s="236"/>
+      <c r="O79" s="237"/>
+      <c r="P79" s="237"/>
+      <c r="Q79" s="238"/>
       <c r="R79" s="139"/>
     </row>
     <row r="80" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L80" s="238"/>
-      <c r="M80" s="330"/>
-      <c r="N80" s="319" t="s">
+      <c r="L80" s="282"/>
+      <c r="M80" s="283"/>
+      <c r="N80" s="236" t="s">
         <v>475</v>
       </c>
-      <c r="O80" s="320"/>
-      <c r="P80" s="320"/>
-      <c r="Q80" s="321"/>
+      <c r="O80" s="237"/>
+      <c r="P80" s="237"/>
+      <c r="Q80" s="238"/>
       <c r="R80" s="151">
         <f>(J43+J42)*M24/60</f>
         <v>0.60776907866779217</v>
       </c>
     </row>
     <row r="81" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L81" s="238"/>
-      <c r="M81" s="330"/>
-      <c r="N81" s="319" t="s">
+      <c r="L81" s="282"/>
+      <c r="M81" s="283"/>
+      <c r="N81" s="236" t="s">
         <v>476</v>
       </c>
-      <c r="O81" s="320"/>
-      <c r="P81" s="320"/>
-      <c r="Q81" s="321"/>
+      <c r="O81" s="237"/>
+      <c r="P81" s="237"/>
+      <c r="Q81" s="238"/>
       <c r="R81" s="151">
         <f>(J44+J42)*M24/60</f>
         <v>0.89765003104874452</v>
       </c>
     </row>
     <row r="82" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L82" s="238"/>
-      <c r="M82" s="330"/>
-      <c r="N82" s="319" t="s">
+      <c r="L82" s="282"/>
+      <c r="M82" s="283"/>
+      <c r="N82" s="236" t="s">
         <v>477</v>
       </c>
-      <c r="O82" s="320"/>
-      <c r="P82" s="320"/>
-      <c r="Q82" s="321"/>
+      <c r="O82" s="237"/>
+      <c r="P82" s="237"/>
+      <c r="Q82" s="238"/>
       <c r="R82" s="151">
         <f>(J43+J42)*M25/60</f>
         <v>0.40517938577852808</v>
       </c>
     </row>
     <row r="83" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L83" s="238"/>
-      <c r="M83" s="330"/>
-      <c r="N83" s="319" t="s">
+      <c r="L83" s="282"/>
+      <c r="M83" s="283"/>
+      <c r="N83" s="236" t="s">
         <v>478</v>
       </c>
-      <c r="O83" s="320"/>
-      <c r="P83" s="320"/>
-      <c r="Q83" s="321"/>
+      <c r="O83" s="237"/>
+      <c r="P83" s="237"/>
+      <c r="Q83" s="238"/>
       <c r="R83" s="151">
         <f>(J44+J42)*M$25/60</f>
         <v>0.59843335403249631</v>
@@ -9025,28 +9043,28 @@
     <row r="84" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L84" s="32"/>
       <c r="M84" s="33"/>
-      <c r="N84" s="327" t="s">
+      <c r="N84" s="239" t="s">
         <v>257</v>
       </c>
-      <c r="O84" s="328"/>
-      <c r="P84" s="328"/>
-      <c r="Q84" s="329"/>
+      <c r="O84" s="240"/>
+      <c r="P84" s="240"/>
+      <c r="Q84" s="241"/>
       <c r="R84" s="80">
         <f>(J43+R74)*(M26+M22)/60</f>
         <v>8.4315269268150832</v>
       </c>
     </row>
     <row r="85" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L85" s="239" t="s">
+      <c r="L85" s="254" t="s">
         <v>24</v>
       </c>
-      <c r="M85" s="322"/>
-      <c r="N85" s="323" t="s">
+      <c r="M85" s="292"/>
+      <c r="N85" s="242" t="s">
         <v>258</v>
       </c>
-      <c r="O85" s="324"/>
-      <c r="P85" s="324"/>
-      <c r="Q85" s="325"/>
+      <c r="O85" s="243"/>
+      <c r="P85" s="243"/>
+      <c r="Q85" s="244"/>
       <c r="R85" s="153">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
@@ -9055,12 +9073,12 @@
     <row r="86" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L86" s="229"/>
       <c r="M86" s="230"/>
-      <c r="N86" s="319" t="s">
+      <c r="N86" s="236" t="s">
         <v>259</v>
       </c>
-      <c r="O86" s="320"/>
-      <c r="P86" s="320"/>
-      <c r="Q86" s="321"/>
+      <c r="O86" s="237"/>
+      <c r="P86" s="237"/>
+      <c r="Q86" s="238"/>
       <c r="R86" s="95">
         <f>R85/(M29*C7*C8)+J42</f>
         <v>13.419947043954794</v>
@@ -9070,12 +9088,12 @@
     <row r="87" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L87" s="21"/>
       <c r="M87" s="22"/>
-      <c r="N87" s="319" t="s">
+      <c r="N87" s="236" t="s">
         <v>260</v>
       </c>
-      <c r="O87" s="320"/>
-      <c r="P87" s="320"/>
-      <c r="Q87" s="321"/>
+      <c r="O87" s="237"/>
+      <c r="P87" s="237"/>
+      <c r="Q87" s="238"/>
       <c r="R87" s="95">
         <f>R86+Q33</f>
         <v>13.517822043954794</v>
@@ -9084,21 +9102,21 @@
     <row r="88" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L88" s="21"/>
       <c r="M88" s="22"/>
-      <c r="N88" s="319"/>
-      <c r="O88" s="320"/>
-      <c r="P88" s="320"/>
-      <c r="Q88" s="321"/>
+      <c r="N88" s="236"/>
+      <c r="O88" s="237"/>
+      <c r="P88" s="237"/>
+      <c r="Q88" s="238"/>
       <c r="R88" s="139"/>
     </row>
     <row r="89" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L89" s="21"/>
       <c r="M89" s="22"/>
-      <c r="N89" s="319" t="s">
+      <c r="N89" s="236" t="s">
         <v>425</v>
       </c>
-      <c r="O89" s="320"/>
-      <c r="P89" s="320"/>
-      <c r="Q89" s="321"/>
+      <c r="O89" s="237"/>
+      <c r="P89" s="237"/>
+      <c r="Q89" s="238"/>
       <c r="R89" s="59">
         <f>Q34+Q36+(R87+J45)*M30/60</f>
         <v>117.38840627635136</v>
@@ -9107,12 +9125,12 @@
     <row r="90" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L90" s="21"/>
       <c r="M90" s="22"/>
-      <c r="N90" s="319" t="s">
+      <c r="N90" s="236" t="s">
         <v>426</v>
       </c>
-      <c r="O90" s="320"/>
-      <c r="P90" s="320"/>
-      <c r="Q90" s="321"/>
+      <c r="O90" s="237"/>
+      <c r="P90" s="237"/>
+      <c r="Q90" s="238"/>
       <c r="R90" s="95">
         <f>Q35+Q36+(R87+J45)*M30/60</f>
         <v>117.3533442173817</v>
@@ -9121,23 +9139,23 @@
     <row r="91" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L91" s="23"/>
       <c r="M91" s="24"/>
-      <c r="N91" s="327"/>
-      <c r="O91" s="328"/>
-      <c r="P91" s="328"/>
-      <c r="Q91" s="329"/>
+      <c r="N91" s="239"/>
+      <c r="O91" s="240"/>
+      <c r="P91" s="240"/>
+      <c r="Q91" s="241"/>
       <c r="R91" s="71"/>
     </row>
     <row r="92" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L92" s="236" t="s">
+      <c r="L92" s="234" t="s">
         <v>363</v>
       </c>
-      <c r="M92" s="326"/>
-      <c r="N92" s="323" t="s">
+      <c r="M92" s="235"/>
+      <c r="N92" s="242" t="s">
         <v>258</v>
       </c>
-      <c r="O92" s="324"/>
-      <c r="P92" s="324"/>
-      <c r="Q92" s="325"/>
+      <c r="O92" s="243"/>
+      <c r="P92" s="243"/>
+      <c r="Q92" s="244"/>
       <c r="R92" s="75">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
@@ -9146,12 +9164,12 @@
     <row r="93" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L93" s="227"/>
       <c r="M93" s="228"/>
-      <c r="N93" s="319" t="s">
+      <c r="N93" s="236" t="s">
         <v>259</v>
       </c>
-      <c r="O93" s="320"/>
-      <c r="P93" s="320"/>
-      <c r="Q93" s="321"/>
+      <c r="O93" s="237"/>
+      <c r="P93" s="237"/>
+      <c r="Q93" s="238"/>
       <c r="R93" s="76">
         <f>R92/(M39*C7*C8)+J42</f>
         <v>18.514599441995351</v>
@@ -9160,12 +9178,12 @@
     <row r="94" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L94" s="17"/>
       <c r="M94" s="18"/>
-      <c r="N94" s="319" t="s">
+      <c r="N94" s="236" t="s">
         <v>260</v>
       </c>
-      <c r="O94" s="320"/>
-      <c r="P94" s="320"/>
-      <c r="Q94" s="321"/>
+      <c r="O94" s="237"/>
+      <c r="P94" s="237"/>
+      <c r="Q94" s="238"/>
       <c r="R94" s="76">
         <f>R93+Q42+Q41</f>
         <v>28.890439441995351</v>
@@ -9174,21 +9192,21 @@
     <row r="95" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L95" s="17"/>
       <c r="M95" s="18"/>
-      <c r="N95" s="319"/>
-      <c r="O95" s="320"/>
-      <c r="P95" s="320"/>
-      <c r="Q95" s="321"/>
+      <c r="N95" s="236"/>
+      <c r="O95" s="237"/>
+      <c r="P95" s="237"/>
+      <c r="Q95" s="238"/>
       <c r="R95" s="77"/>
     </row>
     <row r="96" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L96" s="17"/>
       <c r="M96" s="18"/>
-      <c r="N96" s="319" t="s">
+      <c r="N96" s="236" t="s">
         <v>245</v>
       </c>
-      <c r="O96" s="320"/>
-      <c r="P96" s="320"/>
-      <c r="Q96" s="321"/>
+      <c r="O96" s="237"/>
+      <c r="P96" s="237"/>
+      <c r="Q96" s="238"/>
       <c r="R96" s="78">
         <f>(J43+R94)*M41/60</f>
         <v>2.0743136387664342E-4</v>
@@ -9197,28 +9215,28 @@
     <row r="97" spans="12:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L97" s="19"/>
       <c r="M97" s="20"/>
-      <c r="N97" s="327" t="s">
+      <c r="N97" s="239" t="s">
         <v>257</v>
       </c>
-      <c r="O97" s="328"/>
-      <c r="P97" s="328"/>
-      <c r="Q97" s="329"/>
+      <c r="O97" s="240"/>
+      <c r="P97" s="240"/>
+      <c r="Q97" s="241"/>
       <c r="R97" s="80">
         <f>(J43+R93)*(M40+M42)/60</f>
         <v>7.7776081938321706</v>
       </c>
     </row>
     <row r="98" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L98" s="236" t="s">
+      <c r="L98" s="234" t="s">
         <v>565</v>
       </c>
-      <c r="M98" s="326"/>
-      <c r="N98" s="323" t="s">
+      <c r="M98" s="235"/>
+      <c r="N98" s="242" t="s">
         <v>258</v>
       </c>
-      <c r="O98" s="324"/>
-      <c r="P98" s="324"/>
-      <c r="Q98" s="325"/>
+      <c r="O98" s="243"/>
+      <c r="P98" s="243"/>
+      <c r="Q98" s="244"/>
       <c r="R98" s="75">
         <f>'Card oven'!B2/5</f>
         <v>399</v>
@@ -9228,15 +9246,15 @@
       <c r="L99" s="227" t="s">
         <v>205</v>
       </c>
-      <c r="M99" s="333">
+      <c r="M99" s="233">
         <v>0.3</v>
       </c>
-      <c r="N99" s="319" t="s">
+      <c r="N99" s="236" t="s">
         <v>259</v>
       </c>
-      <c r="O99" s="320"/>
-      <c r="P99" s="320"/>
-      <c r="Q99" s="321"/>
+      <c r="O99" s="237"/>
+      <c r="P99" s="237"/>
+      <c r="Q99" s="238"/>
       <c r="R99" s="76">
         <f>R98/(M99*C7*C8)+J42</f>
         <v>12.548263146711687</v>
@@ -9252,12 +9270,12 @@
     <row r="100" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L100" s="17"/>
       <c r="M100" s="18"/>
-      <c r="N100" s="319" t="s">
+      <c r="N100" s="236" t="s">
         <v>260</v>
       </c>
-      <c r="O100" s="320"/>
-      <c r="P100" s="320"/>
-      <c r="Q100" s="321"/>
+      <c r="O100" s="237"/>
+      <c r="P100" s="237"/>
+      <c r="Q100" s="238"/>
       <c r="R100" s="76">
         <f>R99+U99</f>
         <v>12.704863146711686</v>
@@ -9266,21 +9284,21 @@
     <row r="101" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L101" s="17"/>
       <c r="M101" s="18"/>
-      <c r="N101" s="319"/>
-      <c r="O101" s="320"/>
-      <c r="P101" s="320"/>
-      <c r="Q101" s="321"/>
+      <c r="N101" s="236"/>
+      <c r="O101" s="237"/>
+      <c r="P101" s="237"/>
+      <c r="Q101" s="238"/>
       <c r="R101" s="77"/>
     </row>
     <row r="102" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L102" s="17"/>
       <c r="M102" s="18"/>
-      <c r="N102" s="319" t="s">
+      <c r="N102" s="236" t="s">
         <v>566</v>
       </c>
-      <c r="O102" s="320"/>
-      <c r="P102" s="320"/>
-      <c r="Q102" s="321"/>
+      <c r="O102" s="237"/>
+      <c r="P102" s="237"/>
+      <c r="Q102" s="238"/>
       <c r="R102" s="151">
         <f>R100*5/60</f>
         <v>1.0587385955593072</v>
@@ -9289,25 +9307,113 @@
     <row r="103" spans="12:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L103" s="19"/>
       <c r="M103" s="20"/>
-      <c r="N103" s="327"/>
-      <c r="O103" s="328"/>
-      <c r="P103" s="328"/>
-      <c r="Q103" s="329"/>
+      <c r="N103" s="239"/>
+      <c r="O103" s="240"/>
+      <c r="P103" s="240"/>
+      <c r="Q103" s="241"/>
       <c r="R103" s="80"/>
+    </row>
+    <row r="106" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L106" s="335" t="s">
+        <v>567</v>
+      </c>
+      <c r="M106" s="335"/>
+    </row>
+    <row r="107" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L107" s="334" t="s">
+        <v>568</v>
+      </c>
+      <c r="M107" s="334" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="108" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L108" s="334" t="s">
+        <v>205</v>
+      </c>
+      <c r="M108" s="336">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="109" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L109" s="334"/>
+      <c r="M109" s="334"/>
+    </row>
+    <row r="110" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L110" s="334"/>
+      <c r="M110" s="334"/>
+    </row>
+    <row r="111" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L111" s="334"/>
+      <c r="M111" s="334"/>
+    </row>
+    <row r="112" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L112" s="334"/>
+      <c r="M112" s="334"/>
     </row>
     <row r="118" ht="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="N100:Q100"/>
-    <mergeCell ref="N101:Q101"/>
-    <mergeCell ref="N102:Q102"/>
-    <mergeCell ref="N103:Q103"/>
+  <mergeCells count="97">
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="N95:Q95"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N56:Q56"/>
     <mergeCell ref="N57:Q57"/>
     <mergeCell ref="N70:Q70"/>
     <mergeCell ref="N72:Q72"/>
@@ -9324,6 +9430,16 @@
     <mergeCell ref="N60:Q60"/>
     <mergeCell ref="N59:Q59"/>
     <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="N101:Q101"/>
+    <mergeCell ref="N102:Q102"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N98:Q98"/>
     <mergeCell ref="N66:Q66"/>
     <mergeCell ref="N67:Q67"/>
     <mergeCell ref="N69:Q69"/>
@@ -9335,68 +9451,12 @@
     <mergeCell ref="N78:Q78"/>
     <mergeCell ref="N79:Q79"/>
     <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="N93:Q93"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N87:Q87"/>
-    <mergeCell ref="N88:Q88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C5" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -12181,58 +12241,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="297" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="289" t="s">
+      <c r="C1" s="304" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="290"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="305"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="283"/>
+      <c r="A2" s="298"/>
       <c r="B2" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="291" t="s">
+      <c r="C2" s="306" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="292"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="307"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="283"/>
+      <c r="A3" s="298"/>
       <c r="B3" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="293" t="s">
+      <c r="C3" s="308" t="s">
         <v>527</v>
       </c>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="294"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="309"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="284"/>
+      <c r="A4" s="299"/>
       <c r="B4" s="161" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="310" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="295"/>
-      <c r="E4" s="295"/>
-      <c r="F4" s="296"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="285" t="s">
+      <c r="A7" s="300" t="s">
         <v>284</v>
       </c>
       <c r="B7" s="165" t="s">
@@ -12258,7 +12318,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
+      <c r="A8" s="301"/>
       <c r="B8" s="163" t="s">
         <v>135</v>
       </c>
@@ -12285,7 +12345,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="286"/>
+      <c r="A9" s="301"/>
       <c r="B9" s="159" t="s">
         <v>208</v>
       </c>
@@ -12312,7 +12372,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="286"/>
+      <c r="A10" s="301"/>
       <c r="B10" s="159" t="s">
         <v>437</v>
       </c>
@@ -12339,7 +12399,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="287"/>
+      <c r="A11" s="302"/>
       <c r="B11" s="161" t="s">
         <v>209</v>
       </c>
@@ -12382,7 +12442,7 @@
       <c r="A14" s="181"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="278" t="s">
+      <c r="A15" s="293" t="s">
         <v>493</v>
       </c>
       <c r="B15" s="165" t="s">
@@ -12393,7 +12453,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="288"/>
+      <c r="A16" s="303"/>
       <c r="B16" s="184" t="s">
         <v>138</v>
       </c>
@@ -12402,7 +12462,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="288"/>
+      <c r="A17" s="303"/>
       <c r="B17" s="99" t="s">
         <v>139</v>
       </c>
@@ -12411,7 +12471,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="288"/>
+      <c r="A18" s="303"/>
       <c r="B18" s="99" t="s">
         <v>140</v>
       </c>
@@ -12420,7 +12480,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="288"/>
+      <c r="A19" s="303"/>
       <c r="B19" s="99" t="s">
         <v>141</v>
       </c>
@@ -12429,7 +12489,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="288"/>
+      <c r="A20" s="303"/>
       <c r="B20" s="99" t="s">
         <v>142</v>
       </c>
@@ -12439,7 +12499,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="288"/>
+      <c r="A21" s="303"/>
       <c r="B21" s="99" t="s">
         <v>143</v>
       </c>
@@ -12449,7 +12509,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="279"/>
+      <c r="A22" s="294"/>
       <c r="B22" s="100" t="s">
         <v>439</v>
       </c>
@@ -12460,7 +12520,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="278" t="s">
+      <c r="A26" s="293" t="s">
         <v>495</v>
       </c>
       <c r="B26" s="170"/>
@@ -12496,7 +12556,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="288"/>
+      <c r="A27" s="303"/>
       <c r="B27" s="195" t="s">
         <v>135</v>
       </c>
@@ -12531,7 +12591,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="288"/>
+      <c r="A28" s="303"/>
       <c r="B28" s="196" t="s">
         <v>208</v>
       </c>
@@ -12554,7 +12614,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="288"/>
+      <c r="A29" s="303"/>
       <c r="B29" s="196" t="s">
         <v>436</v>
       </c>
@@ -12579,7 +12639,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="288"/>
+      <c r="A30" s="303"/>
       <c r="B30" s="196" t="s">
         <v>209</v>
       </c>
@@ -12604,7 +12664,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="288"/>
+      <c r="A31" s="303"/>
       <c r="B31" s="196" t="s">
         <v>496</v>
       </c>
@@ -12650,7 +12710,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="288"/>
+      <c r="A32" s="303"/>
       <c r="B32" s="196" t="s">
         <v>497</v>
       </c>
@@ -12696,7 +12756,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="279"/>
+      <c r="A33" s="294"/>
       <c r="B33" s="197"/>
       <c r="C33" s="100"/>
       <c r="D33" s="60" t="s">
@@ -12716,21 +12776,21 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="278" t="s">
+      <c r="A36" s="293" t="s">
         <v>494</v>
       </c>
-      <c r="B36" s="270" t="s">
+      <c r="B36" s="262" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="280">
+      <c r="C36" s="295">
         <f>SUMPRODUCT(E8:E11*K27:K30)</f>
         <v>14044.629000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="279"/>
-      <c r="B37" s="254"/>
-      <c r="C37" s="281"/>
+      <c r="A37" s="294"/>
+      <c r="B37" s="260"/>
+      <c r="C37" s="296"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="186"/>
@@ -12793,89 +12853,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="312" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="299"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="314"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="318" t="s">
         <v>501</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="322" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="309"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="324"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="304"/>
-      <c r="B3" s="310" t="s">
+      <c r="A3" s="319"/>
+      <c r="B3" s="325" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="312"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="327"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="304"/>
-      <c r="B4" s="310" t="s">
+      <c r="A4" s="319"/>
+      <c r="B4" s="325" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="311"/>
-      <c r="D4" s="312"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="327"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="198" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="244">
+      <c r="B5" s="265">
         <v>38.64</v>
       </c>
-      <c r="C5" s="245"/>
-      <c r="D5" s="305"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="320"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="198" t="s">
         <v>502</v>
       </c>
-      <c r="B6" s="244">
+      <c r="B6" s="265">
         <f>(24*2 + 7.5)*0.8+16+14</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="C6" s="245"/>
-      <c r="D6" s="305"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="320"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="198" t="s">
         <v>503</v>
       </c>
-      <c r="B7" s="244">
+      <c r="B7" s="265">
         <f>B6*B5</f>
         <v>2874.8160000000003</v>
       </c>
-      <c r="C7" s="245"/>
-      <c r="D7" s="305"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="320"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="199" t="s">
         <v>505</v>
       </c>
-      <c r="B8" s="254">
+      <c r="B8" s="260">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="C8" s="255"/>
-      <c r="D8" s="306"/>
+      <c r="C8" s="280"/>
+      <c r="D8" s="321"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="300" t="s">
+      <c r="A10" s="315" t="s">
         <v>500</v>
       </c>
-      <c r="B10" s="301"/>
-      <c r="C10" s="301"/>
-      <c r="D10" s="302"/>
+      <c r="B10" s="316"/>
+      <c r="C10" s="316"/>
+      <c r="D10" s="317"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="163"/>
@@ -13132,7 +13192,7 @@
       <c r="F12" s="212"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="313" t="s">
+      <c r="A13" s="328" t="s">
         <v>119</v>
       </c>
       <c r="B13" s="99" t="s">
@@ -13151,7 +13211,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="314"/>
+      <c r="A14" s="329"/>
       <c r="B14" s="99" t="s">
         <v>122</v>
       </c>
@@ -13168,7 +13228,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="314"/>
+      <c r="A15" s="329"/>
       <c r="B15" s="99" t="s">
         <v>124</v>
       </c>
@@ -13185,7 +13245,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="315"/>
+      <c r="A16" s="330"/>
       <c r="B16" s="99" t="s">
         <v>126</v>
       </c>
@@ -13202,7 +13262,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="313" t="s">
+      <c r="A17" s="328" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="99" t="s">
@@ -13221,7 +13281,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="315"/>
+      <c r="A18" s="330"/>
       <c r="B18" s="203" t="s">
         <v>176</v>
       </c>
@@ -13395,7 +13455,7 @@
       <c r="F2" s="216"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="331" t="s">
         <v>511</v>
       </c>
       <c r="B3" s="98" t="s">
@@ -13416,7 +13476,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="317"/>
+      <c r="A4" s="332"/>
       <c r="B4" s="100" t="s">
         <v>535</v>
       </c>
@@ -13437,7 +13497,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="316" t="s">
+      <c r="A6" s="331" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="98" t="s">
@@ -13456,7 +13516,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="318"/>
+      <c r="A7" s="333"/>
       <c r="B7" s="99" t="s">
         <v>536</v>
       </c>
@@ -13473,7 +13533,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="318"/>
+      <c r="A8" s="333"/>
       <c r="B8" s="99" t="s">
         <v>151</v>
       </c>
@@ -13491,7 +13551,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="318"/>
+      <c r="A9" s="333"/>
       <c r="B9" s="99" t="s">
         <v>167</v>
       </c>
@@ -13505,7 +13565,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="317"/>
+      <c r="A10" s="332"/>
       <c r="B10" s="100" t="s">
         <v>169</v>
       </c>
@@ -13524,7 +13584,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="316" t="s">
+      <c r="A12" s="331" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="98" t="s">
@@ -13543,7 +13603,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="318"/>
+      <c r="A13" s="333"/>
       <c r="B13" s="99" t="s">
         <v>149</v>
       </c>
@@ -13560,7 +13620,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="317"/>
+      <c r="A14" s="332"/>
       <c r="B14" s="100" t="s">
         <v>156</v>
       </c>
@@ -13582,7 +13642,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="316" t="s">
+      <c r="A16" s="331" t="s">
         <v>514</v>
       </c>
       <c r="B16" s="98" t="s">
@@ -13601,7 +13661,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="318"/>
+      <c r="A17" s="333"/>
       <c r="B17" s="99" t="s">
         <v>153</v>
       </c>
@@ -13618,7 +13678,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="318"/>
+      <c r="A18" s="333"/>
       <c r="B18" s="99" t="s">
         <v>154</v>
       </c>
@@ -13635,7 +13695,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="317"/>
+      <c r="A19" s="332"/>
       <c r="B19" s="100" t="s">
         <v>155</v>
       </c>
@@ -13676,7 +13736,7 @@
       <c r="A22" s="183"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="316" t="s">
+      <c r="A23" s="331" t="s">
         <v>516</v>
       </c>
       <c r="B23" s="98" t="s">
@@ -13692,7 +13752,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="317"/>
+      <c r="A24" s="332"/>
       <c r="B24" s="100" t="s">
         <v>256</v>
       </c>
@@ -13951,7 +14011,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="331" t="s">
         <v>520</v>
       </c>
       <c r="B3" s="98" t="s">
@@ -13972,7 +14032,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="318"/>
+      <c r="A4" s="333"/>
       <c r="B4" s="99" t="s">
         <v>86</v>
       </c>
@@ -13991,7 +14051,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="318"/>
+      <c r="A5" s="333"/>
       <c r="B5" s="99" t="s">
         <v>90</v>
       </c>
@@ -14010,7 +14070,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="318"/>
+      <c r="A6" s="333"/>
       <c r="B6" s="99" t="s">
         <v>329</v>
       </c>
@@ -14029,7 +14089,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="318"/>
+      <c r="A7" s="333"/>
       <c r="B7" s="99" t="s">
         <v>358</v>
       </c>
@@ -14045,7 +14105,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="318"/>
+      <c r="A8" s="333"/>
       <c r="B8" s="99" t="s">
         <v>356</v>
       </c>
@@ -14061,7 +14121,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="317"/>
+      <c r="A9" s="332"/>
       <c r="B9" s="100" t="s">
         <v>361</v>
       </c>
@@ -14081,7 +14141,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="316" t="s">
+      <c r="A11" s="331" t="s">
         <v>521</v>
       </c>
       <c r="B11" s="98" t="s">
@@ -14101,7 +14161,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="317"/>
+      <c r="A12" s="332"/>
       <c r="B12" s="100" t="s">
         <v>202</v>
       </c>
@@ -14148,7 +14208,7 @@
       <c r="A15" s="183"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="316" t="s">
+      <c r="A16" s="331" t="s">
         <v>522</v>
       </c>
       <c r="B16" s="98" t="s">
@@ -14168,7 +14228,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="318"/>
+      <c r="A17" s="333"/>
       <c r="B17" s="99" t="s">
         <v>335</v>
       </c>
@@ -14186,7 +14246,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="318"/>
+      <c r="A18" s="333"/>
       <c r="B18" s="99" t="s">
         <v>337</v>
       </c>
@@ -14204,7 +14264,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="318"/>
+      <c r="A19" s="333"/>
       <c r="B19" s="99" t="s">
         <v>339</v>
       </c>
@@ -14222,7 +14282,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="318"/>
+      <c r="A20" s="333"/>
       <c r="B20" s="99" t="s">
         <v>341</v>
       </c>
@@ -14240,7 +14300,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="318"/>
+      <c r="A21" s="333"/>
       <c r="B21" s="99" t="s">
         <v>344</v>
       </c>
@@ -14258,7 +14318,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="318"/>
+      <c r="A22" s="333"/>
       <c r="B22" s="99" t="s">
         <v>270</v>
       </c>
@@ -14274,7 +14334,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="318"/>
+      <c r="A23" s="333"/>
       <c r="B23" s="99" t="s">
         <v>268</v>
       </c>
@@ -14290,7 +14350,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="317"/>
+      <c r="A24" s="332"/>
       <c r="B24" s="100" t="s">
         <v>331</v>
       </c>
@@ -14311,7 +14371,7 @@
       <c r="A25" s="183"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="316" t="s">
+      <c r="A26" s="331" t="s">
         <v>523</v>
       </c>
       <c r="B26" s="98" t="s">
@@ -14331,7 +14391,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="317"/>
+      <c r="A27" s="332"/>
       <c r="B27" s="100" t="s">
         <v>456</v>
       </c>
